--- a/Report.xlsx
+++ b/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>Дата</t>
   </si>
@@ -74,607 +74,646 @@
     <t>ID клиента</t>
   </si>
   <si>
-    <t>2023-05-20 18:33:53</t>
-  </si>
-  <si>
-    <t>0521-4569</t>
-  </si>
-  <si>
-    <t>Гранкин Евгений Анатольевич</t>
-  </si>
-  <si>
-    <t>allion757@gmail.com</t>
+    <t>2023-03-23 14:21:12</t>
+  </si>
+  <si>
+    <t>0406-4020</t>
+  </si>
+  <si>
+    <t>Калугина Оксана Викторовна</t>
+  </si>
+  <si>
+    <t>ksuska806@gmail.com</t>
+  </si>
+  <si>
+    <t>Новая</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Отказ клиента</t>
+  </si>
+  <si>
+    <t>Просьба подать заявку на займ повторно!</t>
+  </si>
+  <si>
+    <t>Не оп</t>
+  </si>
+  <si>
+    <t>2023-03-25 09:15:45</t>
+  </si>
+  <si>
+    <t>0406-4025</t>
+  </si>
+  <si>
+    <t>Жибурт Максим Леонидович</t>
+  </si>
+  <si>
+    <t>gml_79@mail.ru</t>
   </si>
   <si>
     <t>ПК CRM</t>
   </si>
   <si>
-    <t>Developer</t>
+    <t>2023-05-23 11:54:29</t>
+  </si>
+  <si>
+    <t>0525-4599</t>
+  </si>
+  <si>
+    <t>Черногор Марина Сергеевна</t>
+  </si>
+  <si>
+    <t>marina_chernogor@mail.ru</t>
   </si>
   <si>
     <t>Займ выдан</t>
   </si>
   <si>
-    <t>2023-06-20 12:52:03</t>
-  </si>
-  <si>
-    <t>Не оп</t>
-  </si>
-  <si>
-    <t>2023-05-20 19:35:46</t>
-  </si>
-  <si>
-    <t>0521-4567</t>
-  </si>
-  <si>
-    <t>Ведрова Надежда Евгеньевна</t>
-  </si>
-  <si>
-    <t>vedrova.nadya@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-20 16:10:03</t>
-  </si>
-  <si>
-    <t>2023-05-20 20:33:40</t>
-  </si>
-  <si>
-    <t>Белик Валентина Ивановна</t>
-  </si>
-  <si>
-    <t>advocat.belik@mail.ru</t>
+    <t>2023-06-08 10:38:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2023-05-24 10:47:04</t>
+  </si>
+  <si>
+    <t>0525-4598</t>
+  </si>
+  <si>
+    <t>Мамуткина Оксана Николаевна</t>
+  </si>
+  <si>
+    <t>mamutkinaoksana7@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 12:02:04</t>
+  </si>
+  <si>
+    <t>click2money</t>
+  </si>
+  <si>
+    <t>2023-05-24 13:01:38</t>
+  </si>
+  <si>
+    <t>Колесник Анна Владимировна</t>
+  </si>
+  <si>
+    <t>anya_kolesnik04@icloud.com</t>
+  </si>
+  <si>
+    <t>2023-05-24 18:34:52</t>
+  </si>
+  <si>
+    <t>Магомедова Кистаман Шихшабековна</t>
+  </si>
+  <si>
+    <t>kistaman92@bk.ru</t>
+  </si>
+  <si>
+    <t>Повтор</t>
   </si>
   <si>
     <t>Отказ</t>
   </si>
   <si>
+    <t>Причина отказа: негативные факторы в кредитной истории по микрокредитам.</t>
+  </si>
+  <si>
+    <t>2023-05-24 19:31:09</t>
+  </si>
+  <si>
+    <t>0525-4601</t>
+  </si>
+  <si>
+    <t>Мискарян Юлия Валерьевна</t>
+  </si>
+  <si>
+    <t>miskaranulia@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:42:03</t>
+  </si>
+  <si>
+    <t>2023-05-24 20:10:29</t>
+  </si>
+  <si>
+    <t>Войтко Андрей Александрович</t>
+  </si>
+  <si>
+    <t>jenya2000g@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-24 21:17:14</t>
+  </si>
+  <si>
+    <t>Голубева Оксана Андреевна</t>
+  </si>
+  <si>
+    <t>golubevaoksana1@icloud.com</t>
+  </si>
+  <si>
     <t>Причина отказа: негативные факторы в кредитной истории.</t>
   </si>
   <si>
-    <t>2023-05-20 21:11:28</t>
-  </si>
-  <si>
-    <t>Артемьев Евгений Евгеньевич</t>
-  </si>
-  <si>
-    <t>evrenil.artemev.1991@gmail.com</t>
-  </si>
-  <si>
-    <t>Повтор</t>
-  </si>
-  <si>
-    <t>Причина отказа: негативные факторы в кредитной истории по микрокредитам.</t>
-  </si>
-  <si>
-    <t>2023-05-21 00:17:46</t>
-  </si>
-  <si>
-    <t>Залевский Иван Дмитриевич</t>
-  </si>
-  <si>
-    <t>ip.zal@bk.ru</t>
-  </si>
-  <si>
-    <t>Новая</t>
+    <t>2023-05-24 22:44:41</t>
+  </si>
+  <si>
+    <t>Антонян Люсинэ Арутюновна</t>
+  </si>
+  <si>
+    <t>Lyusineantonyan@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-05-24 23:52:22</t>
+  </si>
+  <si>
+    <t>0525-4602</t>
+  </si>
+  <si>
+    <t>Петунина Ксения Александровна</t>
+  </si>
+  <si>
+    <t>volokitinaksyu@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:46:03</t>
+  </si>
+  <si>
+    <t>2023-05-25 00:17:22</t>
+  </si>
+  <si>
+    <t>Блинова Юлия Сергеевна</t>
+  </si>
+  <si>
+    <t>blinova2690@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 00:24:50</t>
+  </si>
+  <si>
+    <t>НИканкина Ольга Борисовна</t>
+  </si>
+  <si>
+    <t>nikankinao4@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 00:59:31</t>
+  </si>
+  <si>
+    <t>Яблоновская Светлана Викторовна</t>
+  </si>
+  <si>
+    <t>svbyaka@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 01:07:31</t>
+  </si>
+  <si>
+    <t>Османова Камила Хизириевна</t>
+  </si>
+  <si>
+    <t>osmanova1418@gmail.com</t>
   </si>
   <si>
     <t>Причина отказа: наличие задолженности на сайте судебных приставов.</t>
   </si>
   <si>
-    <t>2023-05-21 00:24:00</t>
-  </si>
-  <si>
-    <t>Коростелев Антон Валерьевич</t>
-  </si>
-  <si>
-    <t>anton1995s@vk.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 00:28:50</t>
-  </si>
-  <si>
-    <t>0521-4566</t>
-  </si>
-  <si>
-    <t>Каширина Татьяна Юрьевна</t>
-  </si>
-  <si>
-    <t>kashirina22011969@yandex.ru</t>
-  </si>
-  <si>
-    <t>042023</t>
-  </si>
-  <si>
-    <t>2023-06-04 13:46:03</t>
-  </si>
-  <si>
-    <t>2023-05-21 00:34:13</t>
-  </si>
-  <si>
-    <t>Казанцева Виктория Сергеевна</t>
-  </si>
-  <si>
-    <t>kazancevav405@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 01:02:33</t>
-  </si>
-  <si>
-    <t>Бородина Полина Сергеевна</t>
-  </si>
-  <si>
-    <t>azumityan1@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 01:35:08</t>
-  </si>
-  <si>
-    <t>Полещук Данила Юрьевич</t>
-  </si>
-  <si>
-    <t>Danilkevech271@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 02:49:45</t>
-  </si>
-  <si>
-    <t>0521-4565</t>
-  </si>
-  <si>
-    <t>Самонина Олеся Олеговна</t>
-  </si>
-  <si>
-    <t>oleska55@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-20 14:14:03</t>
-  </si>
-  <si>
-    <t>2023-05-21 04:38:12</t>
-  </si>
-  <si>
-    <t>Бородина Анна Александровна</t>
-  </si>
-  <si>
-    <t>Anna.borodina.28@list.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 04:51:28</t>
-  </si>
-  <si>
-    <t>0521-4564</t>
-  </si>
-  <si>
-    <t>Гаврилова Наталья Владимировна</t>
-  </si>
-  <si>
-    <t>natali.gavrilova.1974@bk.ru</t>
-  </si>
-  <si>
-    <t>2023-06-04 12:32:03</t>
-  </si>
-  <si>
-    <t>2023-05-21 05:18:01</t>
-  </si>
-  <si>
-    <t>Гречаная Маргарита Юрьевна</t>
-  </si>
-  <si>
-    <t>ritagrek96@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 05:31:07</t>
-  </si>
-  <si>
-    <t>Прохоров Дмитрий Игоревич</t>
-  </si>
-  <si>
-    <t>moroz.prokhor@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 06:53:54</t>
-  </si>
-  <si>
-    <t>Лучина Елена Владимировна</t>
-  </si>
-  <si>
-    <t>elenaperetruhina1@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 07:38:26</t>
-  </si>
-  <si>
-    <t>Акопян Валентина Максимовна</t>
-  </si>
-  <si>
-    <t>valentina.akopyan1992@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 08:40:59</t>
-  </si>
-  <si>
-    <t>Бородич Анастасия Витальевна</t>
-  </si>
-  <si>
-    <t>markina.anastasia@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 08:57:10</t>
-  </si>
-  <si>
-    <t>Митин Данила Геннадьевич</t>
-  </si>
-  <si>
-    <t>danila262e3re323r@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 09:26:54</t>
-  </si>
-  <si>
-    <t>Тапхасова Яна Юрьевна</t>
-  </si>
-  <si>
-    <t>yana_yu2709@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 09:54:42</t>
-  </si>
-  <si>
-    <t>Камалтдинов Руслан Римович</t>
-  </si>
-  <si>
-    <t>ruslan4780@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 10:19:04</t>
-  </si>
-  <si>
-    <t>Маркина Алина Витальевна</t>
-  </si>
-  <si>
-    <t>9503441729@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 10:37:24</t>
-  </si>
-  <si>
-    <t>Дашиева Софья Борисовна</t>
-  </si>
-  <si>
-    <t>dashievasofya@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 10:39:55</t>
-  </si>
-  <si>
-    <t>Емельянов Максим Александрович</t>
-  </si>
-  <si>
-    <t>Emel_84@bk.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 10:48:21</t>
-  </si>
-  <si>
-    <t>Казанцев Павел Николаевич</t>
-  </si>
-  <si>
-    <t>ussr2209@icloud.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 11:52:44</t>
-  </si>
-  <si>
-    <t>Белякова Екатерина Юрьевна</t>
-  </si>
-  <si>
-    <t>bel.kat83@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 12:05:01</t>
-  </si>
-  <si>
-    <t>Березин Денис Александрович</t>
-  </si>
-  <si>
-    <t>97024@list.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 12:17:17</t>
-  </si>
-  <si>
-    <t>Никеенко Мария Леонидовна</t>
-  </si>
-  <si>
-    <t>ma_sha_ya@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 12:22:43</t>
-  </si>
-  <si>
-    <t>Денисов Евгений Викторович</t>
-  </si>
-  <si>
-    <t>evgenydenisov1@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 12:27:58</t>
-  </si>
-  <si>
-    <t>Прончатова Кристина Андреевна</t>
-  </si>
-  <si>
-    <t>kristi-ilek1995@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 12:44:39</t>
-  </si>
-  <si>
-    <t>Капитанчук Анастасия Сергеевна</t>
-  </si>
-  <si>
-    <t>1981and@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 12:58:45</t>
-  </si>
-  <si>
-    <t>Третьякова Надежда Яковлевна</t>
-  </si>
-  <si>
-    <t>nad86390437@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 13:13:25</t>
-  </si>
-  <si>
-    <t>Аниканова Александра Александровна</t>
-  </si>
-  <si>
-    <t>anikanovka.n@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 13:31:31</t>
-  </si>
-  <si>
-    <t>Киселева Ольга Александровна</t>
-  </si>
-  <si>
-    <t>lelya.kiseleva.olga@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 14:09:22</t>
-  </si>
-  <si>
-    <t>Казак Алёна Александровна</t>
-  </si>
-  <si>
-    <t>alionka141405@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 14:47:56</t>
-  </si>
-  <si>
-    <t>Бригадина Маргарита Александровна</t>
-  </si>
-  <si>
-    <t>margarita.artem2015@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 15:00:27</t>
-  </si>
-  <si>
-    <t>Субхонова Кристина Олеговна</t>
-  </si>
-  <si>
-    <t>kkamanenkova@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 15:06:35</t>
-  </si>
-  <si>
-    <t>Расчетов Никита Сергеевич</t>
-  </si>
-  <si>
-    <t>nikitaraschetov1721@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 15:09:25</t>
-  </si>
-  <si>
-    <t>Медведев Константин Олегович</t>
-  </si>
-  <si>
-    <t>kostya.medvedeff2015@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 15:43:05</t>
-  </si>
-  <si>
-    <t>Василевская Людмила Анатольевна</t>
-  </si>
-  <si>
-    <t>lucy.vasilevskaja@gmail.comm</t>
-  </si>
-  <si>
-    <t>2023-05-21 16:26:55</t>
-  </si>
-  <si>
-    <t>0521-4571</t>
-  </si>
-  <si>
-    <t>Алейник Андрей Владимирович</t>
-  </si>
-  <si>
-    <t>msarafankin@bk.ru</t>
-  </si>
-  <si>
-    <t>2023-06-20 18:32:03</t>
-  </si>
-  <si>
-    <t>2023-05-21 17:40:52</t>
-  </si>
-  <si>
-    <t>0521-4570</t>
-  </si>
-  <si>
-    <t>Камынин Илья Юрьевич</t>
-  </si>
-  <si>
-    <t>nomorerzn@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-20 18:52:03</t>
-  </si>
-  <si>
-    <t>2023-05-21 17:51:07</t>
-  </si>
-  <si>
-    <t>Богданов Георгий Игоревич</t>
-  </si>
-  <si>
-    <t>gmasterbogdanov@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 18:16:19</t>
-  </si>
-  <si>
-    <t>Кузьмина Ольга Валентиновна</t>
-  </si>
-  <si>
-    <t>kyzmina.1983@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 18:25:38</t>
-  </si>
-  <si>
-    <t>0521-4572</t>
-  </si>
-  <si>
-    <t>Ефимов Сергей Борисович</t>
-  </si>
-  <si>
-    <t>sbefimov.15@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-20 19:12:02</t>
-  </si>
-  <si>
-    <t>2023-05-21 18:57:20</t>
-  </si>
-  <si>
-    <t>чернова людмила сергеевна</t>
-  </si>
-  <si>
-    <t>l.s.chernova93@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 18:59:04</t>
-  </si>
-  <si>
-    <t>Джумагалиева Яна Дмитриевна</t>
-  </si>
-  <si>
-    <t>greshnova.yana@list.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 19:00:12</t>
-  </si>
-  <si>
-    <t>Пан Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>tanya-kansk84@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 19:58:42</t>
-  </si>
-  <si>
-    <t>Чернев Артем Дмитриевич</t>
-  </si>
-  <si>
-    <t>artemcernev907@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 20:18:41</t>
-  </si>
-  <si>
-    <t>Торопов Сергей Владимирович</t>
-  </si>
-  <si>
-    <t>toropov.serezha2016@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 21:24:17</t>
-  </si>
-  <si>
-    <t>Панина Анна Николаевна</t>
-  </si>
-  <si>
-    <t>AnnaPanina25@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 21:28:10</t>
-  </si>
-  <si>
-    <t>Масленников Дмитрий Сергеевич</t>
-  </si>
-  <si>
-    <t>cushionya96@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 22:03:57</t>
-  </si>
-  <si>
-    <t>Малова Анна Сергеевна</t>
-  </si>
-  <si>
-    <t>anutka1991malova@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 22:10:53</t>
-  </si>
-  <si>
-    <t>Данилова Зинаида Николаевна</t>
-  </si>
-  <si>
-    <t>zina-dan@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 22:17:25</t>
-  </si>
-  <si>
-    <t>Вяткина Дарья Владимировна</t>
-  </si>
-  <si>
-    <t>vyatkinadarya1995@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 22:27:01</t>
-  </si>
-  <si>
-    <t>Фурса Татьяна Вячеславовна</t>
-  </si>
-  <si>
-    <t>ksima022010@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-21 22:46:32</t>
-  </si>
-  <si>
-    <t>Симонова Ирина Валерьевна</t>
-  </si>
-  <si>
-    <t>deti89955980519@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-21 22:50:18</t>
-  </si>
-  <si>
-    <t>Куприянова Карина Александровна</t>
-  </si>
-  <si>
-    <t>kuprianovakarina87@gmail.com</t>
+    <t>2023-05-25 01:23:28</t>
+  </si>
+  <si>
+    <t>Чередин Андрей Владимирович</t>
+  </si>
+  <si>
+    <t>Andreycheredin@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 01:45:56</t>
+  </si>
+  <si>
+    <t>Печорин Вячеслав Вячеславович</t>
+  </si>
+  <si>
+    <t>revonk@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 01:50:09</t>
+  </si>
+  <si>
+    <t>Воробьев Михаил Алексеевич</t>
+  </si>
+  <si>
+    <t>vorobevmisa217@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 02:05:47</t>
+  </si>
+  <si>
+    <t>Мухин Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>vprol.imo@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 02:22:59</t>
+  </si>
+  <si>
+    <t>0525-4597</t>
+  </si>
+  <si>
+    <t>Гарипов Виктор Наильевич</t>
+  </si>
+  <si>
+    <t>garipovv1109@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-18 10:28:03</t>
+  </si>
+  <si>
+    <t>2023-05-25 03:17:44</t>
+  </si>
+  <si>
+    <t>Горовая Екатерина Анатольевна</t>
+  </si>
+  <si>
+    <t>g_katerina8989@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 03:18:59</t>
+  </si>
+  <si>
+    <t>Билалова Рузиля Равилевна</t>
+  </si>
+  <si>
+    <t>ruzila177@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 06:52:02</t>
+  </si>
+  <si>
+    <t>Каргапольцева Алина Васильевна</t>
+  </si>
+  <si>
+    <t>tiskfkdu@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 06:55:42</t>
+  </si>
+  <si>
+    <t>Кондратенко Виктория Сергеевна</t>
+  </si>
+  <si>
+    <t>vik.condratenko1988@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 07:34:43</t>
+  </si>
+  <si>
+    <t>Плясунова Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>katya.plyasunova.88@bk.ru</t>
+  </si>
+  <si>
+    <t>yandex</t>
+  </si>
+  <si>
+    <t>2023-05-25 07:44:25</t>
+  </si>
+  <si>
+    <t>Даненков Сергей Петрович</t>
+  </si>
+  <si>
+    <t>danencovs@hotmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 08:01:45</t>
+  </si>
+  <si>
+    <t>Хвоина Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>Hvoinv2104@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 08:24:50</t>
+  </si>
+  <si>
+    <t>Ковалева Дарья Леонидовна</t>
+  </si>
+  <si>
+    <t>dashateryuof@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 08:26:31</t>
+  </si>
+  <si>
+    <t>Саяпова Диана Ренадовна</t>
+  </si>
+  <si>
+    <t>diana.sayapova@bk.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 08:28:22</t>
+  </si>
+  <si>
+    <t>Махрова Марина Александровна</t>
+  </si>
+  <si>
+    <t>marinamahrova1998@icloud.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 08:47:49</t>
+  </si>
+  <si>
+    <t>Сиротская Евгения Валентиновна</t>
+  </si>
+  <si>
+    <t>sirotsckaya2011@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 08:48:30</t>
+  </si>
+  <si>
+    <t>Коровашков Алексей Леонидович</t>
+  </si>
+  <si>
+    <t>korovashkovalex743@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 09:02:25</t>
+  </si>
+  <si>
+    <t>Талеева Виктория Васильевна</t>
+  </si>
+  <si>
+    <t>vikataleeva98@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 09:09:15</t>
+  </si>
+  <si>
+    <t>Соломенникова Наталья Валерьевна</t>
+  </si>
+  <si>
+    <t>soloma.tema.81@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 09:24:53</t>
+  </si>
+  <si>
+    <t>Кулижский Вадим Олегович</t>
+  </si>
+  <si>
+    <t>vadim_kulizhskiy@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 09:27:10</t>
+  </si>
+  <si>
+    <t>Баранов Иван Викторович</t>
+  </si>
+  <si>
+    <t>solbum314@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 09:50:46</t>
+  </si>
+  <si>
+    <t>Ржанников Александр Валерьевич</t>
+  </si>
+  <si>
+    <t>lasteraqw@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 09:51:12</t>
+  </si>
+  <si>
+    <t>0525-4596</t>
+  </si>
+  <si>
+    <t>Куралесов Виталий Александрович</t>
+  </si>
+  <si>
+    <t>vit-kuralesov@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:16:02</t>
+  </si>
+  <si>
+    <t>2023-05-25 09:56:40</t>
+  </si>
+  <si>
+    <t>Масленникова Кристина Сергеевна</t>
+  </si>
+  <si>
+    <t>Maslennikova3932@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:03:18</t>
+  </si>
+  <si>
+    <t>Шукурова Татьяна Геннадьевна</t>
+  </si>
+  <si>
+    <t>shukurova.tat@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:05:34</t>
+  </si>
+  <si>
+    <t>Ермолаев Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>pavelermolaev43@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:11:51</t>
+  </si>
+  <si>
+    <t>Джафарова Лейла Ильхамовна</t>
+  </si>
+  <si>
+    <t>dzhafarova.l@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:13:04</t>
+  </si>
+  <si>
+    <t>Вахарик Лидия Александровна</t>
+  </si>
+  <si>
+    <t>lidiarudik@mail.rl</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:13:59</t>
+  </si>
+  <si>
+    <t>Такунцева Алена Алексеевна</t>
+  </si>
+  <si>
+    <t>alenatakunceva@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:18:01</t>
+  </si>
+  <si>
+    <t>Утябаева Оксана Александровна</t>
+  </si>
+  <si>
+    <t>utabaevaoksana@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:24:56</t>
+  </si>
+  <si>
+    <t>Соколовская Татьяна Юрьевна</t>
+  </si>
+  <si>
+    <t>tsokolovs98@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:26:07</t>
+  </si>
+  <si>
+    <t>Овчинникова Алена Алексеевна</t>
+  </si>
+  <si>
+    <t>alenaowwwch@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:34:17</t>
+  </si>
+  <si>
+    <t>пучкова елена сергеевна</t>
+  </si>
+  <si>
+    <t>elena.1584@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:36:19</t>
+  </si>
+  <si>
+    <t>Дмитриев Игорь Владимирович</t>
+  </si>
+  <si>
+    <t>idmitrich@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:37:34</t>
+  </si>
+  <si>
+    <t>Голуб Евгений Николаевич</t>
+  </si>
+  <si>
+    <t>evgenij.golub1990@icloud.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:40:59</t>
+  </si>
+  <si>
+    <t>Гераськин Евгений Вадимович</t>
+  </si>
+  <si>
+    <t>zhenia.gerasckin6@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:46:08</t>
+  </si>
+  <si>
+    <t>Щербаков Сергей Сергеевич</t>
+  </si>
+  <si>
+    <t>sergey_sherbakov1997@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:59:14</t>
+  </si>
+  <si>
+    <t>Кривых Илья Дмитриевич</t>
+  </si>
+  <si>
+    <t>ilqha98@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 11:06:04</t>
+  </si>
+  <si>
+    <t>0525-4603</t>
+  </si>
+  <si>
+    <t>Долматов Юрий Яковлевич</t>
+  </si>
+  <si>
+    <t>surgedolmatov@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-24 11:18:03</t>
+  </si>
+  <si>
+    <t>2023-05-25 11:11:20</t>
+  </si>
+  <si>
+    <t>Букина Анна Андреевна</t>
+  </si>
+  <si>
+    <t>antyanet-b@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 11:21:49</t>
+  </si>
+  <si>
+    <t>Фоменко Нианилла Александровна</t>
+  </si>
+  <si>
+    <t>fomenko.nila@bk.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 11:25:57</t>
+  </si>
+  <si>
+    <t>Койносова Мария Евгеньевна</t>
+  </si>
+  <si>
+    <t>masha_9192@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 11:26:00</t>
+  </si>
+  <si>
+    <t>Рагулин Евгений Викторович</t>
+  </si>
+  <si>
+    <t>eragulin2@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 11:41:47</t>
+  </si>
+  <si>
+    <t>Мережко Александр Романович</t>
+  </si>
+  <si>
+    <t>Mereha1773@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-25 11:49:21</t>
+  </si>
+  <si>
+    <t>Тихомиров Алексей Николаевич</t>
+  </si>
+  <si>
+    <t>atihomirov1986@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-05-25 12:02:29</t>
+  </si>
+  <si>
+    <t>Иванов Сергей Юрьевич</t>
+  </si>
+  <si>
+    <t>bossss.serw@mail.ri</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1049,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>79237750520</v>
+        <v>79009666210</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2">
-        <v>7890.0</v>
+        <v>4000</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -1126,16 +1165,16 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2"/>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
       <c r="K2"/>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
+      <c r="L2"/>
       <c r="M2">
-        <v>0</v>
+        <v>0.51724137931034</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O2"/>
       <c r="P2">
@@ -1145,10 +1184,10 @@
         <v>27</v>
       </c>
       <c r="R2">
-        <v>42523</v>
+        <v>39217</v>
       </c>
       <c r="S2">
-        <v>12254</v>
+        <v>25011</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1162,16 +1201,16 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>79159622553</v>
+        <v>79053323332</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3">
-        <v>5890.0</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -1179,16 +1218,16 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
       <c r="K3"/>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
+      <c r="L3"/>
       <c r="M3">
-        <v>0.20740740740741</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O3"/>
       <c r="P3">
@@ -1198,28 +1237,30 @@
         <v>27</v>
       </c>
       <c r="R3">
-        <v>42525</v>
+        <v>39351</v>
       </c>
       <c r="S3">
-        <v>27616</v>
+        <v>20904</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>79024735592</v>
+        <v>79832939607</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>7000</v>
+        <v>5890.0</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -1228,15 +1269,15 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
         <v>37</v>
       </c>
+      <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.22857142857143</v>
       </c>
       <c r="N4">
         <v>14</v>
@@ -1246,99 +1287,101 @@
         <v>820684.52</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R4">
-        <v>42528</v>
+        <v>42676</v>
       </c>
       <c r="S4">
-        <v>20130</v>
+        <v>35761</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5"/>
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>79994452768</v>
+        <v>79277052498</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5">
-        <v>10000</v>
+        <v>5890.0</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J5"/>
       <c r="K5"/>
-      <c r="L5"/>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
       <c r="M5">
-        <v>0.28571428571429</v>
+        <v>0.38461538461538</v>
       </c>
       <c r="N5">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O5"/>
       <c r="P5">
         <v>820684.52</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R5">
-        <v>42529</v>
+        <v>42744</v>
       </c>
       <c r="S5">
-        <v>30622</v>
+        <v>35834</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>79636371999</v>
+        <v>79050843003</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6">
-        <v>0.058333333333333</v>
+        <v>0.022222222222222</v>
       </c>
       <c r="N6">
         <v>14</v>
@@ -1348,51 +1391,51 @@
         <v>820684.52</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R6">
-        <v>42536</v>
+        <v>42750</v>
       </c>
       <c r="S6">
-        <v>35631</v>
+        <v>35846</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>79965952195</v>
+        <v>79034988872</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7">
-        <v>0.19444444444444</v>
+        <v>0.12727272727273</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O7"/>
       <c r="P7">
@@ -1402,30 +1445,30 @@
         <v>27</v>
       </c>
       <c r="R7">
-        <v>42537</v>
+        <v>42787</v>
       </c>
       <c r="S7">
-        <v>35632</v>
+        <v>34237</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>79286113416</v>
+        <v>79888914712</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F8">
-        <v>7890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -1434,17 +1477,15 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J8"/>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
+      <c r="K8"/>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>0.23529411764706</v>
+        <v>0.12790697674419</v>
       </c>
       <c r="N8">
         <v>14</v>
@@ -1454,99 +1495,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R8">
-        <v>42538</v>
+        <v>42790</v>
       </c>
       <c r="S8">
-        <v>35063</v>
+        <v>35901</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>79935360363</v>
+        <v>79226207308</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F9">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9">
-        <v>0.047916666666667</v>
+        <v>0.17857142857143</v>
       </c>
       <c r="N9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O9"/>
       <c r="P9">
         <v>820684.52</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R9">
-        <v>42539</v>
+        <v>42793</v>
       </c>
       <c r="S9">
-        <v>35634</v>
+        <v>35907</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>79097738161</v>
+        <v>79001105043</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F10">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10">
-        <v>0.053333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="N10">
         <v>14</v>
@@ -1556,84 +1597,84 @@
         <v>820684.52</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R10">
-        <v>42540</v>
+        <v>42800</v>
       </c>
       <c r="S10">
-        <v>35636</v>
+        <v>34994</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>79538602100</v>
+        <v>79530705212</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F11">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11">
-        <v>0.083333333333333</v>
+        <v>0.14285714285714</v>
       </c>
       <c r="N11">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O11"/>
       <c r="P11">
         <v>820684.52</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R11">
-        <v>42541</v>
+        <v>42812</v>
       </c>
       <c r="S11">
-        <v>35637</v>
+        <v>35929</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>79033236792</v>
+        <v>79642438444</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F12">
-        <v>7890.0</v>
+        <v>5890.0</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -1642,66 +1683,66 @@
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M12">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="N12">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O12"/>
       <c r="P12">
         <v>820684.52</v>
       </c>
       <c r="Q12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R12">
-        <v>42542</v>
+        <v>42817</v>
       </c>
       <c r="S12">
-        <v>28616</v>
+        <v>35937</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>79029391650</v>
+        <v>79997711736</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>15000</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13">
-        <v>0.052631578947368</v>
+        <v>0.47368421052632</v>
       </c>
       <c r="N13">
         <v>30</v>
@@ -1711,33 +1752,31 @@
         <v>820684.52</v>
       </c>
       <c r="Q13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R13">
-        <v>42543</v>
+        <v>42819</v>
       </c>
       <c r="S13">
-        <v>35639</v>
+        <v>35938</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B14"/>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D14">
-        <v>79003849442</v>
+        <v>79005126448</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>12990.0</v>
+        <v>13000</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -1746,168 +1785,168 @@
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14"/>
+        <v>53</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
       <c r="K14"/>
-      <c r="L14" t="s">
-        <v>78</v>
-      </c>
+      <c r="L14"/>
       <c r="M14">
-        <v>0.25842696629213</v>
+        <v>0.11111111111111</v>
       </c>
       <c r="N14">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O14"/>
       <c r="P14">
         <v>820684.52</v>
       </c>
       <c r="Q14" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R14">
-        <v>42544</v>
+        <v>42820</v>
       </c>
       <c r="S14">
-        <v>33401</v>
+        <v>35904</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15">
-        <v>79529046124</v>
+        <v>79525929684</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15">
-        <v>0.071428571428571</v>
+        <v>0.22105263157895</v>
       </c>
       <c r="N15">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O15"/>
       <c r="P15">
         <v>820684.52</v>
       </c>
       <c r="Q15" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R15">
-        <v>42545</v>
+        <v>42822</v>
       </c>
       <c r="S15">
-        <v>35640</v>
+        <v>35942</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16">
-        <v>79159643263</v>
+        <v>79289606252</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
         <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16">
-        <v>0.044117647058824</v>
+        <v>0.25</v>
       </c>
       <c r="N16">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O16"/>
       <c r="P16">
         <v>820684.52</v>
       </c>
       <c r="Q16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R16">
-        <v>42546</v>
+        <v>42823</v>
       </c>
       <c r="S16">
-        <v>35641</v>
+        <v>35941</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D17">
-        <v>79635150554</v>
+        <v>79627571389</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F17">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
         <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17">
-        <v>0.13513513513514</v>
+        <v>0.17142857142857</v>
       </c>
       <c r="N17">
         <v>14</v>
@@ -1917,150 +1956,150 @@
         <v>820684.52</v>
       </c>
       <c r="Q17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R17">
-        <v>42547</v>
+        <v>42824</v>
       </c>
       <c r="S17">
-        <v>30494</v>
+        <v>35945</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D18">
-        <v>79243315467</v>
+        <v>79998339597</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>15000</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18">
-        <v>0.046666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="N18">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O18"/>
       <c r="P18">
         <v>820684.52</v>
       </c>
       <c r="Q18" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R18">
-        <v>42548</v>
+        <v>42825</v>
       </c>
       <c r="S18">
-        <v>35642</v>
+        <v>35948</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D19">
-        <v>79103953754</v>
+        <v>79678091905</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F19">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19">
-        <v>0.42105263157895</v>
+        <v>0.076923076923077</v>
       </c>
       <c r="N19">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O19"/>
       <c r="P19">
         <v>820684.52</v>
       </c>
       <c r="Q19" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R19">
-        <v>42549</v>
+        <v>42826</v>
       </c>
       <c r="S19">
-        <v>25914</v>
+        <v>35947</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D20">
-        <v>79518120323</v>
+        <v>79108850234</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F20">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20">
-        <v>0.16949152542373</v>
+        <v>0.11666666666667</v>
       </c>
       <c r="N20">
         <v>30</v>
@@ -2073,48 +2112,50 @@
         <v>27</v>
       </c>
       <c r="R20">
-        <v>42550</v>
+        <v>42827</v>
       </c>
       <c r="S20">
-        <v>35646</v>
+        <v>28785</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21"/>
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D21">
-        <v>79834131259</v>
+        <v>79147935961</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F21">
-        <v>5000</v>
+        <v>9990.0</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
         <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" t="s">
-        <v>42</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J21"/>
       <c r="K21"/>
-      <c r="L21"/>
+      <c r="L21" t="s">
+        <v>104</v>
+      </c>
       <c r="M21">
-        <v>0.17777777777778</v>
+        <v>0.11904761904762</v>
       </c>
       <c r="N21">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O21"/>
       <c r="P21">
@@ -2124,45 +2165,45 @@
         <v>27</v>
       </c>
       <c r="R21">
-        <v>42551</v>
+        <v>42828</v>
       </c>
       <c r="S21">
-        <v>32151</v>
+        <v>33962</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D22">
-        <v>79097051234</v>
+        <v>79892465967</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F22">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22">
-        <v>0.090909090909091</v>
+        <v>0.29166666666667</v>
       </c>
       <c r="N22">
         <v>14</v>
@@ -2172,99 +2213,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R22">
-        <v>42552</v>
+        <v>42829</v>
       </c>
       <c r="S22">
-        <v>35624</v>
+        <v>35952</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B23"/>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D23">
-        <v>79503441729</v>
+        <v>79821835051</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F23">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23">
-        <v>0.17647058823529</v>
+        <v>0.02</v>
       </c>
       <c r="N23">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O23"/>
       <c r="P23">
         <v>820684.52</v>
       </c>
       <c r="Q23" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R23">
-        <v>42553</v>
+        <v>42830</v>
       </c>
       <c r="S23">
-        <v>28893</v>
+        <v>35953</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D24">
-        <v>79244505751</v>
+        <v>79503830541</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F24">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
         <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24">
-        <v>0.2</v>
+        <v>0.22222222222222</v>
       </c>
       <c r="N24">
         <v>14</v>
@@ -2274,94 +2315,94 @@
         <v>820684.52</v>
       </c>
       <c r="Q24" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R24">
-        <v>42554</v>
+        <v>42832</v>
       </c>
       <c r="S24">
-        <v>35649</v>
+        <v>35962</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <v>79535358062</v>
+        <v>79774771814</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F25">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25">
-        <v>0.1219512195122</v>
+        <v>0.175</v>
       </c>
       <c r="N25">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O25"/>
       <c r="P25">
         <v>820684.52</v>
       </c>
       <c r="Q25" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R25">
-        <v>42555</v>
+        <v>42833</v>
       </c>
       <c r="S25">
-        <v>35650</v>
+        <v>35961</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D26">
-        <v>79107030330</v>
+        <v>79143435341</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F26">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
         <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -2376,150 +2417,150 @@
         <v>820684.52</v>
       </c>
       <c r="Q26" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="R26">
-        <v>42556</v>
+        <v>42834</v>
       </c>
       <c r="S26">
-        <v>13800</v>
+        <v>19193</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D27">
-        <v>79517375963</v>
+        <v>79282952306</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F27">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27">
-        <v>0.058823529411765</v>
+        <v>0.026666666666667</v>
       </c>
       <c r="N27">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="O27"/>
       <c r="P27">
         <v>820684.52</v>
       </c>
       <c r="Q27" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R27">
-        <v>42557</v>
+        <v>42835</v>
       </c>
       <c r="S27">
-        <v>28693</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D28">
-        <v>79996679719</v>
+        <v>79937233316</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F28">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
         <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28">
-        <v>0.4</v>
+        <v>0.072815533980583</v>
       </c>
       <c r="N28">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O28"/>
       <c r="P28">
         <v>820684.52</v>
       </c>
       <c r="Q28" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R28">
-        <v>42558</v>
+        <v>42836</v>
       </c>
       <c r="S28">
-        <v>35652</v>
+        <v>35970</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D29">
-        <v>79005586985</v>
+        <v>79041236490</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F29">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
         <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29">
-        <v>0.30769230769231</v>
+        <v>0.2</v>
       </c>
       <c r="N29">
         <v>30</v>
@@ -2529,99 +2570,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q29" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R29">
-        <v>42559</v>
+        <v>42837</v>
       </c>
       <c r="S29">
-        <v>35653</v>
+        <v>35972</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D30">
-        <v>79271041813</v>
+        <v>79656688412</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F30">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30">
-        <v>0</v>
+        <v>0.175</v>
       </c>
       <c r="N30">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O30"/>
       <c r="P30">
         <v>820684.52</v>
       </c>
       <c r="Q30" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R30">
-        <v>42560</v>
+        <v>42838</v>
       </c>
       <c r="S30">
-        <v>16535</v>
+        <v>35974</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D31">
-        <v>79501854957</v>
+        <v>79507715479</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F31">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31">
-        <v>0.090909090909091</v>
+        <v>0.14</v>
       </c>
       <c r="N31">
         <v>30</v>
@@ -2631,99 +2672,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q31" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R31">
-        <v>42561</v>
+        <v>42839</v>
       </c>
       <c r="S31">
-        <v>35654</v>
+        <v>35973</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D32">
-        <v>79949971874</v>
+        <v>79164152706</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F32">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
         <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32">
-        <v>2.258064516129</v>
+        <v>0.5</v>
       </c>
       <c r="N32">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O32"/>
       <c r="P32">
         <v>820684.52</v>
       </c>
       <c r="Q32" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R32">
-        <v>42562</v>
+        <v>42841</v>
       </c>
       <c r="S32">
-        <v>35655</v>
+        <v>35977</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D33">
-        <v>79600152130</v>
+        <v>79056162796</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F33">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
         <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33">
-        <v>0.044444444444444</v>
+        <v>0.05</v>
       </c>
       <c r="N33">
         <v>14</v>
@@ -2733,204 +2774,204 @@
         <v>820684.52</v>
       </c>
       <c r="Q33" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R33">
-        <v>42563</v>
+        <v>42842</v>
       </c>
       <c r="S33">
-        <v>35656</v>
+        <v>35954</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D34">
-        <v>79934202160</v>
+        <v>79003984630</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F34">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
         <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34">
-        <v>0.2247191011236</v>
+        <v>0.025</v>
       </c>
       <c r="N34">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O34"/>
       <c r="P34">
         <v>820684.52</v>
       </c>
       <c r="Q34" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R34">
-        <v>42564</v>
+        <v>42843</v>
       </c>
       <c r="S34">
-        <v>32922</v>
+        <v>35980</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D35">
-        <v>79033020548</v>
+        <v>79130806762</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F35">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
         <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35">
-        <v>0.34285714285714</v>
+        <v>0.025373134328358</v>
       </c>
       <c r="N35">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O35"/>
       <c r="P35">
         <v>820684.52</v>
       </c>
       <c r="Q35" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R35">
-        <v>42565</v>
+        <v>42844</v>
       </c>
       <c r="S35">
-        <v>35658</v>
+        <v>35981</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B36"/>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D36">
-        <v>79004325669</v>
+        <v>79962051819</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F36">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
         <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36">
-        <v>0.055555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="N36">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O36"/>
       <c r="P36">
         <v>820684.52</v>
       </c>
       <c r="Q36" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R36">
-        <v>42566</v>
+        <v>42845</v>
       </c>
       <c r="S36">
-        <v>35661</v>
+        <v>35983</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B37"/>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D37">
-        <v>79508470286</v>
+        <v>79523366423</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F37">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
         <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37">
-        <v>0.055555555555556</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O37"/>
       <c r="P37">
@@ -2940,147 +2981,149 @@
         <v>27</v>
       </c>
       <c r="R37">
-        <v>42567</v>
+        <v>42846</v>
       </c>
       <c r="S37">
-        <v>32512</v>
+        <v>19037</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D38">
-        <v>79217794626</v>
+        <v>79955425351</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F38">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H38" t="s">
         <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38">
-        <v>0.11538461538462</v>
+        <v>0.17857142857143</v>
       </c>
       <c r="N38">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="O38"/>
       <c r="P38">
         <v>820684.52</v>
       </c>
       <c r="Q38" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R38">
-        <v>42568</v>
+        <v>42847</v>
       </c>
       <c r="S38">
-        <v>32502</v>
+        <v>35976</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39"/>
+        <v>157</v>
+      </c>
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D39">
-        <v>79158148305</v>
+        <v>79507515669</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F39">
-        <v>5000</v>
+        <v>5890.0</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
         <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" t="s">
         <v>37</v>
       </c>
+      <c r="J39"/>
       <c r="K39"/>
-      <c r="L39"/>
+      <c r="L39" t="s">
+        <v>161</v>
+      </c>
       <c r="M39">
-        <v>0.20338983050847</v>
+        <v>0.47169811320755</v>
       </c>
       <c r="N39">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O39"/>
       <c r="P39">
         <v>820684.52</v>
       </c>
       <c r="Q39" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R39">
-        <v>42569</v>
+        <v>42848</v>
       </c>
       <c r="S39">
-        <v>35663</v>
+        <v>35985</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D40">
-        <v>79511952638</v>
+        <v>79133789155</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F40">
         <v>15000</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H40" t="s">
         <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N40">
         <v>30</v>
@@ -3090,84 +3133,82 @@
         <v>820684.52</v>
       </c>
       <c r="Q40" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R40">
-        <v>42570</v>
+        <v>42849</v>
       </c>
       <c r="S40">
-        <v>35664</v>
+        <v>34665</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D41">
-        <v>79602147240</v>
+        <v>79920417304</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F41">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H41" t="s">
         <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41">
-        <v>0.10416666666667</v>
+        <v>0.2</v>
       </c>
       <c r="N41">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O41"/>
       <c r="P41">
         <v>820684.52</v>
       </c>
       <c r="Q41" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R41">
-        <v>42571</v>
+        <v>42850</v>
       </c>
       <c r="S41">
-        <v>35667</v>
+        <v>35989</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" t="s">
-        <v>161</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B42"/>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D42">
-        <v>79620433008</v>
+        <v>79133739711</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F42">
-        <v>7890.0</v>
+        <v>10000</v>
       </c>
       <c r="G42" t="s">
         <v>23</v>
@@ -3176,71 +3217,69 @@
         <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42"/>
+        <v>53</v>
+      </c>
+      <c r="J42" t="s">
+        <v>54</v>
+      </c>
       <c r="K42"/>
-      <c r="L42" t="s">
-        <v>164</v>
-      </c>
+      <c r="L42"/>
       <c r="M42">
-        <v>0.26785714285714</v>
+        <v>0.125</v>
       </c>
       <c r="N42">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O42"/>
       <c r="P42">
         <v>820684.52</v>
       </c>
       <c r="Q42" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R42">
-        <v>42573</v>
+        <v>42851</v>
       </c>
       <c r="S42">
-        <v>33834</v>
+        <v>35991</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" t="s">
-        <v>166</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B43"/>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D43">
-        <v>79206355374</v>
+        <v>79686700905</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F43">
-        <v>5890.0</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
         <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43"/>
+        <v>53</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
       <c r="K43"/>
-      <c r="L43" t="s">
-        <v>169</v>
-      </c>
+      <c r="L43"/>
       <c r="M43">
-        <v>0.25</v>
+        <v>0.16666666666667</v>
       </c>
       <c r="N43">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O43"/>
       <c r="P43">
@@ -3250,45 +3289,45 @@
         <v>27</v>
       </c>
       <c r="R43">
-        <v>42574</v>
+        <v>42852</v>
       </c>
       <c r="S43">
-        <v>25451</v>
+        <v>34053</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D44">
-        <v>79166494147</v>
+        <v>79114800684</v>
       </c>
       <c r="E44" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F44">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
         <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J44" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44">
-        <v>0.17857142857143</v>
+        <v>0.3125</v>
       </c>
       <c r="N44">
         <v>14</v>
@@ -3298,84 +3337,82 @@
         <v>820684.52</v>
       </c>
       <c r="Q44" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R44">
-        <v>42575</v>
+        <v>42853</v>
       </c>
       <c r="S44">
-        <v>35669</v>
+        <v>24464</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D45">
-        <v>79045759762</v>
+        <v>79043021491</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F45">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
         <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45">
-        <v>0.0275</v>
+        <v>0.02</v>
       </c>
       <c r="N45">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O45"/>
       <c r="P45">
         <v>820684.52</v>
       </c>
       <c r="Q45" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R45">
-        <v>42576</v>
+        <v>42854</v>
       </c>
       <c r="S45">
-        <v>35671</v>
+        <v>35988</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" t="s">
-        <v>177</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B46"/>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D46">
-        <v>79633333838</v>
+        <v>79649565867</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F46">
-        <v>7890.0</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="s">
         <v>23</v>
@@ -3384,15 +3421,15 @@
         <v>24</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46"/>
+        <v>53</v>
+      </c>
+      <c r="J46" t="s">
+        <v>87</v>
+      </c>
       <c r="K46"/>
-      <c r="L46" t="s">
-        <v>180</v>
-      </c>
+      <c r="L46"/>
       <c r="M46">
-        <v>0.15384615384615</v>
+        <v>0.10416666666667</v>
       </c>
       <c r="N46">
         <v>30</v>
@@ -3402,150 +3439,150 @@
         <v>820684.52</v>
       </c>
       <c r="Q46" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R46">
-        <v>42577</v>
+        <v>42855</v>
       </c>
       <c r="S46">
-        <v>26578</v>
+        <v>35990</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D47">
-        <v>79093808903</v>
+        <v>79805240574</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F47">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s">
         <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47">
-        <v>0</v>
+        <v>0.066666666666667</v>
       </c>
       <c r="N47">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="O47"/>
       <c r="P47">
         <v>820684.52</v>
       </c>
       <c r="Q47" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R47">
-        <v>42578</v>
+        <v>42856</v>
       </c>
       <c r="S47">
-        <v>23915</v>
+        <v>35993</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B48"/>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D48">
-        <v>79511820978</v>
+        <v>79145201925</v>
       </c>
       <c r="E48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F48">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48">
-        <v>0.00033333333333333</v>
+        <v>0.044444444444444</v>
       </c>
       <c r="N48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O48"/>
       <c r="P48">
         <v>820684.52</v>
       </c>
       <c r="Q48" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R48">
-        <v>42579</v>
+        <v>42857</v>
       </c>
       <c r="S48">
-        <v>35673</v>
+        <v>35986</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B49"/>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D49">
-        <v>79913752102</v>
+        <v>79619774254</v>
       </c>
       <c r="E49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F49">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s">
         <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49">
-        <v>0.085714285714286</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>30</v>
@@ -3558,28 +3595,28 @@
         <v>27</v>
       </c>
       <c r="R49">
-        <v>42580</v>
+        <v>42858</v>
       </c>
       <c r="S49">
-        <v>35672</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B50"/>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D50">
-        <v>79649540687</v>
+        <v>79131035918</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F50">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G50" t="s">
         <v>23</v>
@@ -3588,15 +3625,15 @@
         <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50">
-        <v>0.17</v>
+        <v>0.22222222222222</v>
       </c>
       <c r="N50">
         <v>30</v>
@@ -3606,201 +3643,201 @@
         <v>820684.52</v>
       </c>
       <c r="Q50" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R50">
-        <v>42581</v>
+        <v>42859</v>
       </c>
       <c r="S50">
-        <v>29868</v>
+        <v>35996</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B51"/>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D51">
-        <v>79533001344</v>
+        <v>79384799253</v>
       </c>
       <c r="E51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F51">
         <v>5000</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
         <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="N51">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O51"/>
       <c r="P51">
         <v>820684.52</v>
       </c>
       <c r="Q51" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R51">
-        <v>42582</v>
+        <v>42860</v>
       </c>
       <c r="S51">
-        <v>12410</v>
+        <v>35995</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B52"/>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D52">
-        <v>79166173002</v>
+        <v>79999645617</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F52">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
         <v>24</v>
       </c>
       <c r="I52" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52">
-        <v>0.45333333333333</v>
+        <v>0.13333333333333</v>
       </c>
       <c r="N52">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O52"/>
       <c r="P52">
         <v>820684.52</v>
       </c>
       <c r="Q52" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R52">
-        <v>42584</v>
+        <v>42861</v>
       </c>
       <c r="S52">
-        <v>35674</v>
+        <v>35997</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B53"/>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D53">
-        <v>79999870296</v>
+        <v>79139800250</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F53">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
         <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53">
-        <v>0.58620689655172</v>
+        <v>0.10416666666667</v>
       </c>
       <c r="N53">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="O53"/>
       <c r="P53">
         <v>820684.52</v>
       </c>
       <c r="Q53" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R53">
-        <v>42585</v>
+        <v>42862</v>
       </c>
       <c r="S53">
-        <v>35675</v>
+        <v>35998</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B54"/>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D54">
-        <v>79530138432</v>
+        <v>79205834265</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F54">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s">
         <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54">
-        <v>0.28</v>
+        <v>0.075</v>
       </c>
       <c r="N54">
         <v>14</v>
@@ -3813,96 +3850,98 @@
         <v>27</v>
       </c>
       <c r="R54">
-        <v>42586</v>
+        <v>42863</v>
       </c>
       <c r="S54">
-        <v>35678</v>
+        <v>27723</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55"/>
+        <v>207</v>
+      </c>
+      <c r="B55" t="s">
+        <v>208</v>
+      </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D55">
-        <v>79870631650</v>
+        <v>79991001551</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F55">
-        <v>6000</v>
+        <v>5890.0</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
         <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J55"/>
       <c r="K55"/>
-      <c r="L55"/>
+      <c r="L55" t="s">
+        <v>211</v>
+      </c>
       <c r="M55">
-        <v>0.095238095238095</v>
+        <v>0.48076923076923</v>
       </c>
       <c r="N55">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O55"/>
       <c r="P55">
         <v>820684.52</v>
       </c>
       <c r="Q55" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R55">
-        <v>42587</v>
+        <v>42864</v>
       </c>
       <c r="S55">
-        <v>31229</v>
+        <v>34823</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B56"/>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D56">
-        <v>79885753193</v>
+        <v>79517860543</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F56">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
         <v>24</v>
       </c>
       <c r="I56" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56">
-        <v>0.026315789473684</v>
+        <v>0.058823529411765</v>
       </c>
       <c r="N56">
         <v>30</v>
@@ -3912,48 +3951,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q56" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R56">
-        <v>42588</v>
+        <v>42865</v>
       </c>
       <c r="S56">
-        <v>35679</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B57"/>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D57">
-        <v>79050935812</v>
+        <v>79111666911</v>
       </c>
       <c r="E57" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F57">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H57" t="s">
         <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57">
-        <v>0.12962962962963</v>
+        <v>0.11320754716981</v>
       </c>
       <c r="N57">
         <v>14</v>
@@ -3963,48 +4002,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q57" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R57">
-        <v>42589</v>
+        <v>42866</v>
       </c>
       <c r="S57">
-        <v>29051</v>
+        <v>36002</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B58"/>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D58">
-        <v>79955980519</v>
+        <v>79050241203</v>
       </c>
       <c r="E58" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F58">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H58" t="s">
         <v>24</v>
       </c>
       <c r="I58" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58">
-        <v>0.039473684210526</v>
+        <v>0.28571428571429</v>
       </c>
       <c r="N58">
         <v>30</v>
@@ -4014,64 +4053,217 @@
         <v>820684.52</v>
       </c>
       <c r="Q58" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R58">
-        <v>42590</v>
+        <v>42867</v>
       </c>
       <c r="S58">
-        <v>35680</v>
+        <v>36003</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B59"/>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D59">
-        <v>79898257360</v>
+        <v>79257317719</v>
       </c>
       <c r="E59" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F59">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
         <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59">
-        <v>0.175</v>
+        <v>0.11764705882353</v>
       </c>
       <c r="N59">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O59"/>
       <c r="P59">
         <v>820684.52</v>
       </c>
       <c r="Q59" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R59">
-        <v>42591</v>
+        <v>42868</v>
       </c>
       <c r="S59">
-        <v>34552</v>
+        <v>36005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60">
+        <v>79130763563</v>
+      </c>
+      <c r="E60" t="s">
+        <v>226</v>
+      </c>
+      <c r="F60">
+        <v>7000</v>
+      </c>
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" t="s">
+        <v>66</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60">
+        <v>0.080459770114943</v>
+      </c>
+      <c r="N60">
+        <v>14</v>
+      </c>
+      <c r="O60"/>
+      <c r="P60">
+        <v>820684.52</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>45</v>
+      </c>
+      <c r="R60">
+        <v>42869</v>
+      </c>
+      <c r="S60">
+        <v>36006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61">
+        <v>79517521462</v>
+      </c>
+      <c r="E61" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61">
+        <v>11000</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" t="s">
+        <v>54</v>
+      </c>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61">
+        <v>0.19512195121951</v>
+      </c>
+      <c r="N61">
+        <v>30</v>
+      </c>
+      <c r="O61"/>
+      <c r="P61">
+        <v>820684.52</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>45</v>
+      </c>
+      <c r="R61">
+        <v>42870</v>
+      </c>
+      <c r="S61">
+        <v>36008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62">
+        <v>79135199307</v>
+      </c>
+      <c r="E62" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62">
+        <v>15000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" t="s">
+        <v>66</v>
+      </c>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62">
+        <v>0.060240963855422</v>
+      </c>
+      <c r="N62">
+        <v>30</v>
+      </c>
+      <c r="O62"/>
+      <c r="P62">
+        <v>820684.52</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>39</v>
+      </c>
+      <c r="R62">
+        <v>42871</v>
+      </c>
+      <c r="S62">
+        <v>36010</v>
       </c>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t>Дата</t>
   </si>
@@ -74,16 +74,13 @@
     <t>ID клиента</t>
   </si>
   <si>
-    <t>2023-03-23 14:21:12</t>
-  </si>
-  <si>
-    <t>0406-4020</t>
-  </si>
-  <si>
-    <t>Калугина Оксана Викторовна</t>
-  </si>
-  <si>
-    <t>ksuska806@gmail.com</t>
+    <t>2023-05-27 15:14:17</t>
+  </si>
+  <si>
+    <t>Паршина Наталия Анатольевна</t>
+  </si>
+  <si>
+    <t>nataliakusnir94@gmail.com</t>
   </si>
   <si>
     <t>Новая</t>
@@ -98,622 +95,853 @@
     <t>Просьба подать заявку на займ повторно!</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2023-05-30 11:44:28</t>
+  </si>
+  <si>
+    <t>Шитиков Андрей Васильевич</t>
+  </si>
+  <si>
+    <t>Sia68341@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-05-30 20:11:30</t>
+  </si>
+  <si>
+    <t>Слабяк Вадим Петрович</t>
+  </si>
+  <si>
+    <t>moon.art2013@yandex.ru</t>
+  </si>
+  <si>
+    <t>Отказ</t>
+  </si>
+  <si>
+    <t>Причина отказа: негативные факторы в кредитной истории по микрокредитам.</t>
+  </si>
+  <si>
+    <t>click2money</t>
+  </si>
+  <si>
+    <t>2023-06-01 13:27:20</t>
+  </si>
+  <si>
+    <t>0601-4671</t>
+  </si>
+  <si>
+    <t>Зырянов Никита Евгеньевич</t>
+  </si>
+  <si>
+    <t>zenil90@mail.ru</t>
+  </si>
+  <si>
+    <t>Займ выдан</t>
+  </si>
+  <si>
+    <t>2023-07-05 07:18:03</t>
+  </si>
+  <si>
+    <t>2023-06-01 13:34:48</t>
+  </si>
+  <si>
+    <t>Соколов Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>sistemat.67@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-04 16:10:41</t>
+  </si>
+  <si>
+    <t>Смоляков Сергей Викторович</t>
+  </si>
+  <si>
+    <t>Sergeysmol81@mail.ru</t>
+  </si>
+  <si>
+    <t>ПК CRM</t>
+  </si>
+  <si>
+    <t>Причина отказа: негативные факторы в кредитной истории.</t>
+  </si>
+  <si>
     <t>Не оп</t>
   </si>
   <si>
-    <t>2023-03-25 09:15:45</t>
-  </si>
-  <si>
-    <t>0406-4025</t>
-  </si>
-  <si>
-    <t>Жибурт Максим Леонидович</t>
-  </si>
-  <si>
-    <t>gml_79@mail.ru</t>
-  </si>
-  <si>
-    <t>ПК CRM</t>
-  </si>
-  <si>
-    <t>2023-05-23 11:54:29</t>
-  </si>
-  <si>
-    <t>0525-4599</t>
-  </si>
-  <si>
-    <t>Черногор Марина Сергеевна</t>
-  </si>
-  <si>
-    <t>marina_chernogor@mail.ru</t>
-  </si>
-  <si>
-    <t>Займ выдан</t>
-  </si>
-  <si>
-    <t>2023-06-08 10:38:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2023-05-24 10:47:04</t>
-  </si>
-  <si>
-    <t>0525-4598</t>
-  </si>
-  <si>
-    <t>Мамуткина Оксана Николаевна</t>
-  </si>
-  <si>
-    <t>mamutkinaoksana7@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-08 12:02:04</t>
-  </si>
-  <si>
-    <t>click2money</t>
-  </si>
-  <si>
-    <t>2023-05-24 13:01:38</t>
-  </si>
-  <si>
-    <t>Колесник Анна Владимировна</t>
-  </si>
-  <si>
-    <t>anya_kolesnik04@icloud.com</t>
-  </si>
-  <si>
-    <t>2023-05-24 18:34:52</t>
-  </si>
-  <si>
-    <t>Магомедова Кистаман Шихшабековна</t>
-  </si>
-  <si>
-    <t>kistaman92@bk.ru</t>
+    <t>2023-06-04 18:21:47</t>
+  </si>
+  <si>
+    <t>0605-4690</t>
+  </si>
+  <si>
+    <t>Дуванова Инна Александровна</t>
+  </si>
+  <si>
+    <t>id.1395@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-07-05 10:04:04</t>
+  </si>
+  <si>
+    <t>2023-06-04 18:56:07</t>
+  </si>
+  <si>
+    <t>Катышева Виктория Юрьевна</t>
+  </si>
+  <si>
+    <t>vikakatysheva68@mail.ru</t>
   </si>
   <si>
     <t>Повтор</t>
   </si>
   <si>
-    <t>Отказ</t>
-  </si>
-  <si>
-    <t>Причина отказа: негативные факторы в кредитной истории по микрокредитам.</t>
-  </si>
-  <si>
-    <t>2023-05-24 19:31:09</t>
-  </si>
-  <si>
-    <t>0525-4601</t>
-  </si>
-  <si>
-    <t>Мискарян Юлия Валерьевна</t>
-  </si>
-  <si>
-    <t>miskaranulia@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-08 10:42:03</t>
-  </si>
-  <si>
-    <t>2023-05-24 20:10:29</t>
-  </si>
-  <si>
-    <t>Войтко Андрей Александрович</t>
-  </si>
-  <si>
-    <t>jenya2000g@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-24 21:17:14</t>
-  </si>
-  <si>
-    <t>Голубева Оксана Андреевна</t>
-  </si>
-  <si>
-    <t>golubevaoksana1@icloud.com</t>
-  </si>
-  <si>
-    <t>Причина отказа: негативные факторы в кредитной истории.</t>
-  </si>
-  <si>
-    <t>2023-05-24 22:44:41</t>
-  </si>
-  <si>
-    <t>Антонян Люсинэ Арутюновна</t>
-  </si>
-  <si>
-    <t>Lyusineantonyan@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-24 23:52:22</t>
-  </si>
-  <si>
-    <t>0525-4602</t>
-  </si>
-  <si>
-    <t>Петунина Ксения Александровна</t>
-  </si>
-  <si>
-    <t>volokitinaksyu@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-08 10:46:03</t>
-  </si>
-  <si>
-    <t>2023-05-25 00:17:22</t>
-  </si>
-  <si>
-    <t>Блинова Юлия Сергеевна</t>
-  </si>
-  <si>
-    <t>blinova2690@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 00:24:50</t>
-  </si>
-  <si>
-    <t>НИканкина Ольга Борисовна</t>
-  </si>
-  <si>
-    <t>nikankinao4@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 00:59:31</t>
-  </si>
-  <si>
-    <t>Яблоновская Светлана Викторовна</t>
-  </si>
-  <si>
-    <t>svbyaka@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 01:07:31</t>
-  </si>
-  <si>
-    <t>Османова Камила Хизириевна</t>
-  </si>
-  <si>
-    <t>osmanova1418@gmail.com</t>
+    <t>2023-06-04 19:47:09</t>
+  </si>
+  <si>
+    <t>0605-4691</t>
+  </si>
+  <si>
+    <t>Куралесов Виталий Александрович</t>
+  </si>
+  <si>
+    <t>vit-kuralesov@yandex.ru</t>
+  </si>
+  <si>
+    <t>042023</t>
+  </si>
+  <si>
+    <t>2023-07-05 09:46:03</t>
+  </si>
+  <si>
+    <t>2023-06-04 20:03:18</t>
+  </si>
+  <si>
+    <t>ВОРОНИН ГЕРМАН СЕРГЕЕВИЧ</t>
+  </si>
+  <si>
+    <t>voronin_2631993@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-04 20:15:17</t>
+  </si>
+  <si>
+    <t>Усков Алексей Николаевич</t>
+  </si>
+  <si>
+    <t>alekseiuskov17088617@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-04 21:40:21</t>
+  </si>
+  <si>
+    <t>Петров Александр Андреевич</t>
+  </si>
+  <si>
+    <t>sassshapetrov@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-04 22:02:30</t>
+  </si>
+  <si>
+    <t>Бахмет Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>tatyana.bakhmet@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-04 23:08:19</t>
+  </si>
+  <si>
+    <t>Мельникова Елена Вячеславовна</t>
+  </si>
+  <si>
+    <t>elena120519754@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-04 23:19:50</t>
+  </si>
+  <si>
+    <t>Кистанова Оксана Михайловна</t>
+  </si>
+  <si>
+    <t>borisova.oksana.nn@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 00:31:38</t>
+  </si>
+  <si>
+    <t>Урубкова Елена Викторовна</t>
+  </si>
+  <si>
+    <t>lenha@inbox.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 00:54:27</t>
+  </si>
+  <si>
+    <t>Буянова Нина Вячеславовна</t>
+  </si>
+  <si>
+    <t>ninabuanova878@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 01:03:44</t>
+  </si>
+  <si>
+    <t>Наранов Эрдни Наминович</t>
+  </si>
+  <si>
+    <t>erdni.naranov@inbox.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 01:39:48</t>
+  </si>
+  <si>
+    <t>Острожко Максим Андреевич</t>
+  </si>
+  <si>
+    <t>mailmaks2004@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 01:45:34</t>
+  </si>
+  <si>
+    <t>Кульчицкий Александр Александрович</t>
+  </si>
+  <si>
+    <t>kulchitckysasha@gmail.com</t>
   </si>
   <si>
     <t>Причина отказа: наличие задолженности на сайте судебных приставов.</t>
   </si>
   <si>
-    <t>2023-05-25 01:23:28</t>
-  </si>
-  <si>
-    <t>Чередин Андрей Владимирович</t>
-  </si>
-  <si>
-    <t>Andreycheredin@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 01:45:56</t>
-  </si>
-  <si>
-    <t>Печорин Вячеслав Вячеславович</t>
-  </si>
-  <si>
-    <t>revonk@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 01:50:09</t>
-  </si>
-  <si>
-    <t>Воробьев Михаил Алексеевич</t>
-  </si>
-  <si>
-    <t>vorobevmisa217@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 02:05:47</t>
-  </si>
-  <si>
-    <t>Мухин Дмитрий Александрович</t>
-  </si>
-  <si>
-    <t>vprol.imo@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 02:22:59</t>
-  </si>
-  <si>
-    <t>0525-4597</t>
-  </si>
-  <si>
-    <t>Гарипов Виктор Наильевич</t>
-  </si>
-  <si>
-    <t>garipovv1109@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-18 10:28:03</t>
-  </si>
-  <si>
-    <t>2023-05-25 03:17:44</t>
-  </si>
-  <si>
-    <t>Горовая Екатерина Анатольевна</t>
-  </si>
-  <si>
-    <t>g_katerina8989@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 03:18:59</t>
-  </si>
-  <si>
-    <t>Билалова Рузиля Равилевна</t>
-  </si>
-  <si>
-    <t>ruzila177@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 06:52:02</t>
-  </si>
-  <si>
-    <t>Каргапольцева Алина Васильевна</t>
-  </si>
-  <si>
-    <t>tiskfkdu@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 06:55:42</t>
-  </si>
-  <si>
-    <t>Кондратенко Виктория Сергеевна</t>
-  </si>
-  <si>
-    <t>vik.condratenko1988@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 07:34:43</t>
-  </si>
-  <si>
-    <t>Плясунова Екатерина Александровна</t>
-  </si>
-  <si>
-    <t>katya.plyasunova.88@bk.ru</t>
+    <t>2023-06-05 01:58:46</t>
+  </si>
+  <si>
+    <t>Монахова Дарья Александровна</t>
+  </si>
+  <si>
+    <t>dmonahova00@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 03:28:25</t>
+  </si>
+  <si>
+    <t>Духленков Кирилл Евгеньевич</t>
+  </si>
+  <si>
+    <t>kduhlenkof@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 04:18:13</t>
+  </si>
+  <si>
+    <t>Осипян Артём Игоревич</t>
+  </si>
+  <si>
+    <t>pervy0101@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 04:29:26</t>
+  </si>
+  <si>
+    <t>Ноев Дмитрий Русланович</t>
+  </si>
+  <si>
+    <t>dima.noev@bk.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 05:18:04</t>
+  </si>
+  <si>
+    <t>Беневоленский Даниил Андреевич</t>
+  </si>
+  <si>
+    <t>danil.benevolenske@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 05:34:34</t>
+  </si>
+  <si>
+    <t>Шуваев Антон Петрович</t>
+  </si>
+  <si>
+    <t>a.petrovich.85@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 06:40:21</t>
+  </si>
+  <si>
+    <t>0605-4696</t>
+  </si>
+  <si>
+    <t>Селенина Татьяна Ивановна</t>
+  </si>
+  <si>
+    <t>tselenina33@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-07-05 13:22:04</t>
+  </si>
+  <si>
+    <t>2023-06-05 06:46:24</t>
+  </si>
+  <si>
+    <t>Охремчук Валентина Алексеевна</t>
+  </si>
+  <si>
+    <t>valentinaohremcuk12744@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 07:14:18</t>
+  </si>
+  <si>
+    <t>Бабкина Ирина Александровна</t>
+  </si>
+  <si>
+    <t>tovstokoririna384@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 07:17:14</t>
+  </si>
+  <si>
+    <t>Аксенова Марина Андреевна</t>
+  </si>
+  <si>
+    <t>marinavova2407@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 07:34:21</t>
+  </si>
+  <si>
+    <t>Жолобов Валерий Валерьевич</t>
+  </si>
+  <si>
+    <t>zholobovvaleriy@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 07:35:00</t>
+  </si>
+  <si>
+    <t>Фатфулин Марсэль Дельмарович</t>
+  </si>
+  <si>
+    <t>fatfulin@inbox.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 07:35:06</t>
+  </si>
+  <si>
+    <t>Леушкина Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>L3ushkina@yandex.ru</t>
   </si>
   <si>
     <t>yandex</t>
   </si>
   <si>
-    <t>2023-05-25 07:44:25</t>
-  </si>
-  <si>
-    <t>Даненков Сергей Петрович</t>
-  </si>
-  <si>
-    <t>danencovs@hotmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 08:01:45</t>
-  </si>
-  <si>
-    <t>Хвоина Анна Сергеевна</t>
-  </si>
-  <si>
-    <t>Hvoinv2104@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 08:24:50</t>
-  </si>
-  <si>
-    <t>Ковалева Дарья Леонидовна</t>
-  </si>
-  <si>
-    <t>dashateryuof@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 08:26:31</t>
-  </si>
-  <si>
-    <t>Саяпова Диана Ренадовна</t>
-  </si>
-  <si>
-    <t>diana.sayapova@bk.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 08:28:22</t>
-  </si>
-  <si>
-    <t>Махрова Марина Александровна</t>
-  </si>
-  <si>
-    <t>marinamahrova1998@icloud.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 08:47:49</t>
-  </si>
-  <si>
-    <t>Сиротская Евгения Валентиновна</t>
-  </si>
-  <si>
-    <t>sirotsckaya2011@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 08:48:30</t>
-  </si>
-  <si>
-    <t>Коровашков Алексей Леонидович</t>
-  </si>
-  <si>
-    <t>korovashkovalex743@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 09:02:25</t>
-  </si>
-  <si>
-    <t>Талеева Виктория Васильевна</t>
-  </si>
-  <si>
-    <t>vikataleeva98@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 09:09:15</t>
-  </si>
-  <si>
-    <t>Соломенникова Наталья Валерьевна</t>
-  </si>
-  <si>
-    <t>soloma.tema.81@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 09:24:53</t>
-  </si>
-  <si>
-    <t>Кулижский Вадим Олегович</t>
-  </si>
-  <si>
-    <t>vadim_kulizhskiy@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 09:27:10</t>
-  </si>
-  <si>
-    <t>Баранов Иван Викторович</t>
-  </si>
-  <si>
-    <t>solbum314@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 09:50:46</t>
-  </si>
-  <si>
-    <t>Ржанников Александр Валерьевич</t>
-  </si>
-  <si>
-    <t>lasteraqw@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 09:51:12</t>
-  </si>
-  <si>
-    <t>0525-4596</t>
-  </si>
-  <si>
-    <t>Куралесов Виталий Александрович</t>
-  </si>
-  <si>
-    <t>vit-kuralesov@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-08 10:16:02</t>
-  </si>
-  <si>
-    <t>2023-05-25 09:56:40</t>
-  </si>
-  <si>
-    <t>Масленникова Кристина Сергеевна</t>
-  </si>
-  <si>
-    <t>Maslennikova3932@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:03:18</t>
-  </si>
-  <si>
-    <t>Шукурова Татьяна Геннадьевна</t>
-  </si>
-  <si>
-    <t>shukurova.tat@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:05:34</t>
-  </si>
-  <si>
-    <t>Ермолаев Павел Сергеевич</t>
-  </si>
-  <si>
-    <t>pavelermolaev43@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:11:51</t>
-  </si>
-  <si>
-    <t>Джафарова Лейла Ильхамовна</t>
-  </si>
-  <si>
-    <t>dzhafarova.l@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:13:04</t>
-  </si>
-  <si>
-    <t>Вахарик Лидия Александровна</t>
-  </si>
-  <si>
-    <t>lidiarudik@mail.rl</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:13:59</t>
-  </si>
-  <si>
-    <t>Такунцева Алена Алексеевна</t>
-  </si>
-  <si>
-    <t>alenatakunceva@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:18:01</t>
-  </si>
-  <si>
-    <t>Утябаева Оксана Александровна</t>
-  </si>
-  <si>
-    <t>utabaevaoksana@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:24:56</t>
-  </si>
-  <si>
-    <t>Соколовская Татьяна Юрьевна</t>
-  </si>
-  <si>
-    <t>tsokolovs98@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:26:07</t>
-  </si>
-  <si>
-    <t>Овчинникова Алена Алексеевна</t>
-  </si>
-  <si>
-    <t>alenaowwwch@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:34:17</t>
-  </si>
-  <si>
-    <t>пучкова елена сергеевна</t>
-  </si>
-  <si>
-    <t>elena.1584@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:36:19</t>
-  </si>
-  <si>
-    <t>Дмитриев Игорь Владимирович</t>
-  </si>
-  <si>
-    <t>idmitrich@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:37:34</t>
-  </si>
-  <si>
-    <t>Голуб Евгений Николаевич</t>
-  </si>
-  <si>
-    <t>evgenij.golub1990@icloud.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:40:59</t>
-  </si>
-  <si>
-    <t>Гераськин Евгений Вадимович</t>
-  </si>
-  <si>
-    <t>zhenia.gerasckin6@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:46:08</t>
-  </si>
-  <si>
-    <t>Щербаков Сергей Сергеевич</t>
-  </si>
-  <si>
-    <t>sergey_sherbakov1997@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 10:59:14</t>
-  </si>
-  <si>
-    <t>Кривых Илья Дмитриевич</t>
-  </si>
-  <si>
-    <t>ilqha98@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 11:06:04</t>
-  </si>
-  <si>
-    <t>0525-4603</t>
-  </si>
-  <si>
-    <t>Долматов Юрий Яковлевич</t>
-  </si>
-  <si>
-    <t>surgedolmatov@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-24 11:18:03</t>
-  </si>
-  <si>
-    <t>2023-05-25 11:11:20</t>
-  </si>
-  <si>
-    <t>Букина Анна Андреевна</t>
-  </si>
-  <si>
-    <t>antyanet-b@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 11:21:49</t>
-  </si>
-  <si>
-    <t>Фоменко Нианилла Александровна</t>
-  </si>
-  <si>
-    <t>fomenko.nila@bk.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 11:25:57</t>
-  </si>
-  <si>
-    <t>Койносова Мария Евгеньевна</t>
-  </si>
-  <si>
-    <t>masha_9192@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 11:26:00</t>
-  </si>
-  <si>
-    <t>Рагулин Евгений Викторович</t>
-  </si>
-  <si>
-    <t>eragulin2@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 11:41:47</t>
-  </si>
-  <si>
-    <t>Мережко Александр Романович</t>
-  </si>
-  <si>
-    <t>Mereha1773@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-25 11:49:21</t>
-  </si>
-  <si>
-    <t>Тихомиров Алексей Николаевич</t>
-  </si>
-  <si>
-    <t>atihomirov1986@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-05-25 12:02:29</t>
-  </si>
-  <si>
-    <t>Иванов Сергей Юрьевич</t>
-  </si>
-  <si>
-    <t>bossss.serw@mail.ri</t>
+    <t>2023-06-05 08:04:48</t>
+  </si>
+  <si>
+    <t>0605-4692</t>
+  </si>
+  <si>
+    <t>Мисюра Нонна Борисовна</t>
+  </si>
+  <si>
+    <t>nbm9764@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-07-05 09:56:03</t>
+  </si>
+  <si>
+    <t>2023-06-05 08:13:57</t>
+  </si>
+  <si>
+    <t>0605-4693</t>
+  </si>
+  <si>
+    <t>Ларина Евгения Николаевна</t>
+  </si>
+  <si>
+    <t>Larina01@inbox.ru</t>
+  </si>
+  <si>
+    <t>2023-07-05 10:10:05</t>
+  </si>
+  <si>
+    <t>2023-06-05 08:33:10</t>
+  </si>
+  <si>
+    <t>Сагдеева Елена Викторовна</t>
+  </si>
+  <si>
+    <t>elenasagdeeva13@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 08:50:41</t>
+  </si>
+  <si>
+    <t>Борискин Антон Сергеевич</t>
+  </si>
+  <si>
+    <t>kolpak2v@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 09:04:05</t>
+  </si>
+  <si>
+    <t>0605-4694</t>
+  </si>
+  <si>
+    <t>Кулешова Ксения Дмитриевна</t>
+  </si>
+  <si>
+    <t>pashnina2692@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-19 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-06-05 09:48:25</t>
+  </si>
+  <si>
+    <t>Плахова-Степаненко Алина Андреевна</t>
+  </si>
+  <si>
+    <t>alinaplahovastepanenko@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 09:53:43</t>
+  </si>
+  <si>
+    <t>Тихонова Анна Валерьевна</t>
+  </si>
+  <si>
+    <t>TihonovaAnnaV@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 10:11:02</t>
+  </si>
+  <si>
+    <t>Шишова Кристина Вячеславовна</t>
+  </si>
+  <si>
+    <t>shishova.kv@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 10:11:25</t>
+  </si>
+  <si>
+    <t>Воробьев Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>sanav2110@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 10:20:27</t>
+  </si>
+  <si>
+    <t>Садыхова Элина Эмилевна</t>
+  </si>
+  <si>
+    <t>elkacandyhell@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 11:03:15</t>
+  </si>
+  <si>
+    <t>Ашурова Дарья Вячеславовна</t>
+  </si>
+  <si>
+    <t>dk6987184@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 11:09:33</t>
+  </si>
+  <si>
+    <t>Кашурников Данил Александрович</t>
+  </si>
+  <si>
+    <t>kash-danil@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 11:21:51</t>
+  </si>
+  <si>
+    <t>0605-4695</t>
+  </si>
+  <si>
+    <t>Хавилов Александр Борисович</t>
+  </si>
+  <si>
+    <t>khavilov2021@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-19 11:26:03</t>
+  </si>
+  <si>
+    <t>2023-06-05 11:46:17</t>
+  </si>
+  <si>
+    <t>Герейханов Эдуард Гамидханович</t>
+  </si>
+  <si>
+    <t>eduard19992015@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:03:47</t>
+  </si>
+  <si>
+    <t>Швецова Светлана Валентиновна</t>
+  </si>
+  <si>
+    <t>sveta1974_zakaz@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:09:29</t>
+  </si>
+  <si>
+    <t>0605-4697</t>
+  </si>
+  <si>
+    <t>Мерзлякова Надежда Михайловна</t>
+  </si>
+  <si>
+    <t>nadezdamerzlakova69@gmail.com</t>
+  </si>
+  <si>
+    <t>bf2023</t>
+  </si>
+  <si>
+    <t>2023-07-05 12:22:03</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:16:55</t>
+  </si>
+  <si>
+    <t>Слободян Александр Александрович</t>
+  </si>
+  <si>
+    <t>aleksandr1slobodyan@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:28:13</t>
+  </si>
+  <si>
+    <t>Щербаков Юрий Александрович</t>
+  </si>
+  <si>
+    <t>usherbakovm142uk@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:32:30</t>
+  </si>
+  <si>
+    <t>Копытова Ольга Васильевна</t>
+  </si>
+  <si>
+    <t>olgakopytova766@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:32:42</t>
+  </si>
+  <si>
+    <t>0605-4699</t>
+  </si>
+  <si>
+    <t>Бескоровайная Анфея Константиновна</t>
+  </si>
+  <si>
+    <t>obukhova.anfeya@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-07-05 12:56:03</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:33:34</t>
+  </si>
+  <si>
+    <t>Павлов Федор Дмитриевич</t>
+  </si>
+  <si>
+    <t>lofedora@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:34:01</t>
+  </si>
+  <si>
+    <t>Буданова Светлана Юрьевна</t>
+  </si>
+  <si>
+    <t>budswt24@rambler.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:38:00</t>
+  </si>
+  <si>
+    <t>Пономарев Дмитрий Дмитриевич</t>
+  </si>
+  <si>
+    <t>dimaponomarev032@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:42:32</t>
+  </si>
+  <si>
+    <t>Тюрина Анастасия Игоревна</t>
+  </si>
+  <si>
+    <t>nastya_krilova1993@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:49:49</t>
+  </si>
+  <si>
+    <t>0605-4698</t>
+  </si>
+  <si>
+    <t>Бельтюгова Татьяна Борисовна</t>
+  </si>
+  <si>
+    <t>beltyugova.tanya@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-07-05 12:58:04</t>
+  </si>
+  <si>
+    <t>2023-06-05 12:56:50</t>
+  </si>
+  <si>
+    <t>0605-4700</t>
+  </si>
+  <si>
+    <t>СОРОКИН ДМИТРИЙ ВИКТОРОВИЧ</t>
+  </si>
+  <si>
+    <t>bratyx@gmail.com</t>
+  </si>
+  <si>
+    <t>June23</t>
+  </si>
+  <si>
+    <t>2023-07-05 13:18:03</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:00:54</t>
+  </si>
+  <si>
+    <t>Воронов Иван Андреевич</t>
+  </si>
+  <si>
+    <t>odelljordan@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:02:33</t>
+  </si>
+  <si>
+    <t>Вострикова Татьяна Васильевна</t>
+  </si>
+  <si>
+    <t>tvostrikova727@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:05:29</t>
+  </si>
+  <si>
+    <t>Абросимова Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>tatysolomatina@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:06:50</t>
+  </si>
+  <si>
+    <t>Курлыкина Ольга Ивановна</t>
+  </si>
+  <si>
+    <t>Dalas78@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:12:02</t>
+  </si>
+  <si>
+    <t>Михайлова Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>lizasergeeva5678@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:15:53</t>
+  </si>
+  <si>
+    <t>Рошка Светлана Валентиновна</t>
+  </si>
+  <si>
+    <t>svetaroska2@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:19:23</t>
+  </si>
+  <si>
+    <t>Кагерманов Магомед Асламбекович</t>
+  </si>
+  <si>
+    <t>vlad.okuev@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:21:00</t>
+  </si>
+  <si>
+    <t>Викторов Максим Владимирович</t>
+  </si>
+  <si>
+    <t>ooo_lotta@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:21:06</t>
+  </si>
+  <si>
+    <t>Малеваный Олег Николаевич</t>
+  </si>
+  <si>
+    <t>malevanyi.1984@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:22:23</t>
+  </si>
+  <si>
+    <t>Климонов Роман Александрович</t>
+  </si>
+  <si>
+    <t>romon.klim68@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:50:44</t>
+  </si>
+  <si>
+    <t>Боровская Ольга Александровна</t>
+  </si>
+  <si>
+    <t>vestito.tula@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 13:51:07</t>
+  </si>
+  <si>
+    <t>Яковенко Сергей Сергеевич</t>
+  </si>
+  <si>
+    <t>ssryakovenko@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:05:18</t>
+  </si>
+  <si>
+    <t>0605-4703</t>
+  </si>
+  <si>
+    <t>Тихонин Евгений Николаевич</t>
+  </si>
+  <si>
+    <t>ztixonin@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-07-05 14:18:03</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:06:53</t>
+  </si>
+  <si>
+    <t>0605-4702</t>
+  </si>
+  <si>
+    <t>Ужегов Виктор Алексеевич</t>
+  </si>
+  <si>
+    <t>vitek124.e@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-07-05 14:14:03</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:12:31</t>
+  </si>
+  <si>
+    <t>Астафьева Юлия Васильевна</t>
+  </si>
+  <si>
+    <t>juliyas20@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:14:46</t>
+  </si>
+  <si>
+    <t>Полуянова Анна Владимировна</t>
+  </si>
+  <si>
+    <t>Anko709@bk.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:19:53</t>
+  </si>
+  <si>
+    <t>0605-4705</t>
+  </si>
+  <si>
+    <t>Сорокин Андрей Алексеевич</t>
+  </si>
+  <si>
+    <t>andrrw1922@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:27:09</t>
+  </si>
+  <si>
+    <t>Зимовейская Анастасия Олеговна</t>
+  </si>
+  <si>
+    <t>azima1808@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:37:38</t>
+  </si>
+  <si>
+    <t>Рыжкина Дина Александровна</t>
+  </si>
+  <si>
+    <t>Moka79@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:40:31</t>
+  </si>
+  <si>
+    <t>Егорова Валентина Сергеевна</t>
+  </si>
+  <si>
+    <t>matserinskayavalya@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:55:26</t>
+  </si>
+  <si>
+    <t>Ларин Андрей Викторович</t>
+  </si>
+  <si>
+    <t>hellbruins@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-05 15:10:18</t>
+  </si>
+  <si>
+    <t>Рожнова Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>kbutalova@bk.ru</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1277,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,608 +1369,604 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2"/>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>79042183745</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2">
-        <v>79009666210</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
       <c r="F2">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2">
-        <v>0.51724137931034</v>
+        <v>0.3125</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O2"/>
       <c r="P2">
         <v>820684.52</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2">
-        <v>39217</v>
+        <v>43330</v>
       </c>
       <c r="S2">
-        <v>25011</v>
+        <v>36553</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>79299811415</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>79053323332</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
       <c r="F3">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3">
-        <v>0</v>
+        <v>0.078125</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O3"/>
       <c r="P3">
         <v>820684.52</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3">
-        <v>39351</v>
+        <v>43851</v>
       </c>
       <c r="S3">
-        <v>20904</v>
+        <v>37108</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>79871563001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>15000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>79832939607</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>5890.0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
+      <c r="L4"/>
       <c r="M4">
-        <v>0.22857142857143</v>
+        <v>0.073170731707317</v>
       </c>
       <c r="N4">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O4"/>
       <c r="P4">
         <v>820684.52</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R4">
-        <v>42676</v>
+        <v>43973</v>
       </c>
       <c r="S4">
-        <v>35761</v>
+        <v>37258</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>79277052498</v>
+        <v>79833037683</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>5890.0</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>0.38461538461538</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O5"/>
       <c r="P5">
         <v>820684.52</v>
       </c>
       <c r="Q5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R5">
-        <v>42744</v>
+        <v>44337</v>
       </c>
       <c r="S5">
-        <v>35834</v>
+        <v>37733</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>79050843003</v>
+        <v>79992245368</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F6">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6">
-        <v>0.022222222222222</v>
+        <v>0.15384615384615</v>
       </c>
       <c r="N6">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O6"/>
       <c r="P6">
         <v>820684.52</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R6">
-        <v>42750</v>
+        <v>44339</v>
       </c>
       <c r="S6">
-        <v>35846</v>
+        <v>37715</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>79034988872</v>
+        <v>79051152390</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F7">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7">
-        <v>0.12727272727273</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O7"/>
       <c r="P7">
         <v>820684.52</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="R7">
-        <v>42787</v>
+        <v>44817</v>
       </c>
       <c r="S7">
-        <v>34237</v>
+        <v>21282</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>79888914712</v>
+        <v>79042889752</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F8">
-        <v>5890.0</v>
+        <v>7890.0</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>0.12790697674419</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O8"/>
       <c r="P8">
         <v>820684.52</v>
       </c>
       <c r="Q8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R8">
-        <v>42790</v>
+        <v>44828</v>
       </c>
       <c r="S8">
-        <v>35901</v>
+        <v>20361</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>79226207308</v>
+        <v>79066886877</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F9">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9">
-        <v>0.17857142857143</v>
+        <v>0.15217391304348</v>
       </c>
       <c r="N9">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O9"/>
       <c r="P9">
         <v>820684.52</v>
       </c>
       <c r="Q9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R9">
-        <v>42793</v>
+        <v>44832</v>
       </c>
       <c r="S9">
-        <v>35907</v>
+        <v>34131</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>79507515669</v>
+      </c>
+      <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
+      <c r="F10">
+        <v>7890.0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
         <v>64</v>
       </c>
-      <c r="D10">
-        <v>79001105043</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="L10" t="s">
         <v>65</v>
       </c>
-      <c r="F10">
-        <v>5000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10"/>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.47169811320755</v>
       </c>
       <c r="N10">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O10"/>
       <c r="P10">
         <v>820684.52</v>
       </c>
       <c r="Q10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="R10">
-        <v>42800</v>
+        <v>44838</v>
       </c>
       <c r="S10">
-        <v>34994</v>
+        <v>35985</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>79522311794</v>
+      </c>
+      <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="D11">
-        <v>79530705212</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
       <c r="F11">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11">
-        <v>0.14285714285714</v>
+        <v>0.092307692307692</v>
       </c>
       <c r="N11">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O11"/>
       <c r="P11">
         <v>820684.52</v>
       </c>
       <c r="Q11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R11">
-        <v>42812</v>
+        <v>44839</v>
       </c>
       <c r="S11">
-        <v>35929</v>
+        <v>38311</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12">
+        <v>79630260545</v>
+      </c>
+      <c r="E12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <v>79642438444</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
       <c r="F12">
-        <v>5890.0</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12"/>
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
       <c r="K12"/>
-      <c r="L12" t="s">
-        <v>74</v>
-      </c>
+      <c r="L12"/>
       <c r="M12">
-        <v>0.16</v>
+        <v>0.11111111111111</v>
       </c>
       <c r="N12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="O12"/>
       <c r="P12">
         <v>820684.52</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R12">
-        <v>42817</v>
+        <v>44841</v>
       </c>
       <c r="S12">
-        <v>35937</v>
+        <v>38301</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>79997711736</v>
+        <v>79084770609</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F13">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13">
-        <v>0.47368421052632</v>
+        <v>0.28125</v>
       </c>
       <c r="N13">
         <v>30</v>
@@ -1752,48 +1976,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R13">
-        <v>42819</v>
+        <v>44846</v>
       </c>
       <c r="S13">
-        <v>35938</v>
+        <v>38323</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14">
-        <v>79005126448</v>
+        <v>79068716953</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F14">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14">
-        <v>0.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>30</v>
@@ -1803,303 +2027,303 @@
         <v>820684.52</v>
       </c>
       <c r="Q14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R14">
-        <v>42820</v>
+        <v>44852</v>
       </c>
       <c r="S14">
-        <v>35904</v>
+        <v>19488</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15">
-        <v>79525929684</v>
+        <v>79650534940</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F15">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15">
-        <v>0.22105263157895</v>
+        <v>0.33333333333333</v>
       </c>
       <c r="N15">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O15"/>
       <c r="P15">
         <v>820684.52</v>
       </c>
       <c r="Q15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R15">
-        <v>42822</v>
+        <v>44854</v>
       </c>
       <c r="S15">
-        <v>35942</v>
+        <v>38329</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D16">
-        <v>79289606252</v>
+        <v>79519187520</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16">
-        <v>0.25</v>
+        <v>0.14545454545455</v>
       </c>
       <c r="N16">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O16"/>
       <c r="P16">
         <v>820684.52</v>
       </c>
       <c r="Q16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R16">
-        <v>42823</v>
+        <v>44855</v>
       </c>
       <c r="S16">
-        <v>35941</v>
+        <v>38290</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D17">
-        <v>79627571389</v>
+        <v>79055457885</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F17">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17">
-        <v>0.17142857142857</v>
+        <v>0.34883720930233</v>
       </c>
       <c r="N17">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O17"/>
       <c r="P17">
         <v>820684.52</v>
       </c>
       <c r="Q17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R17">
-        <v>42824</v>
+        <v>44859</v>
       </c>
       <c r="S17">
-        <v>35945</v>
+        <v>38335</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D18">
-        <v>79998339597</v>
+        <v>79953120390</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F18">
-        <v>15000</v>
+        <v>4958</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18">
-        <v>0.15</v>
+        <v>0.11475409836066</v>
       </c>
       <c r="N18">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O18"/>
       <c r="P18">
         <v>820684.52</v>
       </c>
       <c r="Q18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R18">
-        <v>42825</v>
+        <v>44860</v>
       </c>
       <c r="S18">
-        <v>35948</v>
+        <v>38336</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D19">
-        <v>79678091905</v>
+        <v>79956662004</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F19">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19">
-        <v>0.076923076923077</v>
+        <v>0.03125</v>
       </c>
       <c r="N19">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O19"/>
       <c r="P19">
         <v>820684.52</v>
       </c>
       <c r="Q19" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R19">
-        <v>42826</v>
+        <v>44861</v>
       </c>
       <c r="S19">
-        <v>35947</v>
+        <v>38337</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D20">
-        <v>79108850234</v>
+        <v>79243108020</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F20">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20">
-        <v>0.11666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="N20">
         <v>30</v>
@@ -2109,152 +2333,150 @@
         <v>820684.52</v>
       </c>
       <c r="Q20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R20">
-        <v>42827</v>
+        <v>44862</v>
       </c>
       <c r="S20">
-        <v>28785</v>
+        <v>37281</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B21"/>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D21">
-        <v>79147935961</v>
+        <v>79960960307</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>9990.0</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21"/>
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>99</v>
+      </c>
       <c r="K21"/>
-      <c r="L21" t="s">
-        <v>104</v>
-      </c>
+      <c r="L21"/>
       <c r="M21">
-        <v>0.11904761904762</v>
+        <v>0.22222222222222</v>
       </c>
       <c r="N21">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O21"/>
       <c r="P21">
         <v>820684.52</v>
       </c>
       <c r="Q21" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R21">
-        <v>42828</v>
+        <v>44863</v>
       </c>
       <c r="S21">
-        <v>33962</v>
+        <v>38192</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D22">
-        <v>79892465967</v>
+        <v>79001153076</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F22">
         <v>7000</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22">
-        <v>0.29166666666667</v>
+        <v>0.10606060606061</v>
       </c>
       <c r="N22">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O22"/>
       <c r="P22">
         <v>820684.52</v>
       </c>
       <c r="Q22" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R22">
-        <v>42829</v>
+        <v>44864</v>
       </c>
       <c r="S22">
-        <v>35952</v>
+        <v>38338</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B23"/>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D23">
-        <v>79821835051</v>
+        <v>79962034798</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F23">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23">
-        <v>0.02</v>
+        <v>0.085714285714286</v>
       </c>
       <c r="N23">
         <v>30</v>
@@ -2264,99 +2486,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q23" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R23">
-        <v>42830</v>
+        <v>44865</v>
       </c>
       <c r="S23">
-        <v>35953</v>
+        <v>38339</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D24">
-        <v>79503830541</v>
+        <v>79641540900</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F24">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24">
-        <v>0.22222222222222</v>
+        <v>0.21276595744681</v>
       </c>
       <c r="N24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O24"/>
       <c r="P24">
         <v>820684.52</v>
       </c>
       <c r="Q24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R24">
-        <v>42832</v>
+        <v>44866</v>
       </c>
       <c r="S24">
-        <v>35962</v>
+        <v>38340</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D25">
-        <v>79774771814</v>
+        <v>79142882095</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F25">
         <v>7000</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25">
-        <v>0.175</v>
+        <v>0.1</v>
       </c>
       <c r="N25">
         <v>14</v>
@@ -2366,48 +2588,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q25" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R25">
-        <v>42833</v>
+        <v>44867</v>
       </c>
       <c r="S25">
-        <v>35961</v>
+        <v>37986</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D26">
-        <v>79143435341</v>
+        <v>79892373188</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F26">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26">
-        <v>0</v>
+        <v>0.043478260869565</v>
       </c>
       <c r="N26">
         <v>30</v>
@@ -2417,150 +2639,152 @@
         <v>820684.52</v>
       </c>
       <c r="Q26" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="R26">
-        <v>42834</v>
+        <v>44868</v>
       </c>
       <c r="S26">
-        <v>19193</v>
+        <v>38344</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D27">
-        <v>79282952306</v>
+        <v>79098895349</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F27">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27">
-        <v>0.026666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O27"/>
       <c r="P27">
         <v>820684.52</v>
       </c>
       <c r="Q27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R27">
-        <v>42835</v>
+        <v>44869</v>
       </c>
       <c r="S27">
-        <v>35965</v>
+        <v>38239</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28"/>
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D28">
-        <v>79937233316</v>
+        <v>79642201496</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F28">
-        <v>7000</v>
+        <v>5890.0</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" t="s">
-        <v>54</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J28"/>
       <c r="K28"/>
-      <c r="L28"/>
+      <c r="L28" t="s">
+        <v>122</v>
+      </c>
       <c r="M28">
-        <v>0.072815533980583</v>
+        <v>0.33333333333333</v>
       </c>
       <c r="N28">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O28"/>
       <c r="P28">
         <v>820684.52</v>
       </c>
       <c r="Q28" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R28">
-        <v>42836</v>
+        <v>44870</v>
       </c>
       <c r="S28">
-        <v>35970</v>
+        <v>38342</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D29">
-        <v>79041236490</v>
+        <v>79528024649</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F29">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29">
-        <v>0.2</v>
+        <v>1.6666666666667E-5</v>
       </c>
       <c r="N29">
         <v>30</v>
@@ -2570,48 +2794,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q29" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R29">
-        <v>42837</v>
+        <v>44871</v>
       </c>
       <c r="S29">
-        <v>35972</v>
+        <v>38350</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D30">
-        <v>79656688412</v>
+        <v>79231660002</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F30">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30">
-        <v>0.175</v>
+        <v>0.076923076923077</v>
       </c>
       <c r="N30">
         <v>30</v>
@@ -2621,48 +2845,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R30">
-        <v>42838</v>
+        <v>44872</v>
       </c>
       <c r="S30">
-        <v>35974</v>
+        <v>38351</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D31">
-        <v>79507715479</v>
+        <v>79148762028</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F31">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31">
-        <v>0.14</v>
+        <v>0.066666666666667</v>
       </c>
       <c r="N31">
         <v>30</v>
@@ -2672,303 +2896,307 @@
         <v>820684.52</v>
       </c>
       <c r="Q31" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R31">
-        <v>42839</v>
+        <v>44873</v>
       </c>
       <c r="S31">
-        <v>35973</v>
+        <v>36177</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D32">
-        <v>79164152706</v>
+        <v>79370960518</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F32">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="N32">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O32"/>
       <c r="P32">
         <v>820684.52</v>
       </c>
       <c r="Q32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R32">
-        <v>42841</v>
+        <v>44874</v>
       </c>
       <c r="S32">
-        <v>35977</v>
+        <v>38352</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D33">
-        <v>79056162796</v>
+        <v>79997247597</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F33">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="N33">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O33"/>
       <c r="P33">
         <v>820684.52</v>
       </c>
       <c r="Q33" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R33">
-        <v>42842</v>
+        <v>44875</v>
       </c>
       <c r="S33">
-        <v>35954</v>
+        <v>38353</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D34">
-        <v>79003984630</v>
+        <v>79270214659</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F34">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34">
-        <v>0.025</v>
+        <v>0.071428571428571</v>
       </c>
       <c r="N34">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O34"/>
       <c r="P34">
         <v>820684.52</v>
       </c>
       <c r="Q34" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="R34">
-        <v>42843</v>
+        <v>44876</v>
       </c>
       <c r="S34">
-        <v>35980</v>
+        <v>36617</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35">
+        <v>79501316252</v>
+      </c>
+      <c r="E35" t="s">
         <v>145</v>
       </c>
-      <c r="B35"/>
-      <c r="C35" t="s">
+      <c r="F35">
+        <v>5890.0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35" t="s">
         <v>146</v>
       </c>
-      <c r="D35">
-        <v>79130806762</v>
-      </c>
-      <c r="E35" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35">
-        <v>7000</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" t="s">
-        <v>87</v>
-      </c>
-      <c r="K35"/>
-      <c r="L35"/>
       <c r="M35">
-        <v>0.025373134328358</v>
+        <v>0.30578512396694</v>
       </c>
       <c r="N35">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O35"/>
       <c r="P35">
         <v>820684.52</v>
       </c>
       <c r="Q35" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R35">
-        <v>42844</v>
+        <v>44877</v>
       </c>
       <c r="S35">
-        <v>35981</v>
+        <v>38079</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
         <v>148</v>
       </c>
-      <c r="B36"/>
       <c r="C36" t="s">
         <v>149</v>
       </c>
       <c r="D36">
-        <v>79962051819</v>
+        <v>79081804858</v>
       </c>
       <c r="E36" t="s">
         <v>150</v>
       </c>
       <c r="F36">
-        <v>4000</v>
+        <v>7890.0</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" t="s">
-        <v>66</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J36"/>
       <c r="K36"/>
-      <c r="L36"/>
+      <c r="L36" t="s">
+        <v>151</v>
+      </c>
       <c r="M36">
-        <v>0.125</v>
+        <v>0.21428571428571</v>
       </c>
       <c r="N36">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O36"/>
       <c r="P36">
         <v>820684.52</v>
       </c>
       <c r="Q36" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="R36">
-        <v>42845</v>
+        <v>44878</v>
       </c>
       <c r="S36">
-        <v>35983</v>
+        <v>35461</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B37"/>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D37">
-        <v>79523366423</v>
+        <v>79048162643</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F37">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N37">
         <v>30</v>
@@ -2978,48 +3206,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q37" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R37">
-        <v>42846</v>
+        <v>44879</v>
       </c>
       <c r="S37">
-        <v>19037</v>
+        <v>38354</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D38">
-        <v>79955425351</v>
+        <v>79516416699</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J38" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38">
-        <v>0.17857142857143</v>
+        <v>0.088495575221239</v>
       </c>
       <c r="N38">
         <v>30</v>
@@ -3029,50 +3257,50 @@
         <v>820684.52</v>
       </c>
       <c r="Q38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R38">
-        <v>42847</v>
+        <v>44880</v>
       </c>
       <c r="S38">
-        <v>35976</v>
+        <v>38356</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D39">
-        <v>79507515669</v>
+        <v>79080416501</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F39">
         <v>5890.0</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M39">
-        <v>0.47169811320755</v>
+        <v>0.45238095238095</v>
       </c>
       <c r="N39">
         <v>14</v>
@@ -3082,303 +3310,303 @@
         <v>820684.52</v>
       </c>
       <c r="Q39" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R39">
-        <v>42848</v>
+        <v>44881</v>
       </c>
       <c r="S39">
-        <v>35985</v>
+        <v>38357</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D40">
-        <v>79133789155</v>
+        <v>79934579712</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F40">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="G40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40">
-        <v>0.25</v>
+        <v>0.10368098159509</v>
       </c>
       <c r="N40">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O40"/>
       <c r="P40">
         <v>820684.52</v>
       </c>
       <c r="Q40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R40">
-        <v>42849</v>
+        <v>44882</v>
       </c>
       <c r="S40">
-        <v>34665</v>
+        <v>38360</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D41">
-        <v>79920417304</v>
+        <v>79210871461</v>
       </c>
       <c r="E41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F41">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41">
-        <v>0.2</v>
+        <v>0.044444444444444</v>
       </c>
       <c r="N41">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O41"/>
       <c r="P41">
         <v>820684.52</v>
       </c>
       <c r="Q41" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R41">
-        <v>42850</v>
+        <v>44883</v>
       </c>
       <c r="S41">
-        <v>35989</v>
+        <v>38355</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D42">
-        <v>79133739711</v>
+        <v>79622768485</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F42">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42">
-        <v>0.125</v>
+        <v>0.098181818181818</v>
       </c>
       <c r="N42">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O42"/>
       <c r="P42">
         <v>820684.52</v>
       </c>
       <c r="Q42" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R42">
-        <v>42851</v>
+        <v>44884</v>
       </c>
       <c r="S42">
-        <v>35991</v>
+        <v>38364</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D43">
-        <v>79686700905</v>
+        <v>79105172698</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F43">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43">
-        <v>0.16666666666667</v>
+        <v>0.1025641025641</v>
       </c>
       <c r="N43">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O43"/>
       <c r="P43">
         <v>820684.52</v>
       </c>
       <c r="Q43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R43">
-        <v>42852</v>
+        <v>44885</v>
       </c>
       <c r="S43">
-        <v>34053</v>
+        <v>38363</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D44">
-        <v>79114800684</v>
+        <v>79686342117</v>
       </c>
       <c r="E44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F44">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44">
-        <v>0.3125</v>
+        <v>0.35294117647059</v>
       </c>
       <c r="N44">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O44"/>
       <c r="P44">
         <v>820684.52</v>
       </c>
       <c r="Q44" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R44">
-        <v>42853</v>
+        <v>44886</v>
       </c>
       <c r="S44">
-        <v>24464</v>
+        <v>38365</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D45">
-        <v>79043021491</v>
+        <v>79969245296</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F45">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J45" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45">
-        <v>0.02</v>
+        <v>0.12280701754386</v>
       </c>
       <c r="N45">
         <v>14</v>
@@ -3388,48 +3616,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q45" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R45">
-        <v>42854</v>
+        <v>44887</v>
       </c>
       <c r="S45">
-        <v>35988</v>
+        <v>38369</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D46">
-        <v>79649565867</v>
+        <v>79785434855</v>
       </c>
       <c r="E46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F46">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46">
-        <v>0.10416666666667</v>
+        <v>0.1</v>
       </c>
       <c r="N46">
         <v>30</v>
@@ -3439,150 +3667,152 @@
         <v>820684.52</v>
       </c>
       <c r="Q46" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R46">
-        <v>42855</v>
+        <v>44888</v>
       </c>
       <c r="S46">
-        <v>35990</v>
+        <v>38367</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47"/>
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D47">
-        <v>79805240574</v>
+        <v>79822481357</v>
       </c>
       <c r="E47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F47">
-        <v>7000</v>
+        <v>8890.0</v>
       </c>
       <c r="G47" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" t="s">
-        <v>87</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J47"/>
       <c r="K47"/>
-      <c r="L47"/>
+      <c r="L47" t="s">
+        <v>188</v>
+      </c>
       <c r="M47">
-        <v>0.066666666666667</v>
+        <v>0.26881720430108</v>
       </c>
       <c r="N47">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O47"/>
       <c r="P47">
         <v>820684.52</v>
       </c>
       <c r="Q47" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R47">
-        <v>42856</v>
+        <v>44889</v>
       </c>
       <c r="S47">
-        <v>35993</v>
+        <v>35706</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B48"/>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D48">
-        <v>79145201925</v>
+        <v>79120886999</v>
       </c>
       <c r="E48" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F48">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48">
-        <v>0.044444444444444</v>
+        <v>0.15714285714286</v>
       </c>
       <c r="N48">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O48"/>
       <c r="P48">
         <v>820684.52</v>
       </c>
       <c r="Q48" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R48">
-        <v>42857</v>
+        <v>44890</v>
       </c>
       <c r="S48">
-        <v>35986</v>
+        <v>38371</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B49"/>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D49">
-        <v>79619774254</v>
+        <v>79934991207</v>
       </c>
       <c r="E49" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F49">
         <v>15000</v>
       </c>
       <c r="G49" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J49" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49">
-        <v>0</v>
+        <v>0.25423728813559</v>
       </c>
       <c r="N49">
         <v>30</v>
@@ -3592,48 +3822,52 @@
         <v>820684.52</v>
       </c>
       <c r="Q49" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R49">
-        <v>42858</v>
+        <v>44891</v>
       </c>
       <c r="S49">
-        <v>13500</v>
+        <v>38376</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50"/>
+        <v>195</v>
+      </c>
+      <c r="B50" t="s">
+        <v>196</v>
+      </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D50">
-        <v>79131035918</v>
+        <v>79048368514</v>
       </c>
       <c r="E50" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F50">
-        <v>7000</v>
+        <v>15990.0</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" t="s">
-        <v>54</v>
-      </c>
-      <c r="K50"/>
-      <c r="L50"/>
+        <v>40</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50" t="s">
+        <v>199</v>
+      </c>
+      <c r="L50" t="s">
+        <v>200</v>
+      </c>
       <c r="M50">
-        <v>0.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>30</v>
@@ -3643,43 +3877,43 @@
         <v>820684.52</v>
       </c>
       <c r="Q50" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R50">
-        <v>42859</v>
+        <v>44892</v>
       </c>
       <c r="S50">
-        <v>35996</v>
+        <v>17845</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B51"/>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D51">
-        <v>79384799253</v>
+        <v>79828869582</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F51">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K51"/>
       <c r="L51"/>
@@ -3687,55 +3921,55 @@
         <v>0.125</v>
       </c>
       <c r="N51">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="O51"/>
       <c r="P51">
         <v>820684.52</v>
       </c>
       <c r="Q51" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R51">
-        <v>42860</v>
+        <v>44893</v>
       </c>
       <c r="S51">
-        <v>35995</v>
+        <v>38377</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B52"/>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D52">
-        <v>79999645617</v>
+        <v>79045243905</v>
       </c>
       <c r="E52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F52">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J52" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52">
-        <v>0.13333333333333</v>
+        <v>0.10769230769231</v>
       </c>
       <c r="N52">
         <v>14</v>
@@ -3745,152 +3979,152 @@
         <v>820684.52</v>
       </c>
       <c r="Q52" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R52">
-        <v>42861</v>
+        <v>44894</v>
       </c>
       <c r="S52">
-        <v>35997</v>
+        <v>38375</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B53"/>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D53">
-        <v>79139800250</v>
+        <v>79521424990</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F53">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53">
-        <v>0.10416666666667</v>
+        <v>0.073170731707317</v>
       </c>
       <c r="N53">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O53"/>
       <c r="P53">
         <v>820684.52</v>
       </c>
       <c r="Q53" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R53">
-        <v>42862</v>
+        <v>44895</v>
       </c>
       <c r="S53">
-        <v>35998</v>
+        <v>34038</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>204</v>
-      </c>
-      <c r="B54"/>
+        <v>210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D54">
-        <v>79205834265</v>
+        <v>79150834152</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F54">
-        <v>2000</v>
+        <v>5890.0</v>
       </c>
       <c r="G54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54" t="s">
-        <v>87</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J54"/>
       <c r="K54"/>
-      <c r="L54"/>
+      <c r="L54" t="s">
+        <v>214</v>
+      </c>
       <c r="M54">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O54"/>
       <c r="P54">
         <v>820684.52</v>
       </c>
       <c r="Q54" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="R54">
-        <v>42863</v>
+        <v>44896</v>
       </c>
       <c r="S54">
-        <v>27723</v>
+        <v>24063</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>207</v>
-      </c>
-      <c r="B55" t="s">
-        <v>208</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B55"/>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D55">
-        <v>79991001551</v>
+        <v>79501205820</v>
       </c>
       <c r="E55" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F55">
-        <v>5890.0</v>
+        <v>4000</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55"/>
+        <v>33</v>
+      </c>
+      <c r="J55" t="s">
+        <v>99</v>
+      </c>
       <c r="K55"/>
-      <c r="L55" t="s">
-        <v>211</v>
-      </c>
+      <c r="L55"/>
       <c r="M55">
-        <v>0.48076923076923</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <v>30</v>
@@ -3900,201 +4134,203 @@
         <v>820684.52</v>
       </c>
       <c r="Q55" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R55">
-        <v>42864</v>
+        <v>44897</v>
       </c>
       <c r="S55">
-        <v>34823</v>
+        <v>13021</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B56"/>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D56">
-        <v>79517860543</v>
+        <v>79156218935</v>
       </c>
       <c r="E56" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F56">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J56" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56">
-        <v>0.058823529411765</v>
+        <v>0.16</v>
       </c>
       <c r="N56">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O56"/>
       <c r="P56">
         <v>820684.52</v>
       </c>
       <c r="Q56" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R56">
-        <v>42865</v>
+        <v>44898</v>
       </c>
       <c r="S56">
-        <v>36000</v>
+        <v>38380</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B57"/>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D57">
-        <v>79111666911</v>
+        <v>79996091044</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F57">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57">
-        <v>0.11320754716981</v>
+        <v>0.10204081632653</v>
       </c>
       <c r="N57">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O57"/>
       <c r="P57">
         <v>820684.52</v>
       </c>
       <c r="Q57" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R57">
-        <v>42866</v>
+        <v>44899</v>
       </c>
       <c r="S57">
-        <v>36002</v>
+        <v>38374</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B58"/>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D58">
-        <v>79050241203</v>
+        <v>79610060018</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F58">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J58" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58">
-        <v>0.28571428571429</v>
+        <v>0.074626865671642</v>
       </c>
       <c r="N58">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O58"/>
       <c r="P58">
         <v>820684.52</v>
       </c>
       <c r="Q58" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R58">
-        <v>42867</v>
+        <v>44900</v>
       </c>
       <c r="S58">
-        <v>36003</v>
+        <v>38381</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>221</v>
-      </c>
-      <c r="B59"/>
+        <v>227</v>
+      </c>
+      <c r="B59" t="s">
+        <v>228</v>
+      </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D59">
-        <v>79257317719</v>
+        <v>79159719010</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F59">
-        <v>15000</v>
+        <v>7890.0</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59" t="s">
-        <v>54</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J59"/>
       <c r="K59"/>
-      <c r="L59"/>
+      <c r="L59" t="s">
+        <v>231</v>
+      </c>
       <c r="M59">
-        <v>0.11764705882353</v>
+        <v>0.29545454545455</v>
       </c>
       <c r="N59">
         <v>30</v>
@@ -4104,150 +4340,156 @@
         <v>820684.52</v>
       </c>
       <c r="Q59" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R59">
-        <v>42868</v>
+        <v>44901</v>
       </c>
       <c r="S59">
-        <v>36005</v>
+        <v>33301</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>224</v>
-      </c>
-      <c r="B60"/>
+        <v>232</v>
+      </c>
+      <c r="B60" t="s">
+        <v>233</v>
+      </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D60">
-        <v>79130763563</v>
+        <v>79207498797</v>
       </c>
       <c r="E60" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F60">
-        <v>7000</v>
+        <v>4590.0</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" t="s">
-        <v>66</v>
-      </c>
-      <c r="K60"/>
-      <c r="L60"/>
+        <v>40</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60" t="s">
+        <v>236</v>
+      </c>
+      <c r="L60" t="s">
+        <v>237</v>
+      </c>
       <c r="M60">
-        <v>0.080459770114943</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O60"/>
       <c r="P60">
         <v>820684.52</v>
       </c>
       <c r="Q60" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R60">
-        <v>42869</v>
+        <v>44902</v>
       </c>
       <c r="S60">
-        <v>36006</v>
+        <v>14472</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D61">
-        <v>79517521462</v>
+        <v>79115108458</v>
       </c>
       <c r="E61" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F61">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61">
-        <v>0.19512195121951</v>
+        <v>0.24193548387097</v>
       </c>
       <c r="N61">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="O61"/>
       <c r="P61">
         <v>820684.52</v>
       </c>
       <c r="Q61" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R61">
-        <v>42870</v>
+        <v>44903</v>
       </c>
       <c r="S61">
-        <v>36008</v>
+        <v>25929</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B62"/>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D62">
-        <v>79135199307</v>
+        <v>79205049498</v>
       </c>
       <c r="E62" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F62">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>66</v>
-      </c>
-      <c r="K62"/>
+        <v>49</v>
+      </c>
+      <c r="K62" t="s">
+        <v>236</v>
+      </c>
       <c r="L62"/>
       <c r="M62">
-        <v>0.060240963855422</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>30</v>
@@ -4257,13 +4499,1049 @@
         <v>820684.52</v>
       </c>
       <c r="Q62" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="R62">
-        <v>42871</v>
+        <v>44904</v>
       </c>
       <c r="S62">
-        <v>36010</v>
+        <v>15988</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63">
+        <v>79130305528</v>
+      </c>
+      <c r="E63" t="s">
+        <v>246</v>
+      </c>
+      <c r="F63">
+        <v>15000</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" t="s">
+        <v>236</v>
+      </c>
+      <c r="L63"/>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>14</v>
+      </c>
+      <c r="O63"/>
+      <c r="P63">
+        <v>820684.52</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>50</v>
+      </c>
+      <c r="R63">
+        <v>44905</v>
+      </c>
+      <c r="S63">
+        <v>13248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64">
+        <v>79089951551</v>
+      </c>
+      <c r="E64" t="s">
+        <v>249</v>
+      </c>
+      <c r="F64">
+        <v>7000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" t="s">
+        <v>49</v>
+      </c>
+      <c r="K64" t="s">
+        <v>236</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>14</v>
+      </c>
+      <c r="O64"/>
+      <c r="P64">
+        <v>820684.52</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>50</v>
+      </c>
+      <c r="R64">
+        <v>44906</v>
+      </c>
+      <c r="S64">
+        <v>22866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65">
+        <v>79132821566</v>
+      </c>
+      <c r="E65" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65">
+        <v>5000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" t="s">
+        <v>49</v>
+      </c>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65">
+        <v>0.090909090909091</v>
+      </c>
+      <c r="N65">
+        <v>14</v>
+      </c>
+      <c r="O65"/>
+      <c r="P65">
+        <v>820684.52</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>26</v>
+      </c>
+      <c r="R65">
+        <v>44907</v>
+      </c>
+      <c r="S65">
+        <v>38382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66">
+        <v>79267126986</v>
+      </c>
+      <c r="E66" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66">
+        <v>15000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66">
+        <v>0.076923076923077</v>
+      </c>
+      <c r="N66">
+        <v>30</v>
+      </c>
+      <c r="O66"/>
+      <c r="P66">
+        <v>820684.52</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>26</v>
+      </c>
+      <c r="R66">
+        <v>44908</v>
+      </c>
+      <c r="S66">
+        <v>38383</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67">
+        <v>79635896929</v>
+      </c>
+      <c r="E67" t="s">
+        <v>258</v>
+      </c>
+      <c r="F67">
+        <v>7000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67">
+        <v>0.066666666666667</v>
+      </c>
+      <c r="N67">
+        <v>30</v>
+      </c>
+      <c r="O67"/>
+      <c r="P67">
+        <v>820684.52</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>35</v>
+      </c>
+      <c r="R67">
+        <v>44909</v>
+      </c>
+      <c r="S67">
+        <v>38315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68">
+        <v>79000205100</v>
+      </c>
+      <c r="E68" t="s">
+        <v>261</v>
+      </c>
+      <c r="F68">
+        <v>6000</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68">
+        <v>0.27142857142857</v>
+      </c>
+      <c r="N68">
+        <v>30</v>
+      </c>
+      <c r="O68"/>
+      <c r="P68">
+        <v>820684.52</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>35</v>
+      </c>
+      <c r="R68">
+        <v>44910</v>
+      </c>
+      <c r="S68">
+        <v>38385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69">
+        <v>79518750475</v>
+      </c>
+      <c r="E69" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69">
+        <v>15000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69">
+        <v>0.17647058823529</v>
+      </c>
+      <c r="N69">
+        <v>30</v>
+      </c>
+      <c r="O69"/>
+      <c r="P69">
+        <v>820684.52</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>26</v>
+      </c>
+      <c r="R69">
+        <v>44911</v>
+      </c>
+      <c r="S69">
+        <v>38384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70" t="s">
+        <v>266</v>
+      </c>
+      <c r="D70">
+        <v>79531213745</v>
+      </c>
+      <c r="E70" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70">
+        <v>15000</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70">
+        <v>0.026666666666667</v>
+      </c>
+      <c r="N70">
+        <v>30</v>
+      </c>
+      <c r="O70"/>
+      <c r="P70">
+        <v>820684.52</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>35</v>
+      </c>
+      <c r="R70">
+        <v>44912</v>
+      </c>
+      <c r="S70">
+        <v>38386</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" t="s">
+        <v>268</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71">
+        <v>79051175361</v>
+      </c>
+      <c r="E71" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71">
+        <v>10000</v>
+      </c>
+      <c r="G71" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>14</v>
+      </c>
+      <c r="O71"/>
+      <c r="P71">
+        <v>820684.52</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>50</v>
+      </c>
+      <c r="R71">
+        <v>44914</v>
+      </c>
+      <c r="S71">
+        <v>17566</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72">
+        <v>79094072919</v>
+      </c>
+      <c r="E72" t="s">
+        <v>273</v>
+      </c>
+      <c r="F72">
+        <v>15000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72">
+        <v>0.8</v>
+      </c>
+      <c r="N72">
+        <v>30</v>
+      </c>
+      <c r="O72"/>
+      <c r="P72">
+        <v>820684.52</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>26</v>
+      </c>
+      <c r="R72">
+        <v>44915</v>
+      </c>
+      <c r="S72">
+        <v>38388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73">
+        <v>79004913686</v>
+      </c>
+      <c r="E73" t="s">
+        <v>277</v>
+      </c>
+      <c r="F73">
+        <v>3590.0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73" t="s">
+        <v>236</v>
+      </c>
+      <c r="L73" t="s">
+        <v>278</v>
+      </c>
+      <c r="M73">
+        <v>0.13888888888889</v>
+      </c>
+      <c r="N73">
+        <v>30</v>
+      </c>
+      <c r="O73"/>
+      <c r="P73">
+        <v>820684.52</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>50</v>
+      </c>
+      <c r="R73">
+        <v>44916</v>
+      </c>
+      <c r="S73">
+        <v>26221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" t="s">
+        <v>279</v>
+      </c>
+      <c r="B74" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" t="s">
+        <v>281</v>
+      </c>
+      <c r="D74">
+        <v>79829759172</v>
+      </c>
+      <c r="E74" t="s">
+        <v>282</v>
+      </c>
+      <c r="F74">
+        <v>7890.0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74" t="s">
+        <v>283</v>
+      </c>
+      <c r="M74">
+        <v>0.16666666666667</v>
+      </c>
+      <c r="N74">
+        <v>30</v>
+      </c>
+      <c r="O74"/>
+      <c r="P74">
+        <v>820684.52</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>50</v>
+      </c>
+      <c r="R74">
+        <v>44917</v>
+      </c>
+      <c r="S74">
+        <v>34216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75" t="s">
+        <v>285</v>
+      </c>
+      <c r="D75">
+        <v>79268444172</v>
+      </c>
+      <c r="E75" t="s">
+        <v>286</v>
+      </c>
+      <c r="F75">
+        <v>7000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" t="s">
+        <v>49</v>
+      </c>
+      <c r="K75" t="s">
+        <v>236</v>
+      </c>
+      <c r="L75"/>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>30</v>
+      </c>
+      <c r="O75"/>
+      <c r="P75">
+        <v>820684.52</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>50</v>
+      </c>
+      <c r="R75">
+        <v>44918</v>
+      </c>
+      <c r="S75">
+        <v>15379</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" t="s">
+        <v>287</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76" t="s">
+        <v>288</v>
+      </c>
+      <c r="D76">
+        <v>79533078701</v>
+      </c>
+      <c r="E76" t="s">
+        <v>289</v>
+      </c>
+      <c r="F76">
+        <v>7000</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" t="s">
+        <v>34</v>
+      </c>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76">
+        <v>0.2</v>
+      </c>
+      <c r="N76">
+        <v>14</v>
+      </c>
+      <c r="O76"/>
+      <c r="P76">
+        <v>820684.52</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>26</v>
+      </c>
+      <c r="R76">
+        <v>44919</v>
+      </c>
+      <c r="S76">
+        <v>38390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" t="s">
+        <v>290</v>
+      </c>
+      <c r="B77" t="s">
+        <v>291</v>
+      </c>
+      <c r="C77" t="s">
+        <v>292</v>
+      </c>
+      <c r="D77">
+        <v>79167896607</v>
+      </c>
+      <c r="E77" t="s">
+        <v>293</v>
+      </c>
+      <c r="F77">
+        <v>7000</v>
+      </c>
+      <c r="G77" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77" t="s">
+        <v>236</v>
+      </c>
+      <c r="L77"/>
+      <c r="M77">
+        <v>0.046153846153846</v>
+      </c>
+      <c r="N77">
+        <v>30</v>
+      </c>
+      <c r="O77"/>
+      <c r="P77">
+        <v>820684.52</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>50</v>
+      </c>
+      <c r="R77">
+        <v>44920</v>
+      </c>
+      <c r="S77">
+        <v>25152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" t="s">
+        <v>294</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78" t="s">
+        <v>295</v>
+      </c>
+      <c r="D78">
+        <v>79094195038</v>
+      </c>
+      <c r="E78" t="s">
+        <v>296</v>
+      </c>
+      <c r="F78">
+        <v>5000</v>
+      </c>
+      <c r="G78" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" t="s">
+        <v>34</v>
+      </c>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>30</v>
+      </c>
+      <c r="O78"/>
+      <c r="P78">
+        <v>820684.52</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>35</v>
+      </c>
+      <c r="R78">
+        <v>44921</v>
+      </c>
+      <c r="S78">
+        <v>14311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" t="s">
+        <v>297</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79" t="s">
+        <v>298</v>
+      </c>
+      <c r="D79">
+        <v>79125670500</v>
+      </c>
+      <c r="E79" t="s">
+        <v>299</v>
+      </c>
+      <c r="F79">
+        <v>15000</v>
+      </c>
+      <c r="G79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
+        <v>99</v>
+      </c>
+      <c r="K79" t="s">
+        <v>236</v>
+      </c>
+      <c r="L79"/>
+      <c r="M79">
+        <v>0.2</v>
+      </c>
+      <c r="N79">
+        <v>14</v>
+      </c>
+      <c r="O79"/>
+      <c r="P79">
+        <v>820684.52</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>50</v>
+      </c>
+      <c r="R79">
+        <v>44922</v>
+      </c>
+      <c r="S79">
+        <v>26290</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" t="s">
+        <v>300</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80">
+        <v>79815059280</v>
+      </c>
+      <c r="E80" t="s">
+        <v>302</v>
+      </c>
+      <c r="F80">
+        <v>10000</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" t="s">
+        <v>99</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80">
+        <v>0.37037037037037</v>
+      </c>
+      <c r="N80">
+        <v>29</v>
+      </c>
+      <c r="O80"/>
+      <c r="P80">
+        <v>820684.52</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>35</v>
+      </c>
+      <c r="R80">
+        <v>44923</v>
+      </c>
+      <c r="S80">
+        <v>38394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81">
+        <v>79778021596</v>
+      </c>
+      <c r="E81" t="s">
+        <v>305</v>
+      </c>
+      <c r="F81">
+        <v>10000</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" t="s">
+        <v>99</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81">
+        <v>0.087719298245614</v>
+      </c>
+      <c r="N81">
+        <v>16</v>
+      </c>
+      <c r="O81"/>
+      <c r="P81">
+        <v>820684.52</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>35</v>
+      </c>
+      <c r="R81">
+        <v>44924</v>
+      </c>
+      <c r="S81">
+        <v>38395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" t="s">
+        <v>306</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82">
+        <v>79260276171</v>
+      </c>
+      <c r="E82" t="s">
+        <v>308</v>
+      </c>
+      <c r="F82">
+        <v>15000</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" t="s">
+        <v>34</v>
+      </c>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82">
+        <v>0.37837837837838</v>
+      </c>
+      <c r="N82">
+        <v>19</v>
+      </c>
+      <c r="O82"/>
+      <c r="P82">
+        <v>820684.52</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>35</v>
+      </c>
+      <c r="R82">
+        <v>44925</v>
+      </c>
+      <c r="S82">
+        <v>38396</v>
       </c>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
   <si>
     <t>Дата</t>
   </si>
@@ -74,874 +74,1246 @@
     <t>ID клиента</t>
   </si>
   <si>
-    <t>2023-05-27 15:14:17</t>
-  </si>
-  <si>
-    <t>Паршина Наталия Анатольевна</t>
-  </si>
-  <si>
-    <t>nataliakusnir94@gmail.com</t>
+    <t>2023-06-07 16:49:11</t>
+  </si>
+  <si>
+    <t>0607-4723</t>
+  </si>
+  <si>
+    <t>Мисюра Нонна Борисовна</t>
+  </si>
+  <si>
+    <t>nbm9764@mail.ru</t>
+  </si>
+  <si>
+    <t>ПК CRM</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Займ выдан</t>
+  </si>
+  <si>
+    <t>2023-06-22 01:42:03</t>
+  </si>
+  <si>
+    <t>Не оп</t>
+  </si>
+  <si>
+    <t>2023-06-07 19:54:20</t>
+  </si>
+  <si>
+    <t>Шадрин Виктор Николаевич</t>
+  </si>
+  <si>
+    <t>f1organizacia@mail.ru</t>
   </si>
   <si>
     <t>Новая</t>
   </si>
   <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Отказ клиента</t>
-  </si>
-  <si>
-    <t>Просьба подать заявку на займ повторно!</t>
+    <t>Отказ</t>
+  </si>
+  <si>
+    <t>Причина отказа: негативные факторы в кредитной истории по микрокредитам.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>2023-05-30 11:44:28</t>
-  </si>
-  <si>
-    <t>Шитиков Андрей Васильевич</t>
-  </si>
-  <si>
-    <t>Sia68341@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-05-30 20:11:30</t>
-  </si>
-  <si>
-    <t>Слабяк Вадим Петрович</t>
-  </si>
-  <si>
-    <t>moon.art2013@yandex.ru</t>
-  </si>
-  <si>
-    <t>Отказ</t>
-  </si>
-  <si>
-    <t>Причина отказа: негативные факторы в кредитной истории по микрокредитам.</t>
+    <t>2023-06-07 20:37:37</t>
+  </si>
+  <si>
+    <t>0608-4725</t>
+  </si>
+  <si>
+    <t>Кузнецова Ксения Евгеньевна</t>
+  </si>
+  <si>
+    <t>mynightwish2010@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-07-02 16:04:03</t>
+  </si>
+  <si>
+    <t>2023-06-07 22:04:13</t>
+  </si>
+  <si>
+    <t>Куракина Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>kurakinatv1@yandex.ru</t>
+  </si>
+  <si>
+    <t>Повтор</t>
+  </si>
+  <si>
+    <t>2023-06-07 22:33:23</t>
+  </si>
+  <si>
+    <t>Фуфаев Даниил Олегович</t>
+  </si>
+  <si>
+    <t>fufaev91lol@list.ru</t>
   </si>
   <si>
     <t>click2money</t>
   </si>
   <si>
-    <t>2023-06-01 13:27:20</t>
-  </si>
-  <si>
-    <t>0601-4671</t>
-  </si>
-  <si>
-    <t>Зырянов Никита Евгеньевич</t>
-  </si>
-  <si>
-    <t>zenil90@mail.ru</t>
-  </si>
-  <si>
-    <t>Займ выдан</t>
-  </si>
-  <si>
-    <t>2023-07-05 07:18:03</t>
-  </si>
-  <si>
-    <t>2023-06-01 13:34:48</t>
-  </si>
-  <si>
-    <t>Соколов Дмитрий Александрович</t>
-  </si>
-  <si>
-    <t>sistemat.67@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-04 16:10:41</t>
-  </si>
-  <si>
-    <t>Смоляков Сергей Викторович</t>
-  </si>
-  <si>
-    <t>Sergeysmol81@mail.ru</t>
-  </si>
-  <si>
-    <t>ПК CRM</t>
+    <t>2023-06-07 23:45:24</t>
+  </si>
+  <si>
+    <t>Малышко Наталья Алексеевна</t>
+  </si>
+  <si>
+    <t>Malyshkonata21@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 00:13:55</t>
+  </si>
+  <si>
+    <t>Пучкин Владимир Николаевич</t>
+  </si>
+  <si>
+    <t>Pvn.0511@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 00:22:12</t>
+  </si>
+  <si>
+    <t>Вискунова Екатерина Дмитриевна</t>
+  </si>
+  <si>
+    <t>dmitrievnaed@icloud.com</t>
   </si>
   <si>
     <t>Причина отказа: негативные факторы в кредитной истории.</t>
   </si>
   <si>
-    <t>Не оп</t>
-  </si>
-  <si>
-    <t>2023-06-04 18:21:47</t>
-  </si>
-  <si>
-    <t>0605-4690</t>
-  </si>
-  <si>
-    <t>Дуванова Инна Александровна</t>
-  </si>
-  <si>
-    <t>id.1395@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-07-05 10:04:04</t>
-  </si>
-  <si>
-    <t>2023-06-04 18:56:07</t>
-  </si>
-  <si>
-    <t>Катышева Виктория Юрьевна</t>
-  </si>
-  <si>
-    <t>vikakatysheva68@mail.ru</t>
-  </si>
-  <si>
-    <t>Повтор</t>
-  </si>
-  <si>
-    <t>2023-06-04 19:47:09</t>
-  </si>
-  <si>
-    <t>0605-4691</t>
-  </si>
-  <si>
-    <t>Куралесов Виталий Александрович</t>
-  </si>
-  <si>
-    <t>vit-kuralesov@yandex.ru</t>
+    <t>2023-06-08 00:40:57</t>
+  </si>
+  <si>
+    <t>Проскурин Иван Александрович</t>
+  </si>
+  <si>
+    <t>ivanproskurin997@gmai.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 01:05:00</t>
+  </si>
+  <si>
+    <t>Плетенский Дмитрий Анатольевич</t>
+  </si>
+  <si>
+    <t>dima.pletenskiy@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 01:15:36</t>
+  </si>
+  <si>
+    <t>Андрюшина Елизавета Николаевна</t>
+  </si>
+  <si>
+    <t>masodelll@mail.ru</t>
+  </si>
+  <si>
+    <t>Причина отказа: наличие задолженности на сайте судебных приставов.</t>
+  </si>
+  <si>
+    <t>2023-06-08 01:35:25</t>
+  </si>
+  <si>
+    <t>Потетенькин Анатолий Игоревич</t>
+  </si>
+  <si>
+    <t>potetenkin.a@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 01:36:23</t>
+  </si>
+  <si>
+    <t>Маматов Эмиль Александрович</t>
+  </si>
+  <si>
+    <t>mmt.86@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 02:58:33</t>
+  </si>
+  <si>
+    <t>Христенко Светлана Николаевна</t>
+  </si>
+  <si>
+    <t>shristenko411@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 03:41:37</t>
+  </si>
+  <si>
+    <t>Кокорина Юлия Равилевна</t>
+  </si>
+  <si>
+    <t>uteshevayulya16@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 03:48:51</t>
+  </si>
+  <si>
+    <t>Казановский Данила Денисович</t>
+  </si>
+  <si>
+    <t>kazanowsckijdan@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 04:17:41</t>
+  </si>
+  <si>
+    <t>Хатыпова Елена Павловна</t>
+  </si>
+  <si>
+    <t>antonroman22042018@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 04:30:09</t>
+  </si>
+  <si>
+    <t>Моисеев Александр Александрович</t>
+  </si>
+  <si>
+    <t>moiseevac@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 04:50:46</t>
+  </si>
+  <si>
+    <t>Штапов Константин Николаевич</t>
+  </si>
+  <si>
+    <t>shtalik77@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 05:20:07</t>
+  </si>
+  <si>
+    <t>Харитонов Алексей Алексеевич</t>
+  </si>
+  <si>
+    <t>slooga@rambler.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 05:26:36</t>
+  </si>
+  <si>
+    <t>Лещенко Яна Геннадьевна</t>
+  </si>
+  <si>
+    <t>yana.olimp18@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 05:29:23</t>
+  </si>
+  <si>
+    <t>Чемезова Алина Ариановна</t>
+  </si>
+  <si>
+    <t>aariachemez@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 05:30:00</t>
+  </si>
+  <si>
+    <t>Балашов Юрий Александрович</t>
+  </si>
+  <si>
+    <t>diamondragon74@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 05:30:48</t>
+  </si>
+  <si>
+    <t>Ефимов Евгений Викентьевич</t>
+  </si>
+  <si>
+    <t>efimov210588@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 06:08:25</t>
+  </si>
+  <si>
+    <t>Григорьев Александр Николаевич</t>
+  </si>
+  <si>
+    <t>ag3757405@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 06:17:55</t>
+  </si>
+  <si>
+    <t>Грехова Ирина Викторовна</t>
+  </si>
+  <si>
+    <t>irinashvedova91@gmail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 06:31:44</t>
+  </si>
+  <si>
+    <t>Лиханова Юлия Александровна</t>
+  </si>
+  <si>
+    <t>yulya_filatova13@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 06:47:31</t>
+  </si>
+  <si>
+    <t>Люсимин Евгений Николаевич</t>
+  </si>
+  <si>
+    <t>Evgenijlusimin5@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 07:14:52</t>
+  </si>
+  <si>
+    <t>Назаров Илья Борисович</t>
+  </si>
+  <si>
+    <t>nazarov2703@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 07:37:54</t>
+  </si>
+  <si>
+    <t>Гончарова Елена Евгеньевна</t>
+  </si>
+  <si>
+    <t>yelena.elena1998.goncharova@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 07:44:02</t>
+  </si>
+  <si>
+    <t>Галова Наталья Павловна</t>
+  </si>
+  <si>
+    <t>galova3k@rambler.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 07:59:37</t>
+  </si>
+  <si>
+    <t>Килейников Евгений Владимирович</t>
+  </si>
+  <si>
+    <t>samovec84@icloud.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 08:01:58</t>
+  </si>
+  <si>
+    <t>Колупаева Елена Борисовна</t>
+  </si>
+  <si>
+    <t>dimasik.1985.15.10@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 08:37:47</t>
+  </si>
+  <si>
+    <t>Шашков Артём Эдуардович</t>
+  </si>
+  <si>
+    <t>Shashkova178@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 08:45:38</t>
+  </si>
+  <si>
+    <t>Воронович Кристина Николаевна</t>
+  </si>
+  <si>
+    <t>christinavoronovitch@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:08:55</t>
+  </si>
+  <si>
+    <t>Неудачина Регина Маратовна</t>
+  </si>
+  <si>
+    <t>Neudachina90@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:09:08</t>
+  </si>
+  <si>
+    <t>Науразбаева Фаягуль Фуатовна</t>
+  </si>
+  <si>
+    <t>naurazbaevaf@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:18:51</t>
+  </si>
+  <si>
+    <t>Литвинова Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>litvi322@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:20:30</t>
+  </si>
+  <si>
+    <t>Ленина Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>ranakim@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:31:32</t>
+  </si>
+  <si>
+    <t>Губин Денис Андреевич</t>
+  </si>
+  <si>
+    <t>iceburg322@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:31:56</t>
+  </si>
+  <si>
+    <t>Сурус Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>tatanasurus1@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:51:38</t>
+  </si>
+  <si>
+    <t>Колесникова Анастасия Дмитриевна</t>
+  </si>
+  <si>
+    <t>qwerty2002585@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:55:54</t>
+  </si>
+  <si>
+    <t>Евсиков Алексей Юрьевич</t>
+  </si>
+  <si>
+    <t>evsikovalexej@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:58:09</t>
+  </si>
+  <si>
+    <t>Ахмадуллин Фарит Азатович</t>
+  </si>
+  <si>
+    <t>alfarit@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:11:22</t>
+  </si>
+  <si>
+    <t>Бакалдина Анастасия Юрьевна</t>
+  </si>
+  <si>
+    <t>sexiledi_79_79@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:12:46</t>
+  </si>
+  <si>
+    <t>Бехимов Алексей Алексеевич</t>
+  </si>
+  <si>
+    <t>svetaivanova260904@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:13:55</t>
+  </si>
+  <si>
+    <t>Самгина Екатерина Владимировна</t>
+  </si>
+  <si>
+    <t>verprmz@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:18:06</t>
+  </si>
+  <si>
+    <t>Шевченко Евгения Александровна</t>
+  </si>
+  <si>
+    <t>shevchenkoevgenia08@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:19:28</t>
+  </si>
+  <si>
+    <t>0608-4726</t>
+  </si>
+  <si>
+    <t>Меркулова Оксана Андреевна</t>
+  </si>
+  <si>
+    <t>leasayers@mail.ru</t>
   </si>
   <si>
     <t>042023</t>
   </si>
   <si>
-    <t>2023-07-05 09:46:03</t>
-  </si>
-  <si>
-    <t>2023-06-04 20:03:18</t>
-  </si>
-  <si>
-    <t>ВОРОНИН ГЕРМАН СЕРГЕЕВИЧ</t>
-  </si>
-  <si>
-    <t>voronin_2631993@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-04 20:15:17</t>
-  </si>
-  <si>
-    <t>Усков Алексей Николаевич</t>
-  </si>
-  <si>
-    <t>alekseiuskov17088617@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-04 21:40:21</t>
-  </si>
-  <si>
-    <t>Петров Александр Андреевич</t>
-  </si>
-  <si>
-    <t>sassshapetrov@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-04 22:02:30</t>
-  </si>
-  <si>
-    <t>Бахмет Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>tatyana.bakhmet@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-04 23:08:19</t>
-  </si>
-  <si>
-    <t>Мельникова Елена Вячеславовна</t>
-  </si>
-  <si>
-    <t>elena120519754@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-04 23:19:50</t>
-  </si>
-  <si>
-    <t>Кистанова Оксана Михайловна</t>
-  </si>
-  <si>
-    <t>borisova.oksana.nn@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 00:31:38</t>
-  </si>
-  <si>
-    <t>Урубкова Елена Викторовна</t>
-  </si>
-  <si>
-    <t>lenha@inbox.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 00:54:27</t>
-  </si>
-  <si>
-    <t>Буянова Нина Вячеславовна</t>
-  </si>
-  <si>
-    <t>ninabuanova878@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 01:03:44</t>
-  </si>
-  <si>
-    <t>Наранов Эрдни Наминович</t>
-  </si>
-  <si>
-    <t>erdni.naranov@inbox.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 01:39:48</t>
-  </si>
-  <si>
-    <t>Острожко Максим Андреевич</t>
-  </si>
-  <si>
-    <t>mailmaks2004@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 01:45:34</t>
-  </si>
-  <si>
-    <t>Кульчицкий Александр Александрович</t>
-  </si>
-  <si>
-    <t>kulchitckysasha@gmail.com</t>
-  </si>
-  <si>
-    <t>Причина отказа: наличие задолженности на сайте судебных приставов.</t>
-  </si>
-  <si>
-    <t>2023-06-05 01:58:46</t>
-  </si>
-  <si>
-    <t>Монахова Дарья Александровна</t>
-  </si>
-  <si>
-    <t>dmonahova00@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 03:28:25</t>
-  </si>
-  <si>
-    <t>Духленков Кирилл Евгеньевич</t>
-  </si>
-  <si>
-    <t>kduhlenkof@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 04:18:13</t>
-  </si>
-  <si>
-    <t>Осипян Артём Игоревич</t>
-  </si>
-  <si>
-    <t>pervy0101@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 04:29:26</t>
-  </si>
-  <si>
-    <t>Ноев Дмитрий Русланович</t>
-  </si>
-  <si>
-    <t>dima.noev@bk.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 05:18:04</t>
-  </si>
-  <si>
-    <t>Беневоленский Даниил Андреевич</t>
-  </si>
-  <si>
-    <t>danil.benevolenske@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 05:34:34</t>
-  </si>
-  <si>
-    <t>Шуваев Антон Петрович</t>
-  </si>
-  <si>
-    <t>a.petrovich.85@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 06:40:21</t>
-  </si>
-  <si>
-    <t>0605-4696</t>
-  </si>
-  <si>
-    <t>Селенина Татьяна Ивановна</t>
-  </si>
-  <si>
-    <t>tselenina33@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-07-05 13:22:04</t>
-  </si>
-  <si>
-    <t>2023-06-05 06:46:24</t>
-  </si>
-  <si>
-    <t>Охремчук Валентина Алексеевна</t>
-  </si>
-  <si>
-    <t>valentinaohremcuk12744@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 07:14:18</t>
-  </si>
-  <si>
-    <t>Бабкина Ирина Александровна</t>
-  </si>
-  <si>
-    <t>tovstokoririna384@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 07:17:14</t>
-  </si>
-  <si>
-    <t>Аксенова Марина Андреевна</t>
-  </si>
-  <si>
-    <t>marinavova2407@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 07:34:21</t>
-  </si>
-  <si>
-    <t>Жолобов Валерий Валерьевич</t>
-  </si>
-  <si>
-    <t>zholobovvaleriy@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 07:35:00</t>
-  </si>
-  <si>
-    <t>Фатфулин Марсэль Дельмарович</t>
-  </si>
-  <si>
-    <t>fatfulin@inbox.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 07:35:06</t>
-  </si>
-  <si>
-    <t>Леушкина Наталья Сергеевна</t>
-  </si>
-  <si>
-    <t>L3ushkina@yandex.ru</t>
-  </si>
-  <si>
-    <t>yandex</t>
-  </si>
-  <si>
-    <t>2023-06-05 08:04:48</t>
-  </si>
-  <si>
-    <t>0605-4692</t>
-  </si>
-  <si>
-    <t>Мисюра Нонна Борисовна</t>
-  </si>
-  <si>
-    <t>nbm9764@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-07-05 09:56:03</t>
-  </si>
-  <si>
-    <t>2023-06-05 08:13:57</t>
-  </si>
-  <si>
-    <t>0605-4693</t>
-  </si>
-  <si>
-    <t>Ларина Евгения Николаевна</t>
-  </si>
-  <si>
-    <t>Larina01@inbox.ru</t>
-  </si>
-  <si>
-    <t>2023-07-05 10:10:05</t>
-  </si>
-  <si>
-    <t>2023-06-05 08:33:10</t>
-  </si>
-  <si>
-    <t>Сагдеева Елена Викторовна</t>
-  </si>
-  <si>
-    <t>elenasagdeeva13@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 08:50:41</t>
-  </si>
-  <si>
-    <t>Борискин Антон Сергеевич</t>
-  </si>
-  <si>
-    <t>kolpak2v@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 09:04:05</t>
-  </si>
-  <si>
-    <t>0605-4694</t>
-  </si>
-  <si>
-    <t>Кулешова Ксения Дмитриевна</t>
-  </si>
-  <si>
-    <t>pashnina2692@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-19 10:00:04</t>
-  </si>
-  <si>
-    <t>2023-06-05 09:48:25</t>
-  </si>
-  <si>
-    <t>Плахова-Степаненко Алина Андреевна</t>
-  </si>
-  <si>
-    <t>alinaplahovastepanenko@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 09:53:43</t>
-  </si>
-  <si>
-    <t>Тихонова Анна Валерьевна</t>
-  </si>
-  <si>
-    <t>TihonovaAnnaV@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 10:11:02</t>
-  </si>
-  <si>
-    <t>Шишова Кристина Вячеславовна</t>
-  </si>
-  <si>
-    <t>shishova.kv@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 10:11:25</t>
-  </si>
-  <si>
-    <t>Воробьев Александр Сергеевич</t>
-  </si>
-  <si>
-    <t>sanav2110@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 10:20:27</t>
-  </si>
-  <si>
-    <t>Садыхова Элина Эмилевна</t>
-  </si>
-  <si>
-    <t>elkacandyhell@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 11:03:15</t>
-  </si>
-  <si>
-    <t>Ашурова Дарья Вячеславовна</t>
-  </si>
-  <si>
-    <t>dk6987184@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 11:09:33</t>
-  </si>
-  <si>
-    <t>Кашурников Данил Александрович</t>
-  </si>
-  <si>
-    <t>kash-danil@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 11:21:51</t>
-  </si>
-  <si>
-    <t>0605-4695</t>
-  </si>
-  <si>
-    <t>Хавилов Александр Борисович</t>
-  </si>
-  <si>
-    <t>khavilov2021@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-19 11:26:03</t>
-  </si>
-  <si>
-    <t>2023-06-05 11:46:17</t>
-  </si>
-  <si>
-    <t>Герейханов Эдуард Гамидханович</t>
-  </si>
-  <si>
-    <t>eduard19992015@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:03:47</t>
-  </si>
-  <si>
-    <t>Швецова Светлана Валентиновна</t>
-  </si>
-  <si>
-    <t>sveta1974_zakaz@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:09:29</t>
-  </si>
-  <si>
-    <t>0605-4697</t>
-  </si>
-  <si>
-    <t>Мерзлякова Надежда Михайловна</t>
-  </si>
-  <si>
-    <t>nadezdamerzlakova69@gmail.com</t>
-  </si>
-  <si>
-    <t>bf2023</t>
-  </si>
-  <si>
-    <t>2023-07-05 12:22:03</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:16:55</t>
-  </si>
-  <si>
-    <t>Слободян Александр Александрович</t>
-  </si>
-  <si>
-    <t>aleksandr1slobodyan@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:28:13</t>
-  </si>
-  <si>
-    <t>Щербаков Юрий Александрович</t>
-  </si>
-  <si>
-    <t>usherbakovm142uk@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:32:30</t>
-  </si>
-  <si>
-    <t>Копытова Ольга Васильевна</t>
-  </si>
-  <si>
-    <t>olgakopytova766@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:32:42</t>
-  </si>
-  <si>
-    <t>0605-4699</t>
-  </si>
-  <si>
-    <t>Бескоровайная Анфея Константиновна</t>
-  </si>
-  <si>
-    <t>obukhova.anfeya@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-07-05 12:56:03</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:33:34</t>
-  </si>
-  <si>
-    <t>Павлов Федор Дмитриевич</t>
-  </si>
-  <si>
-    <t>lofedora@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:34:01</t>
-  </si>
-  <si>
-    <t>Буданова Светлана Юрьевна</t>
-  </si>
-  <si>
-    <t>budswt24@rambler.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:38:00</t>
-  </si>
-  <si>
-    <t>Пономарев Дмитрий Дмитриевич</t>
-  </si>
-  <si>
-    <t>dimaponomarev032@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:42:32</t>
-  </si>
-  <si>
-    <t>Тюрина Анастасия Игоревна</t>
-  </si>
-  <si>
-    <t>nastya_krilova1993@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:49:49</t>
-  </si>
-  <si>
-    <t>0605-4698</t>
-  </si>
-  <si>
-    <t>Бельтюгова Татьяна Борисовна</t>
-  </si>
-  <si>
-    <t>beltyugova.tanya@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-07-05 12:58:04</t>
-  </si>
-  <si>
-    <t>2023-06-05 12:56:50</t>
-  </si>
-  <si>
-    <t>0605-4700</t>
-  </si>
-  <si>
-    <t>СОРОКИН ДМИТРИЙ ВИКТОРОВИЧ</t>
-  </si>
-  <si>
-    <t>bratyx@gmail.com</t>
+    <t>2023-07-08 10:24:03</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:30:08</t>
+  </si>
+  <si>
+    <t>Стеникова Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>tatianaSTEN0302@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:37:26</t>
+  </si>
+  <si>
+    <t>Хайруллин Ильсур Закуанович</t>
+  </si>
+  <si>
+    <t>ilshai343@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:38:27</t>
+  </si>
+  <si>
+    <t>Хапочкин Константин Дмитриевич</t>
+  </si>
+  <si>
+    <t>hapochkin2021@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:41:51</t>
+  </si>
+  <si>
+    <t>Дацюк Павел Васильевич</t>
+  </si>
+  <si>
+    <t>pavel-28067@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:44:42</t>
+  </si>
+  <si>
+    <t>Черемушкина Наталья Александровна</t>
+  </si>
+  <si>
+    <t>assa2411@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 10:48:46</t>
+  </si>
+  <si>
+    <t>Туменов Мухаммад Абдурашидович</t>
+  </si>
+  <si>
+    <t>untchbl@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 11:11:32</t>
+  </si>
+  <si>
+    <t>Шаров Роман Владимирович</t>
+  </si>
+  <si>
+    <t>diplo1201@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 11:13:41</t>
+  </si>
+  <si>
+    <t>Белобородов Николай Анатольевич</t>
+  </si>
+  <si>
+    <t>nicolyai.com@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 11:19:32</t>
+  </si>
+  <si>
+    <t>Ковалева Лилия Сергеевна</t>
+  </si>
+  <si>
+    <t>pugachevals2009@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 11:19:38</t>
+  </si>
+  <si>
+    <t>Любимова Мария Сергеевна</t>
+  </si>
+  <si>
+    <t>9138579777@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 11:30:29</t>
+  </si>
+  <si>
+    <t>Чуманов Владимир Владиславович</t>
+  </si>
+  <si>
+    <t>chumanov95@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 11:44:56</t>
+  </si>
+  <si>
+    <t>Готовцев Денис Дмитриевич</t>
+  </si>
+  <si>
+    <t>denis.gotovtsev@list.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 11:51:28</t>
+  </si>
+  <si>
+    <t>Патракова Оксана Андреевна</t>
+  </si>
+  <si>
+    <t>Oksanapatrakova9737@mail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 11:53:15</t>
+  </si>
+  <si>
+    <t>Кусимова Анжела Юрьевна</t>
+  </si>
+  <si>
+    <t>anzlika2850@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 12:10:36</t>
+  </si>
+  <si>
+    <t>Шлыкова Кристина Александровна</t>
+  </si>
+  <si>
+    <t>kralex-2001@inbox.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 12:17:03</t>
+  </si>
+  <si>
+    <t>Шалар Анна Александровна</t>
+  </si>
+  <si>
+    <t>annalera8891@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 12:21:43</t>
+  </si>
+  <si>
+    <t>Кивилев Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>kyf03@icloud.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 12:26:21</t>
+  </si>
+  <si>
+    <t>Даниелян Каринэ Рашидовна</t>
+  </si>
+  <si>
+    <t>karina199D@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 12:29:08</t>
+  </si>
+  <si>
+    <t>Чернова Ольга Юрьевна</t>
+  </si>
+  <si>
+    <t>olgacernova452@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 12:36:49</t>
+  </si>
+  <si>
+    <t>Тихонова Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>Super-8413@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 12:37:11</t>
+  </si>
+  <si>
+    <t>Фасфутдинов Роман Богданович</t>
+  </si>
+  <si>
+    <t>pudovkin.96@inbox.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 12:50:45</t>
+  </si>
+  <si>
+    <t>Васькина Анастасия Николаевна</t>
+  </si>
+  <si>
+    <t>anastasiya.vaskina@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 12:55:45</t>
+  </si>
+  <si>
+    <t>Александрова Наталья Александровна</t>
+  </si>
+  <si>
+    <t>alex.malysh62@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 13:07:39</t>
+  </si>
+  <si>
+    <t>Мухаметдинова Надия Владимировна</t>
+  </si>
+  <si>
+    <t>nadiya000@bk.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 13:11:33</t>
+  </si>
+  <si>
+    <t>Восковых Анна Геннадиевна</t>
+  </si>
+  <si>
+    <t>kapusto4ka7557162@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 13:14:31</t>
+  </si>
+  <si>
+    <t>Богатищева Алёна Сергеевна</t>
+  </si>
+  <si>
+    <t>alyona.bogatishheva@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 13:25:33</t>
+  </si>
+  <si>
+    <t>БУШКОВА Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>bushkova_olga@bk.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 13:39:32</t>
+  </si>
+  <si>
+    <t>Артеменко Дарья Алексеевна</t>
+  </si>
+  <si>
+    <t>dacha2302@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 13:46:27</t>
+  </si>
+  <si>
+    <t>Решетов Владимир Александрович</t>
+  </si>
+  <si>
+    <t>vladmir20009@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 14:07:14</t>
+  </si>
+  <si>
+    <t>Рудаков Сергей Петрович</t>
+  </si>
+  <si>
+    <t>dodsondiego4@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 14:08:20</t>
+  </si>
+  <si>
+    <t>Мозжегоров Никита Дмитриевич</t>
+  </si>
+  <si>
+    <t>nik.mozzhegorov00@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 14:12:35</t>
+  </si>
+  <si>
+    <t>0608-4727</t>
+  </si>
+  <si>
+    <t>Сурнакова Людмила Александровна</t>
+  </si>
+  <si>
+    <t>surnakova79@inbox.ru</t>
+  </si>
+  <si>
+    <t>2023-07-08 14:36:04</t>
+  </si>
+  <si>
+    <t>2023-06-08 14:13:34</t>
+  </si>
+  <si>
+    <t>Лушников Евгений Михайлович</t>
+  </si>
+  <si>
+    <t>lushnikov4500@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 14:24:01</t>
+  </si>
+  <si>
+    <t>Аронов Артём Маркович</t>
+  </si>
+  <si>
+    <t>aronovartem@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 14:31:28</t>
+  </si>
+  <si>
+    <t>Конник Денис Юрьевич</t>
+  </si>
+  <si>
+    <t>d.konnik@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 14:32:55</t>
+  </si>
+  <si>
+    <t>Смирнов Алексей Викторович</t>
+  </si>
+  <si>
+    <t>avsmirnov.yar@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 14:36:26</t>
+  </si>
+  <si>
+    <t>Черная Яна Викторовна</t>
+  </si>
+  <si>
+    <t>arabika.robusta@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 14:59:21</t>
+  </si>
+  <si>
+    <t>Азиев Даниил Русланович</t>
+  </si>
+  <si>
+    <t>nice.roy.00@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 15:03:59</t>
+  </si>
+  <si>
+    <t>Бердникова Анастасия Михайловна</t>
+  </si>
+  <si>
+    <t>aanisimova046@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 16:23:47</t>
+  </si>
+  <si>
+    <t>Потапова Юлия Евгеньевна</t>
+  </si>
+  <si>
+    <t>upotapova028@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 16:25:29</t>
+  </si>
+  <si>
+    <t>Акылов Денис Муслимович</t>
+  </si>
+  <si>
+    <t>akylov.1991@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 16:32:23</t>
+  </si>
+  <si>
+    <t>Айрапетян Карен Ашотович</t>
+  </si>
+  <si>
+    <t>ayrapetyank27@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 16:35:57</t>
+  </si>
+  <si>
+    <t>Корзинкина Оксана Александровна</t>
+  </si>
+  <si>
+    <t>ksu17.91@inbox.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 16:36:12</t>
+  </si>
+  <si>
+    <t>Барташова Софья Вячеславовна</t>
+  </si>
+  <si>
+    <t>sofya.bartashova@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 16:38:20</t>
+  </si>
+  <si>
+    <t>Долгова Кристина Александровна</t>
+  </si>
+  <si>
+    <t>kriss.dolgova@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 16:40:19</t>
+  </si>
+  <si>
+    <t>Иванин Максим Андреевич</t>
+  </si>
+  <si>
+    <t>maximiwanin@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 16:52:47</t>
+  </si>
+  <si>
+    <t>Кузьмин Роман Викторович</t>
+  </si>
+  <si>
+    <t>romankuzmin-05nov1988@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 17:08:02</t>
+  </si>
+  <si>
+    <t>Коротких Руслан Юрьевич</t>
+  </si>
+  <si>
+    <t>2017sg@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 17:11:03</t>
+  </si>
+  <si>
+    <t>Галкина Анжелика Александровна</t>
+  </si>
+  <si>
+    <t>lika.galkina.86@list.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 17:19:54</t>
+  </si>
+  <si>
+    <t>Черняева Вероника Игоревна</t>
+  </si>
+  <si>
+    <t>iveronikachernyaeva8@mail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 17:23:59</t>
+  </si>
+  <si>
+    <t>Васильев Владислав Станиславович</t>
+  </si>
+  <si>
+    <t>gxttam@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 17:24:34</t>
+  </si>
+  <si>
+    <t>Коротких Юрий Иванович</t>
+  </si>
+  <si>
+    <t>334455f@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 17:33:38</t>
+  </si>
+  <si>
+    <t>0608-4729</t>
+  </si>
+  <si>
+    <t>Макаренков Сергей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Makarenkov-sd@mail.ru</t>
   </si>
   <si>
     <t>June23</t>
   </si>
   <si>
-    <t>2023-07-05 13:18:03</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:00:54</t>
-  </si>
-  <si>
-    <t>Воронов Иван Андреевич</t>
-  </si>
-  <si>
-    <t>odelljordan@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:02:33</t>
-  </si>
-  <si>
-    <t>Вострикова Татьяна Васильевна</t>
-  </si>
-  <si>
-    <t>tvostrikova727@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:05:29</t>
-  </si>
-  <si>
-    <t>Абросимова Татьяна Викторовна</t>
-  </si>
-  <si>
-    <t>tatysolomatina@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:06:50</t>
-  </si>
-  <si>
-    <t>Курлыкина Ольга Ивановна</t>
-  </si>
-  <si>
-    <t>Dalas78@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:12:02</t>
-  </si>
-  <si>
-    <t>Михайлова Анастасия Сергеевна</t>
-  </si>
-  <si>
-    <t>lizasergeeva5678@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:15:53</t>
-  </si>
-  <si>
-    <t>Рошка Светлана Валентиновна</t>
-  </si>
-  <si>
-    <t>svetaroska2@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:19:23</t>
-  </si>
-  <si>
-    <t>Кагерманов Магомед Асламбекович</t>
-  </si>
-  <si>
-    <t>vlad.okuev@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:21:00</t>
-  </si>
-  <si>
-    <t>Викторов Максим Владимирович</t>
-  </si>
-  <si>
-    <t>ooo_lotta@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:21:06</t>
-  </si>
-  <si>
-    <t>Малеваный Олег Николаевич</t>
-  </si>
-  <si>
-    <t>malevanyi.1984@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:22:23</t>
-  </si>
-  <si>
-    <t>Климонов Роман Александрович</t>
-  </si>
-  <si>
-    <t>romon.klim68@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:50:44</t>
-  </si>
-  <si>
-    <t>Боровская Ольга Александровна</t>
-  </si>
-  <si>
-    <t>vestito.tula@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 13:51:07</t>
-  </si>
-  <si>
-    <t>Яковенко Сергей Сергеевич</t>
-  </si>
-  <si>
-    <t>ssryakovenko@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 14:05:18</t>
-  </si>
-  <si>
-    <t>0605-4703</t>
-  </si>
-  <si>
-    <t>Тихонин Евгений Николаевич</t>
-  </si>
-  <si>
-    <t>ztixonin@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-07-05 14:18:03</t>
-  </si>
-  <si>
-    <t>2023-06-05 14:06:53</t>
-  </si>
-  <si>
-    <t>0605-4702</t>
-  </si>
-  <si>
-    <t>Ужегов Виктор Алексеевич</t>
-  </si>
-  <si>
-    <t>vitek124.e@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-07-05 14:14:03</t>
-  </si>
-  <si>
-    <t>2023-06-05 14:12:31</t>
-  </si>
-  <si>
-    <t>Астафьева Юлия Васильевна</t>
-  </si>
-  <si>
-    <t>juliyas20@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 14:14:46</t>
-  </si>
-  <si>
-    <t>Полуянова Анна Владимировна</t>
-  </si>
-  <si>
-    <t>Anko709@bk.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 14:19:53</t>
-  </si>
-  <si>
-    <t>0605-4705</t>
-  </si>
-  <si>
-    <t>Сорокин Андрей Алексеевич</t>
-  </si>
-  <si>
-    <t>andrrw1922@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 14:27:09</t>
-  </si>
-  <si>
-    <t>Зимовейская Анастасия Олеговна</t>
-  </si>
-  <si>
-    <t>azima1808@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 14:37:38</t>
-  </si>
-  <si>
-    <t>Рыжкина Дина Александровна</t>
-  </si>
-  <si>
-    <t>Moka79@mail.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 14:40:31</t>
-  </si>
-  <si>
-    <t>Егорова Валентина Сергеевна</t>
-  </si>
-  <si>
-    <t>matserinskayavalya@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-06-05 14:55:26</t>
-  </si>
-  <si>
-    <t>Ларин Андрей Викторович</t>
-  </si>
-  <si>
-    <t>hellbruins@yandex.ru</t>
-  </si>
-  <si>
-    <t>2023-06-05 15:10:18</t>
-  </si>
-  <si>
-    <t>Рожнова Екатерина Сергеевна</t>
-  </si>
-  <si>
-    <t>kbutalova@bk.ru</t>
+    <t>2023-07-08 17:46:03</t>
+  </si>
+  <si>
+    <t>2023-06-08 17:40:44</t>
+  </si>
+  <si>
+    <t>Мальцев Алексей Владимирович</t>
+  </si>
+  <si>
+    <t>89195363611leha@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 17:58:35</t>
+  </si>
+  <si>
+    <t>Шамсидинова Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>olya130907@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 18:03:35</t>
+  </si>
+  <si>
+    <t>Кощеева Ксения Андреевна</t>
+  </si>
+  <si>
+    <t>ksenopont002@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 18:08:46</t>
+  </si>
+  <si>
+    <t>Колобаева Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>lenakolob@inbox.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 18:09:01</t>
+  </si>
+  <si>
+    <t>Яковлев Александр Русланович</t>
+  </si>
+  <si>
+    <t>swampchips@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 18:15:44</t>
+  </si>
+  <si>
+    <t>Селезнёв Илья Игоревич</t>
+  </si>
+  <si>
+    <t>djskyle@bk.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 18:16:56</t>
+  </si>
+  <si>
+    <t>Шагжиева Арюна Бимбажаповна</t>
+  </si>
+  <si>
+    <t>aryuna-shagzhieva@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 18:19:49</t>
+  </si>
+  <si>
+    <t>Киричек Евгений Владимирович</t>
+  </si>
+  <si>
+    <t>evgenykirichek@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 18:31:29</t>
+  </si>
+  <si>
+    <t>Баженова Татьяна Юрьевна</t>
+  </si>
+  <si>
+    <t>bazhenova_1983@lisr.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 18:39:46</t>
+  </si>
+  <si>
+    <t>Андреев Алексей Владимирович</t>
+  </si>
+  <si>
+    <t>andreevmvp@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 19:15:06</t>
+  </si>
+  <si>
+    <t>Грач Татьяна Евгеньевна</t>
+  </si>
+  <si>
+    <t>t3019606@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 19:25:38</t>
+  </si>
+  <si>
+    <t>Степанова Екатерина Юрьевна</t>
+  </si>
+  <si>
+    <t>jalgubaa@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 19:26:47</t>
+  </si>
+  <si>
+    <t>Миронов Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>vovsan2005@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 19:37:35</t>
+  </si>
+  <si>
+    <t>Сафрыгин Павел Николаевич</t>
+  </si>
+  <si>
+    <t>pavelik08@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 19:39:09</t>
+  </si>
+  <si>
+    <t>Прудиус Алексей Алексеевич</t>
+  </si>
+  <si>
+    <t>prudia1988@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 20:00:42</t>
+  </si>
+  <si>
+    <t>Власюк Наталья Алексеевна</t>
+  </si>
+  <si>
+    <t>vlasukn362@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 20:11:01</t>
+  </si>
+  <si>
+    <t>Тимофеева Надежда Александровна</t>
+  </si>
+  <si>
+    <t>ntimofeeva601@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 21:03:02</t>
+  </si>
+  <si>
+    <t>Заяц Ксения Олеговна</t>
+  </si>
+  <si>
+    <t>ksenia_zayats@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 21:04:28</t>
+  </si>
+  <si>
+    <t>Александров Сергей Александрович</t>
+  </si>
+  <si>
+    <t>rony89@list.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 21:25:55</t>
+  </si>
+  <si>
+    <t>Прудентова Арина Сергеевна</t>
+  </si>
+  <si>
+    <t>arinaprudentova676@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 21:30:16</t>
+  </si>
+  <si>
+    <t>Марочкин Александр Денисович</t>
+  </si>
+  <si>
+    <t>Mumick1994@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 21:54:39</t>
+  </si>
+  <si>
+    <t>Дмитриев Артём Михайлович</t>
+  </si>
+  <si>
+    <t>admitriev222@bk.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 22:23:32</t>
+  </si>
+  <si>
+    <t>Смирнов Вячеслав Юрьевич</t>
+  </si>
+  <si>
+    <t>vyacheslav.smirnov.96@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 22:28:15</t>
+  </si>
+  <si>
+    <t>Сарян Седа Александровна</t>
+  </si>
+  <si>
+    <t>saryanangelina@yandex.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 22:44:23</t>
+  </si>
+  <si>
+    <t>Пахомова Анна Ивановна</t>
+  </si>
+  <si>
+    <t>paxomovarrr@mail.ru</t>
+  </si>
+  <si>
+    <t>2023-06-08 23:03:21</t>
+  </si>
+  <si>
+    <t>Файзулина Марина Васильевна</t>
+  </si>
+  <si>
+    <t>Faizulin9427@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 23:08:30</t>
+  </si>
+  <si>
+    <t>ЗОТОВА Екатерина Викторовна</t>
+  </si>
+  <si>
+    <t>ekaterinazotova348@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-06-08 23:28:41</t>
+  </si>
+  <si>
+    <t>Горячев Алексей Игоревич</t>
+  </si>
+  <si>
+    <t>Xango96x@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1649,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1369,86 +1741,88 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>79042183745</v>
+        <v>79501316252</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>15000</v>
+        <v>5890.0</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
         <v>25</v>
       </c>
+      <c r="J2"/>
       <c r="K2"/>
-      <c r="L2"/>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
       <c r="M2">
-        <v>0.3125</v>
+        <v>0.30578512396694</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O2"/>
       <c r="P2">
         <v>820684.52</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2">
-        <v>43330</v>
+        <v>45305</v>
       </c>
       <c r="S2">
-        <v>36553</v>
+        <v>38079</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>79299811415</v>
+        <v>79523606930</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>15000</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3">
-        <v>0.078125</v>
+        <v>0.26666666666667</v>
       </c>
       <c r="N3">
         <v>30</v>
@@ -1458,152 +1832,152 @@
         <v>820684.52</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R3">
-        <v>43851</v>
+        <v>45332</v>
       </c>
       <c r="S3">
-        <v>37108</v>
+        <v>38865</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4"/>
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>79871563001</v>
+        <v>79166388631</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>15000</v>
+        <v>9990.0</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
       <c r="M4">
-        <v>0.073170731707317</v>
+        <v>0.12631578947368</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O4"/>
       <c r="P4">
         <v>820684.52</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R4">
-        <v>43973</v>
+        <v>45335</v>
       </c>
       <c r="S4">
-        <v>37258</v>
+        <v>26034</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B5"/>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>79833037683</v>
+        <v>79325357122</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>5890.0</v>
+        <v>4000</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5"/>
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
       <c r="K5"/>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
+      <c r="L5"/>
       <c r="M5">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O5"/>
       <c r="P5">
         <v>820684.52</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R5">
-        <v>44337</v>
+        <v>45343</v>
       </c>
       <c r="S5">
-        <v>37733</v>
+        <v>28554</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>79108438787</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <v>6000</v>
+      </c>
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="D6">
-        <v>79992245368</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6">
-        <v>12000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6">
-        <v>0.15384615384615</v>
+        <v>0.26666666666667</v>
       </c>
       <c r="N6">
         <v>30</v>
@@ -1613,101 +1987,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R6">
-        <v>44339</v>
+        <v>45348</v>
       </c>
       <c r="S6">
-        <v>37715</v>
+        <v>33031</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>79051152390</v>
+        <v>79991654552</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
         <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="O7"/>
       <c r="P7">
         <v>820684.52</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="R7">
-        <v>44817</v>
+        <v>45354</v>
       </c>
       <c r="S7">
-        <v>21282</v>
+        <v>35053</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8"/>
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8">
+        <v>79058808545</v>
+      </c>
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="D8">
-        <v>79042889752</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
       <c r="F8">
-        <v>7890.0</v>
+        <v>15000</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8"/>
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
       <c r="K8"/>
-      <c r="L8" t="s">
-        <v>55</v>
-      </c>
+      <c r="L8"/>
       <c r="M8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N8">
         <v>30</v>
@@ -1717,103 +2089,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R8">
-        <v>44828</v>
+        <v>45357</v>
       </c>
       <c r="S8">
-        <v>20361</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>79526984592</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>5000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
         <v>57</v>
-      </c>
-      <c r="D9">
-        <v>79066886877</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9">
-        <v>3000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9">
-        <v>0.15217391304348</v>
+        <v>0.076923076923077</v>
       </c>
       <c r="N9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O9"/>
       <c r="P9">
         <v>820684.52</v>
       </c>
       <c r="Q9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R9">
-        <v>44832</v>
+        <v>45358</v>
       </c>
       <c r="S9">
-        <v>34131</v>
+        <v>38901</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>79088818581</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10">
-        <v>79507515669</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
       <c r="F10">
-        <v>7890.0</v>
+        <v>8000</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" t="s">
-        <v>65</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
       <c r="M10">
-        <v>0.47169811320755</v>
+        <v>0.073333333333333</v>
       </c>
       <c r="N10">
         <v>30</v>
@@ -1823,94 +2191,94 @@
         <v>820684.52</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R10">
-        <v>44838</v>
+        <v>45359</v>
       </c>
       <c r="S10">
-        <v>35985</v>
+        <v>38902</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D11">
-        <v>79522311794</v>
+        <v>79643167875</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>3000</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11">
-        <v>0.092307692307692</v>
+        <v>0.0081521739130435</v>
       </c>
       <c r="N11">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O11"/>
       <c r="P11">
         <v>820684.52</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R11">
-        <v>44839</v>
+        <v>45360</v>
       </c>
       <c r="S11">
-        <v>38311</v>
+        <v>38907</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D12">
-        <v>79630260545</v>
+        <v>79005360875</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
@@ -1918,157 +2286,157 @@
         <v>0.11111111111111</v>
       </c>
       <c r="N12">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O12"/>
       <c r="P12">
         <v>820684.52</v>
       </c>
       <c r="Q12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R12">
-        <v>44841</v>
+        <v>45361</v>
       </c>
       <c r="S12">
-        <v>38301</v>
+        <v>38904</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>79084770609</v>
+        <v>79777723514</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13">
-        <v>0.28125</v>
+        <v>0.017647058823529</v>
       </c>
       <c r="N13">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O13"/>
       <c r="P13">
         <v>820684.52</v>
       </c>
       <c r="Q13" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R13">
-        <v>44846</v>
+        <v>45362</v>
       </c>
       <c r="S13">
-        <v>38323</v>
+        <v>38913</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>79068716953</v>
+        <v>79851307225</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
         <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N14">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O14"/>
       <c r="P14">
         <v>820684.52</v>
       </c>
       <c r="Q14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R14">
-        <v>44852</v>
+        <v>45363</v>
       </c>
       <c r="S14">
-        <v>19488</v>
+        <v>38908</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D15">
-        <v>79650534940</v>
+        <v>76146529158</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F15">
         <v>10000</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
         <v>33</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15">
-        <v>0.33333333333333</v>
+        <v>0.13928571428571</v>
       </c>
       <c r="N15">
         <v>30</v>
@@ -2078,354 +2446,354 @@
         <v>820684.52</v>
       </c>
       <c r="Q15" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R15">
-        <v>44854</v>
+        <v>45364</v>
       </c>
       <c r="S15">
-        <v>38329</v>
+        <v>38917</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D16">
-        <v>79519187520</v>
+        <v>79923464024</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F16">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16">
-        <v>0.14545454545455</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="N16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O16"/>
       <c r="P16">
         <v>820684.52</v>
       </c>
       <c r="Q16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R16">
-        <v>44855</v>
+        <v>45365</v>
       </c>
       <c r="S16">
-        <v>38290</v>
+        <v>38920</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D17">
-        <v>79055457885</v>
+        <v>79206083282</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F17">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17">
-        <v>0.34883720930233</v>
+        <v>0.09375</v>
       </c>
       <c r="N17">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="O17"/>
       <c r="P17">
         <v>820684.52</v>
       </c>
       <c r="Q17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R17">
-        <v>44859</v>
+        <v>45366</v>
       </c>
       <c r="S17">
-        <v>38335</v>
+        <v>38921</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18">
-        <v>79953120390</v>
+        <v>79950934745</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F18">
-        <v>4958</v>
+        <v>4000</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
         <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>34</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18">
-        <v>0.11475409836066</v>
+        <v>0.10526315789474</v>
       </c>
       <c r="N18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O18"/>
       <c r="P18">
         <v>820684.52</v>
       </c>
       <c r="Q18" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R18">
-        <v>44860</v>
+        <v>45367</v>
       </c>
       <c r="S18">
-        <v>38336</v>
+        <v>33446</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D19">
-        <v>79956662004</v>
+        <v>79538921413</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F19">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19">
-        <v>0.03125</v>
+        <v>0.05</v>
       </c>
       <c r="N19">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O19"/>
       <c r="P19">
         <v>820684.52</v>
       </c>
       <c r="Q19" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R19">
-        <v>44861</v>
+        <v>45368</v>
       </c>
       <c r="S19">
-        <v>38337</v>
+        <v>38922</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D20">
-        <v>79243108020</v>
+        <v>79009340883</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F20">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="N20">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O20"/>
       <c r="P20">
         <v>820684.52</v>
       </c>
       <c r="Q20" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R20">
-        <v>44862</v>
+        <v>45369</v>
       </c>
       <c r="S20">
-        <v>37281</v>
+        <v>38923</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D21">
-        <v>79960960307</v>
+        <v>79105902485</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F21">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
         <v>33</v>
-      </c>
-      <c r="J21" t="s">
-        <v>99</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21">
-        <v>0.22222222222222</v>
+        <v>0.15384615384615</v>
       </c>
       <c r="N21">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O21"/>
       <c r="P21">
         <v>820684.52</v>
       </c>
       <c r="Q21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R21">
-        <v>44863</v>
+        <v>45370</v>
       </c>
       <c r="S21">
-        <v>38192</v>
+        <v>38918</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D22">
-        <v>79001153076</v>
+        <v>79236536369</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F22">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22">
-        <v>0.10606060606061</v>
+        <v>0.14285714285714</v>
       </c>
       <c r="N22">
         <v>30</v>
@@ -2435,48 +2803,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q22" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R22">
-        <v>44864</v>
+        <v>45371</v>
       </c>
       <c r="S22">
-        <v>38338</v>
+        <v>29495</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B23"/>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D23">
-        <v>79962034798</v>
+        <v>79142655988</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23">
-        <v>0.085714285714286</v>
+        <v>0.2</v>
       </c>
       <c r="N23">
         <v>30</v>
@@ -2486,99 +2854,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q23" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R23">
-        <v>44865</v>
+        <v>45372</v>
       </c>
       <c r="S23">
-        <v>38339</v>
+        <v>38925</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D24">
-        <v>79641540900</v>
+        <v>79226334989</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F24">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24">
-        <v>0.21276595744681</v>
+        <v>0.375</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O24"/>
       <c r="P24">
         <v>820684.52</v>
       </c>
       <c r="Q24" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R24">
-        <v>44866</v>
+        <v>45373</v>
       </c>
       <c r="S24">
-        <v>38340</v>
+        <v>38886</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D25">
-        <v>79142882095</v>
+        <v>79279954771</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F25">
         <v>7000</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
         <v>33</v>
-      </c>
-      <c r="J25" t="s">
-        <v>49</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="N25">
         <v>14</v>
@@ -2588,152 +2956,150 @@
         <v>820684.52</v>
       </c>
       <c r="Q25" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R25">
-        <v>44867</v>
+        <v>45374</v>
       </c>
       <c r="S25">
-        <v>37986</v>
+        <v>38823</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D26">
-        <v>79892373188</v>
+        <v>79600513109</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F26">
         <v>7000</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26">
-        <v>0.043478260869565</v>
+        <v>0.2</v>
       </c>
       <c r="N26">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O26"/>
       <c r="P26">
         <v>820684.52</v>
       </c>
       <c r="Q26" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R26">
-        <v>44868</v>
+        <v>45375</v>
       </c>
       <c r="S26">
-        <v>38344</v>
+        <v>27389</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D27">
-        <v>79098895349</v>
+        <v>79208596639</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F27">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
         <v>33</v>
-      </c>
-      <c r="J27" t="s">
-        <v>34</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="N27">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O27"/>
       <c r="P27">
         <v>820684.52</v>
       </c>
       <c r="Q27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R27">
-        <v>44869</v>
+        <v>45376</v>
       </c>
       <c r="S27">
-        <v>38239</v>
+        <v>34564</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" t="s">
-        <v>119</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B28"/>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>79642201496</v>
+        <v>79241643838</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F28">
-        <v>5890.0</v>
+        <v>7000</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28"/>
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>33</v>
+      </c>
       <c r="K28"/>
-      <c r="L28" t="s">
-        <v>122</v>
-      </c>
+      <c r="L28"/>
       <c r="M28">
-        <v>0.33333333333333</v>
+        <v>0.1685393258427</v>
       </c>
       <c r="N28">
         <v>30</v>
@@ -2743,99 +3109,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R28">
-        <v>44870</v>
+        <v>45377</v>
       </c>
       <c r="S28">
-        <v>38342</v>
+        <v>33798</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D29">
-        <v>79528024649</v>
+        <v>79834062818</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F29">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29">
-        <v>1.6666666666667E-5</v>
+        <v>0.025</v>
       </c>
       <c r="N29">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="O29"/>
       <c r="P29">
         <v>820684.52</v>
       </c>
       <c r="Q29" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R29">
-        <v>44871</v>
+        <v>45378</v>
       </c>
       <c r="S29">
-        <v>38350</v>
+        <v>38927</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D30">
-        <v>79231660002</v>
+        <v>79160284698</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F30">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30">
-        <v>0.076923076923077</v>
+        <v>0.08</v>
       </c>
       <c r="N30">
         <v>30</v>
@@ -2845,307 +3211,303 @@
         <v>820684.52</v>
       </c>
       <c r="Q30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R30">
-        <v>44872</v>
+        <v>45379</v>
       </c>
       <c r="S30">
-        <v>38351</v>
+        <v>38929</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D31">
-        <v>79148762028</v>
+        <v>79898575574</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F31">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
         <v>33</v>
-      </c>
-      <c r="J31" t="s">
-        <v>99</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31">
-        <v>0.066666666666667</v>
+        <v>0.2007299270073</v>
       </c>
       <c r="N31">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="O31"/>
       <c r="P31">
         <v>820684.52</v>
       </c>
       <c r="Q31" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R31">
-        <v>44873</v>
+        <v>45380</v>
       </c>
       <c r="S31">
-        <v>36177</v>
+        <v>38931</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D32">
-        <v>79370960518</v>
+        <v>79057353191</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F32">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32">
-        <v>0.125</v>
+        <v>0.10752688172043</v>
       </c>
       <c r="N32">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O32"/>
       <c r="P32">
         <v>820684.52</v>
       </c>
       <c r="Q32" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R32">
-        <v>44874</v>
+        <v>45381</v>
       </c>
       <c r="S32">
-        <v>38352</v>
+        <v>26051</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D33">
-        <v>79997247597</v>
+        <v>79046815452</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F33">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
         <v>33</v>
-      </c>
-      <c r="J33" t="s">
-        <v>49</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33">
-        <v>0.25</v>
+        <v>0.16666666666667</v>
       </c>
       <c r="N33">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O33"/>
       <c r="P33">
         <v>820684.52</v>
       </c>
       <c r="Q33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R33">
-        <v>44875</v>
+        <v>45382</v>
       </c>
       <c r="S33">
-        <v>38353</v>
+        <v>28079</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D34">
-        <v>79270214659</v>
+        <v>79619596464</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F34">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34">
-        <v>0.071428571428571</v>
+        <v>0.3</v>
       </c>
       <c r="N34">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O34"/>
       <c r="P34">
         <v>820684.52</v>
       </c>
       <c r="Q34" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="R34">
-        <v>44876</v>
+        <v>45383</v>
       </c>
       <c r="S34">
-        <v>36617</v>
+        <v>38933</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B35"/>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D35">
-        <v>79501316252</v>
+        <v>79516597250</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F35">
-        <v>5890.0</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35"/>
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
       <c r="K35"/>
-      <c r="L35" t="s">
-        <v>146</v>
-      </c>
+      <c r="L35"/>
       <c r="M35">
-        <v>0.30578512396694</v>
+        <v>0.15384615384615</v>
       </c>
       <c r="N35">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O35"/>
       <c r="P35">
         <v>820684.52</v>
       </c>
       <c r="Q35" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R35">
-        <v>44877</v>
+        <v>45384</v>
       </c>
       <c r="S35">
-        <v>38079</v>
+        <v>35959</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" t="s">
-        <v>148</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B36"/>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D36">
-        <v>79081804858</v>
+        <v>79520070330</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F36">
-        <v>7890.0</v>
+        <v>9000</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36"/>
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>33</v>
+      </c>
       <c r="K36"/>
-      <c r="L36" t="s">
-        <v>151</v>
-      </c>
+      <c r="L36"/>
       <c r="M36">
-        <v>0.21428571428571</v>
+        <v>0.066666666666667</v>
       </c>
       <c r="N36">
         <v>30</v>
@@ -3155,254 +3517,252 @@
         <v>820684.52</v>
       </c>
       <c r="Q36" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R36">
-        <v>44878</v>
+        <v>45385</v>
       </c>
       <c r="S36">
-        <v>35461</v>
+        <v>38936</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B37"/>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D37">
-        <v>79048162643</v>
+        <v>79638969759</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F37">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N37">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O37"/>
       <c r="P37">
         <v>820684.52</v>
       </c>
       <c r="Q37" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R37">
-        <v>44879</v>
+        <v>45386</v>
       </c>
       <c r="S37">
-        <v>38354</v>
+        <v>38937</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D38">
-        <v>79516416699</v>
+        <v>79959445029</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F38">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
         <v>33</v>
-      </c>
-      <c r="J38" t="s">
-        <v>99</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38">
-        <v>0.088495575221239</v>
+        <v>0.12307692307692</v>
       </c>
       <c r="N38">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="O38"/>
       <c r="P38">
         <v>820684.52</v>
       </c>
       <c r="Q38" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R38">
-        <v>44880</v>
+        <v>45387</v>
       </c>
       <c r="S38">
-        <v>38356</v>
+        <v>38938</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" t="s">
-        <v>159</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B39"/>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D39">
-        <v>79080416501</v>
+        <v>79995443842</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F39">
-        <v>5890.0</v>
+        <v>12000</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39"/>
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>33</v>
+      </c>
       <c r="K39"/>
-      <c r="L39" t="s">
-        <v>162</v>
-      </c>
+      <c r="L39"/>
       <c r="M39">
-        <v>0.45238095238095</v>
+        <v>0.26666666666667</v>
       </c>
       <c r="N39">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="O39"/>
       <c r="P39">
         <v>820684.52</v>
       </c>
       <c r="Q39" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R39">
-        <v>44881</v>
+        <v>45388</v>
       </c>
       <c r="S39">
-        <v>38357</v>
+        <v>38941</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D40">
-        <v>79934579712</v>
+        <v>79262073882</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F40">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
         <v>33</v>
-      </c>
-      <c r="J40" t="s">
-        <v>49</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40">
-        <v>0.10368098159509</v>
+        <v>0.4</v>
       </c>
       <c r="N40">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="O40"/>
       <c r="P40">
         <v>820684.52</v>
       </c>
       <c r="Q40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R40">
-        <v>44882</v>
+        <v>45389</v>
       </c>
       <c r="S40">
-        <v>38360</v>
+        <v>38939</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D41">
-        <v>79210871461</v>
+        <v>79998330122</v>
       </c>
       <c r="E41" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F41">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
         <v>33</v>
-      </c>
-      <c r="J41" t="s">
-        <v>34</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41">
-        <v>0.044444444444444</v>
+        <v>0.028571428571429</v>
       </c>
       <c r="N41">
         <v>30</v>
@@ -3412,48 +3772,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R41">
-        <v>44883</v>
+        <v>45390</v>
       </c>
       <c r="S41">
-        <v>38355</v>
+        <v>38942</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D42">
-        <v>79622768485</v>
+        <v>79156553882</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F42">
         <v>15000</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s">
         <v>33</v>
-      </c>
-      <c r="J42" t="s">
-        <v>34</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42">
-        <v>0.098181818181818</v>
+        <v>0.043103448275862</v>
       </c>
       <c r="N42">
         <v>30</v>
@@ -3463,201 +3823,201 @@
         <v>820684.52</v>
       </c>
       <c r="Q42" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R42">
-        <v>44884</v>
+        <v>45391</v>
       </c>
       <c r="S42">
-        <v>38364</v>
+        <v>38944</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D43">
-        <v>79105172698</v>
+        <v>79187297696</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F43">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43">
-        <v>0.1025641025641</v>
+        <v>0.14285714285714</v>
       </c>
       <c r="N43">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O43"/>
       <c r="P43">
         <v>820684.52</v>
       </c>
       <c r="Q43" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R43">
-        <v>44885</v>
+        <v>45392</v>
       </c>
       <c r="S43">
-        <v>38363</v>
+        <v>38950</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D44">
-        <v>79686342117</v>
+        <v>79025072541</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F44">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s">
         <v>33</v>
-      </c>
-      <c r="J44" t="s">
-        <v>34</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44">
-        <v>0.35294117647059</v>
+        <v>0.0375</v>
       </c>
       <c r="N44">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O44"/>
       <c r="P44">
         <v>820684.52</v>
       </c>
       <c r="Q44" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R44">
-        <v>44886</v>
+        <v>45393</v>
       </c>
       <c r="S44">
-        <v>38365</v>
+        <v>38903</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D45">
-        <v>79969245296</v>
+        <v>79276383953</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F45">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" t="s">
         <v>33</v>
-      </c>
-      <c r="J45" t="s">
-        <v>49</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45">
-        <v>0.12280701754386</v>
+        <v>0.30769230769231</v>
       </c>
       <c r="N45">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O45"/>
       <c r="P45">
         <v>820684.52</v>
       </c>
       <c r="Q45" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R45">
-        <v>44887</v>
+        <v>45394</v>
       </c>
       <c r="S45">
-        <v>38369</v>
+        <v>35009</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D46">
-        <v>79785434855</v>
+        <v>79171058648</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F46">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
         <v>33</v>
-      </c>
-      <c r="J46" t="s">
-        <v>34</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46">
-        <v>0.1</v>
+        <v>0.035</v>
       </c>
       <c r="N46">
         <v>30</v>
@@ -3667,207 +4027,205 @@
         <v>820684.52</v>
       </c>
       <c r="Q46" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R46">
-        <v>44888</v>
+        <v>45395</v>
       </c>
       <c r="S46">
-        <v>38367</v>
+        <v>38953</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" t="s">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B47"/>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D47">
-        <v>79822481357</v>
+        <v>79141575302</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F47">
-        <v>8890.0</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47"/>
+        <v>32</v>
+      </c>
+      <c r="J47" t="s">
+        <v>57</v>
+      </c>
       <c r="K47"/>
-      <c r="L47" t="s">
-        <v>188</v>
-      </c>
+      <c r="L47"/>
       <c r="M47">
-        <v>0.26881720430108</v>
+        <v>0.2</v>
       </c>
       <c r="N47">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="O47"/>
       <c r="P47">
         <v>820684.52</v>
       </c>
       <c r="Q47" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R47">
-        <v>44889</v>
+        <v>45396</v>
       </c>
       <c r="S47">
-        <v>35706</v>
+        <v>38943</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B48"/>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D48">
-        <v>79120886999</v>
+        <v>79526441072</v>
       </c>
       <c r="E48" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F48">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48">
-        <v>0.15714285714286</v>
+        <v>0.074074074074074</v>
       </c>
       <c r="N48">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O48"/>
       <c r="P48">
         <v>820684.52</v>
       </c>
       <c r="Q48" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R48">
-        <v>44890</v>
+        <v>45397</v>
       </c>
       <c r="S48">
-        <v>38371</v>
+        <v>27228</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B49"/>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D49">
-        <v>79934991207</v>
+        <v>79531066817</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F49">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J49" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49">
-        <v>0.25423728813559</v>
+        <v>0.028571428571429</v>
       </c>
       <c r="N49">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O49"/>
       <c r="P49">
         <v>820684.52</v>
       </c>
       <c r="Q49" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R49">
-        <v>44891</v>
+        <v>45398</v>
       </c>
       <c r="S49">
-        <v>38376</v>
+        <v>38951</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D50">
-        <v>79048368514</v>
+        <v>79180548214</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F50">
-        <v>15990.0</v>
+        <v>8890.0</v>
       </c>
       <c r="G50" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="L50" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>0.22222222222222</v>
       </c>
       <c r="N50">
         <v>30</v>
@@ -3877,48 +4235,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q50" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="R50">
-        <v>44892</v>
+        <v>45399</v>
       </c>
       <c r="S50">
-        <v>17845</v>
+        <v>36984</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B51"/>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D51">
-        <v>79828869582</v>
+        <v>79520707065</v>
       </c>
       <c r="E51" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F51">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51">
-        <v>0.125</v>
+        <v>0.042857142857143</v>
       </c>
       <c r="N51">
         <v>30</v>
@@ -3928,99 +4286,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q51" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R51">
-        <v>44893</v>
+        <v>45400</v>
       </c>
       <c r="S51">
-        <v>38377</v>
+        <v>38957</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B52"/>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D52">
-        <v>79045243905</v>
+        <v>79227762937</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F52">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" t="s">
         <v>33</v>
-      </c>
-      <c r="J52" t="s">
-        <v>34</v>
       </c>
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52">
-        <v>0.10769230769231</v>
+        <v>0.26666666666667</v>
       </c>
       <c r="N52">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O52"/>
       <c r="P52">
         <v>820684.52</v>
       </c>
       <c r="Q52" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R52">
-        <v>44894</v>
+        <v>45401</v>
       </c>
       <c r="S52">
-        <v>38375</v>
+        <v>38960</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B53"/>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D53">
-        <v>79521424990</v>
+        <v>79049904535</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F53">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53">
-        <v>0.073170731707317</v>
+        <v>0.12727272727273</v>
       </c>
       <c r="N53">
         <v>14</v>
@@ -4030,48 +4388,46 @@
         <v>820684.52</v>
       </c>
       <c r="Q53" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R53">
-        <v>44895</v>
+        <v>45402</v>
       </c>
       <c r="S53">
-        <v>34038</v>
+        <v>38959</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" t="s">
-        <v>211</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B54"/>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D54">
-        <v>79150834152</v>
+        <v>79859446090</v>
       </c>
       <c r="E54" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F54">
-        <v>5890.0</v>
+        <v>15000</v>
       </c>
       <c r="G54" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54"/>
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
+        <v>67</v>
+      </c>
       <c r="K54"/>
-      <c r="L54" t="s">
-        <v>214</v>
-      </c>
+      <c r="L54"/>
       <c r="M54">
         <v>0</v>
       </c>
@@ -4083,150 +4439,150 @@
         <v>820684.52</v>
       </c>
       <c r="Q54" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="R54">
-        <v>44896</v>
+        <v>45403</v>
       </c>
       <c r="S54">
-        <v>24063</v>
+        <v>15305</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B55"/>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D55">
-        <v>79501205820</v>
+        <v>79092964298</v>
       </c>
       <c r="E55" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="F55">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" t="s">
         <v>33</v>
-      </c>
-      <c r="J55" t="s">
-        <v>99</v>
       </c>
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55">
-        <v>0</v>
+        <v>0.078125</v>
       </c>
       <c r="N55">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O55"/>
       <c r="P55">
         <v>820684.52</v>
       </c>
       <c r="Q55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R55">
-        <v>44897</v>
+        <v>45404</v>
       </c>
       <c r="S55">
-        <v>13021</v>
+        <v>38958</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B56"/>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D56">
-        <v>79156218935</v>
+        <v>79287044210</v>
       </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F56">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J56" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56">
-        <v>0.16</v>
+        <v>0.16666666666667</v>
       </c>
       <c r="N56">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O56"/>
       <c r="P56">
         <v>820684.52</v>
       </c>
       <c r="Q56" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R56">
-        <v>44898</v>
+        <v>45405</v>
       </c>
       <c r="S56">
-        <v>38380</v>
+        <v>38961</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B57"/>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D57">
-        <v>79996091044</v>
+        <v>79500032842</v>
       </c>
       <c r="E57" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="F57">
         <v>7000</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J57" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57">
-        <v>0.10204081632653</v>
+        <v>0.066666666666667</v>
       </c>
       <c r="N57">
         <v>30</v>
@@ -4236,101 +4592,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q57" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R57">
-        <v>44899</v>
+        <v>45406</v>
       </c>
       <c r="S57">
-        <v>38374</v>
+        <v>38964</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B58"/>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D58">
-        <v>79610060018</v>
+        <v>79512748549</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="F58">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J58" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58">
-        <v>0.074626865671642</v>
+        <v>0.125</v>
       </c>
       <c r="N58">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O58"/>
       <c r="P58">
         <v>820684.52</v>
       </c>
       <c r="Q58" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R58">
-        <v>44900</v>
+        <v>45407</v>
       </c>
       <c r="S58">
-        <v>38381</v>
+        <v>38278</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>227</v>
-      </c>
-      <c r="B59" t="s">
-        <v>228</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B59"/>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D59">
-        <v>79159719010</v>
+        <v>79652281171</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F59">
-        <v>7890.0</v>
+        <v>15000</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59"/>
+        <v>32</v>
+      </c>
+      <c r="J59" t="s">
+        <v>67</v>
+      </c>
       <c r="K59"/>
-      <c r="L59" t="s">
-        <v>231</v>
-      </c>
+      <c r="L59"/>
       <c r="M59">
-        <v>0.29545454545455</v>
+        <v>0.050505050505051</v>
       </c>
       <c r="N59">
         <v>30</v>
@@ -4340,568 +4694,558 @@
         <v>820684.52</v>
       </c>
       <c r="Q59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R59">
-        <v>44901</v>
+        <v>45408</v>
       </c>
       <c r="S59">
-        <v>33301</v>
+        <v>38781</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>232</v>
-      </c>
-      <c r="B60" t="s">
-        <v>233</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B60"/>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D60">
-        <v>79207498797</v>
+        <v>79528860026</v>
       </c>
       <c r="E60" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="F60">
-        <v>4590.0</v>
+        <v>15000</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
-      </c>
-      <c r="J60"/>
-      <c r="K60" t="s">
-        <v>236</v>
-      </c>
-      <c r="L60" t="s">
-        <v>237</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J60" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60"/>
       <c r="M60">
-        <v>0</v>
+        <v>0.34883720930233</v>
       </c>
       <c r="N60">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="O60"/>
       <c r="P60">
         <v>820684.52</v>
       </c>
       <c r="Q60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R60">
-        <v>44902</v>
+        <v>45409</v>
       </c>
       <c r="S60">
-        <v>14472</v>
+        <v>38940</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D61">
-        <v>79115108458</v>
+        <v>79964923483</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F61">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61">
-        <v>0.24193548387097</v>
+        <v>0.28888888888889</v>
       </c>
       <c r="N61">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="O61"/>
       <c r="P61">
         <v>820684.52</v>
       </c>
       <c r="Q61" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R61">
-        <v>44903</v>
+        <v>45410</v>
       </c>
       <c r="S61">
-        <v>25929</v>
+        <v>38966</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B62"/>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D62">
-        <v>79205049498</v>
+        <v>79198204462</v>
       </c>
       <c r="E62" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="F62">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
-      </c>
-      <c r="K62" t="s">
-        <v>236</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="K62"/>
       <c r="L62"/>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O62"/>
       <c r="P62">
         <v>820684.52</v>
       </c>
       <c r="Q62" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R62">
-        <v>44904</v>
+        <v>45411</v>
       </c>
       <c r="S62">
-        <v>15988</v>
+        <v>14024</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B63"/>
       <c r="C63" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D63">
-        <v>79130305528</v>
+        <v>79082500678</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="F63">
         <v>15000</v>
       </c>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J63" t="s">
-        <v>34</v>
-      </c>
-      <c r="K63" t="s">
-        <v>236</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="K63"/>
       <c r="L63"/>
       <c r="M63">
-        <v>0</v>
+        <v>0.096428571428571</v>
       </c>
       <c r="N63">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O63"/>
       <c r="P63">
         <v>820684.52</v>
       </c>
       <c r="Q63" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R63">
-        <v>44905</v>
+        <v>45412</v>
       </c>
       <c r="S63">
-        <v>13248</v>
+        <v>38969</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D64">
-        <v>79089951551</v>
+        <v>79085725121</v>
       </c>
       <c r="E64" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="F64">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
-      </c>
-      <c r="K64" t="s">
-        <v>236</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="K64"/>
       <c r="L64"/>
       <c r="M64">
-        <v>0</v>
+        <v>0.035294117647059</v>
       </c>
       <c r="N64">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O64"/>
       <c r="P64">
         <v>820684.52</v>
       </c>
       <c r="Q64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R64">
-        <v>44906</v>
+        <v>45413</v>
       </c>
       <c r="S64">
-        <v>22866</v>
+        <v>38967</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B65"/>
       <c r="C65" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="D65">
-        <v>79132821566</v>
+        <v>79968238990</v>
       </c>
       <c r="E65" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="F65">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65">
-        <v>0.090909090909091</v>
+        <v>0.035294117647059</v>
       </c>
       <c r="N65">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O65"/>
       <c r="P65">
         <v>820684.52</v>
       </c>
       <c r="Q65" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R65">
-        <v>44907</v>
+        <v>45414</v>
       </c>
       <c r="S65">
-        <v>38382</v>
+        <v>38948</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B66"/>
       <c r="C66" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="D66">
-        <v>79267126986</v>
+        <v>79021331713</v>
       </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="F66">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" t="s">
         <v>33</v>
-      </c>
-      <c r="J66" t="s">
-        <v>34</v>
       </c>
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66">
-        <v>0.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O66"/>
       <c r="P66">
         <v>820684.52</v>
       </c>
       <c r="Q66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R66">
-        <v>44908</v>
+        <v>45415</v>
       </c>
       <c r="S66">
-        <v>38383</v>
+        <v>17145</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B67"/>
       <c r="C67" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D67">
-        <v>79635896929</v>
+        <v>79182929385</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F67">
         <v>7000</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67">
-        <v>0.066666666666667</v>
+        <v>0.0093333333333333</v>
       </c>
       <c r="N67">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="O67"/>
       <c r="P67">
         <v>820684.52</v>
       </c>
       <c r="Q67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R67">
-        <v>44909</v>
+        <v>45416</v>
       </c>
       <c r="S67">
-        <v>38315</v>
+        <v>38970</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="D68">
-        <v>79000205100</v>
+        <v>79035648277</v>
       </c>
       <c r="E68" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="F68">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" t="s">
         <v>33</v>
-      </c>
-      <c r="J68" t="s">
-        <v>34</v>
       </c>
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68">
-        <v>0.27142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="N68">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O68"/>
       <c r="P68">
         <v>820684.52</v>
       </c>
       <c r="Q68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R68">
-        <v>44910</v>
+        <v>45417</v>
       </c>
       <c r="S68">
-        <v>38385</v>
+        <v>38968</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B69"/>
       <c r="C69" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D69">
-        <v>79518750475</v>
+        <v>79530117020</v>
       </c>
       <c r="E69" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="F69">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J69" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69">
-        <v>0.17647058823529</v>
+        <v>0.085714285714286</v>
       </c>
       <c r="N69">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O69"/>
       <c r="P69">
         <v>820684.52</v>
       </c>
       <c r="Q69" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R69">
-        <v>44911</v>
+        <v>45418</v>
       </c>
       <c r="S69">
-        <v>38384</v>
+        <v>38973</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B70"/>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D70">
-        <v>79531213745</v>
+        <v>79507498261</v>
       </c>
       <c r="E70" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="F70">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I70" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" t="s">
         <v>33</v>
-      </c>
-      <c r="J70" t="s">
-        <v>34</v>
       </c>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70">
-        <v>0.026666666666667</v>
+        <v>0.0875</v>
       </c>
       <c r="N70">
         <v>30</v>
@@ -4911,48 +5255,48 @@
         <v>820684.52</v>
       </c>
       <c r="Q70" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R70">
-        <v>44912</v>
+        <v>45419</v>
       </c>
       <c r="S70">
-        <v>38386</v>
+        <v>38962</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B71"/>
       <c r="C71" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D71">
-        <v>79051175361</v>
+        <v>79998402390</v>
       </c>
       <c r="E71" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="F71">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="G71" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J71" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71">
-        <v>0</v>
+        <v>0.25925925925926</v>
       </c>
       <c r="N71">
         <v>14</v>
@@ -4962,156 +5306,150 @@
         <v>820684.52</v>
       </c>
       <c r="Q71" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R71">
-        <v>44914</v>
+        <v>45420</v>
       </c>
       <c r="S71">
-        <v>17566</v>
+        <v>38974</v>
       </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B72"/>
       <c r="C72" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="D72">
-        <v>79094072919</v>
+        <v>79686076659</v>
       </c>
       <c r="E72" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="F72">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J72" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72">
-        <v>0.8</v>
+        <v>0.093333333333333</v>
       </c>
       <c r="N72">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O72"/>
       <c r="P72">
         <v>820684.52</v>
       </c>
       <c r="Q72" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R72">
-        <v>44915</v>
+        <v>45421</v>
       </c>
       <c r="S72">
-        <v>38388</v>
+        <v>38977</v>
       </c>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" t="s">
-        <v>274</v>
-      </c>
-      <c r="B73" t="s">
-        <v>275</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B73"/>
       <c r="C73" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="D73">
-        <v>79004913686</v>
+        <v>79934010936</v>
       </c>
       <c r="E73" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="F73">
-        <v>3590.0</v>
+        <v>7000</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73"/>
-      <c r="K73" t="s">
-        <v>236</v>
-      </c>
-      <c r="L73" t="s">
-        <v>278</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J73" t="s">
+        <v>33</v>
+      </c>
+      <c r="K73"/>
+      <c r="L73"/>
       <c r="M73">
-        <v>0.13888888888889</v>
+        <v>0.26041666666667</v>
       </c>
       <c r="N73">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O73"/>
       <c r="P73">
         <v>820684.52</v>
       </c>
       <c r="Q73" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R73">
-        <v>44916</v>
+        <v>45422</v>
       </c>
       <c r="S73">
-        <v>26221</v>
+        <v>38978</v>
       </c>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" t="s">
-        <v>279</v>
-      </c>
-      <c r="B74" t="s">
-        <v>280</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B74"/>
       <c r="C74" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D74">
-        <v>79829759172</v>
+        <v>79245401036</v>
       </c>
       <c r="E74" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="F74">
-        <v>7890.0</v>
+        <v>3000</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74"/>
+        <v>32</v>
+      </c>
+      <c r="J74" t="s">
+        <v>33</v>
+      </c>
       <c r="K74"/>
-      <c r="L74" t="s">
-        <v>283</v>
-      </c>
+      <c r="L74"/>
       <c r="M74">
-        <v>0.16666666666667</v>
+        <v>0.044117647058824</v>
       </c>
       <c r="N74">
         <v>30</v>
@@ -5121,154 +5459,150 @@
         <v>820684.52</v>
       </c>
       <c r="Q74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R74">
-        <v>44917</v>
+        <v>45423</v>
       </c>
       <c r="S74">
-        <v>34216</v>
+        <v>38979</v>
       </c>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B75"/>
       <c r="C75" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="D75">
-        <v>79268444172</v>
+        <v>79507557162</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="F75">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="G75" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
-      </c>
-      <c r="K75" t="s">
-        <v>236</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="K75"/>
       <c r="L75"/>
       <c r="M75">
-        <v>0</v>
+        <v>0.023529411764706</v>
       </c>
       <c r="N75">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O75"/>
       <c r="P75">
         <v>820684.52</v>
       </c>
       <c r="Q75" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R75">
-        <v>44918</v>
+        <v>45424</v>
       </c>
       <c r="S75">
-        <v>15379</v>
+        <v>38980</v>
       </c>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="D76">
-        <v>79533078701</v>
+        <v>79069209022</v>
       </c>
       <c r="E76" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="F76">
         <v>7000</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I76" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" t="s">
         <v>33</v>
-      </c>
-      <c r="J76" t="s">
-        <v>34</v>
       </c>
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76">
-        <v>0.2</v>
+        <v>0.38461538461538</v>
       </c>
       <c r="N76">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O76"/>
       <c r="P76">
         <v>820684.52</v>
       </c>
       <c r="Q76" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R76">
-        <v>44919</v>
+        <v>45425</v>
       </c>
       <c r="S76">
-        <v>38390</v>
+        <v>38976</v>
       </c>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" t="s">
-        <v>290</v>
-      </c>
-      <c r="B77" t="s">
-        <v>291</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B77"/>
       <c r="C77" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D77">
-        <v>79167896607</v>
+        <v>79086381604</v>
       </c>
       <c r="E77" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="F77">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="G77" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
-      </c>
-      <c r="J77"/>
-      <c r="K77" t="s">
-        <v>236</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J77" t="s">
+        <v>67</v>
+      </c>
+      <c r="K77"/>
       <c r="L77"/>
       <c r="M77">
-        <v>0.046153846153846</v>
+        <v>0.046511627906977</v>
       </c>
       <c r="N77">
         <v>30</v>
@@ -5278,101 +5612,99 @@
         <v>820684.52</v>
       </c>
       <c r="Q77" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="R77">
-        <v>44920</v>
+        <v>45426</v>
       </c>
       <c r="S77">
-        <v>25152</v>
+        <v>26226</v>
       </c>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="B78"/>
       <c r="C78" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="D78">
-        <v>79094195038</v>
+        <v>79776556678</v>
       </c>
       <c r="E78" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="F78">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="G78" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J78" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N78">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O78"/>
       <c r="P78">
         <v>820684.52</v>
       </c>
       <c r="Q78" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R78">
-        <v>44921</v>
+        <v>45427</v>
       </c>
       <c r="S78">
-        <v>14311</v>
+        <v>38236</v>
       </c>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="B79"/>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="D79">
-        <v>79125670500</v>
+        <v>79197467274</v>
       </c>
       <c r="E79" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="F79">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="G79" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s">
         <v>33</v>
       </c>
-      <c r="J79" t="s">
-        <v>99</v>
-      </c>
-      <c r="K79" t="s">
-        <v>236</v>
-      </c>
+      <c r="K79"/>
       <c r="L79"/>
       <c r="M79">
-        <v>0.2</v>
+        <v>0.55</v>
       </c>
       <c r="N79">
         <v>14</v>
@@ -5382,166 +5714,2669 @@
         <v>820684.52</v>
       </c>
       <c r="Q79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R79">
-        <v>44922</v>
+        <v>45428</v>
       </c>
       <c r="S79">
-        <v>26290</v>
+        <v>38987</v>
       </c>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="B80"/>
       <c r="C80" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D80">
-        <v>79815059280</v>
+        <v>79194712475</v>
       </c>
       <c r="E80" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="F80">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" t="s">
         <v>33</v>
-      </c>
-      <c r="J80" t="s">
-        <v>99</v>
       </c>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80">
-        <v>0.37037037037037</v>
+        <v>0.10714285714286</v>
       </c>
       <c r="N80">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O80"/>
       <c r="P80">
         <v>820684.52</v>
       </c>
       <c r="Q80" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="R80">
-        <v>44923</v>
+        <v>45429</v>
       </c>
       <c r="S80">
-        <v>38394</v>
+        <v>38990</v>
       </c>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="B81"/>
       <c r="C81" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="D81">
-        <v>79778021596</v>
+        <v>79268805235</v>
       </c>
       <c r="E81" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="F81">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J81" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81">
-        <v>0.087719298245614</v>
+        <v>0.16666666666667</v>
       </c>
       <c r="N81">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O81"/>
       <c r="P81">
         <v>820684.52</v>
       </c>
       <c r="Q81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R81">
-        <v>44924</v>
+        <v>45430</v>
       </c>
       <c r="S81">
-        <v>38395</v>
+        <v>38991</v>
       </c>
     </row>
     <row r="82" spans="1:19">
       <c r="A82" t="s">
-        <v>306</v>
-      </c>
-      <c r="B82"/>
+        <v>278</v>
+      </c>
+      <c r="B82" t="s">
+        <v>279</v>
+      </c>
       <c r="C82" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="D82">
-        <v>79260276171</v>
+        <v>79089319070</v>
       </c>
       <c r="E82" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="F82">
-        <v>15000</v>
+        <v>7890.0</v>
       </c>
       <c r="G82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I82" t="s">
-        <v>33</v>
-      </c>
-      <c r="J82" t="s">
-        <v>34</v>
-      </c>
-      <c r="K82"/>
-      <c r="L82"/>
+        <v>25</v>
+      </c>
+      <c r="J82"/>
+      <c r="K82" t="s">
+        <v>183</v>
+      </c>
+      <c r="L82" t="s">
+        <v>282</v>
+      </c>
       <c r="M82">
-        <v>0.37837837837838</v>
+        <v>0.1</v>
       </c>
       <c r="N82">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="O82"/>
       <c r="P82">
         <v>820684.52</v>
       </c>
       <c r="Q82" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R82">
-        <v>44925</v>
+        <v>45431</v>
       </c>
       <c r="S82">
-        <v>38396</v>
+        <v>36206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" t="s">
+        <v>283</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83" t="s">
+        <v>284</v>
+      </c>
+      <c r="D83">
+        <v>79658367001</v>
+      </c>
+      <c r="E83" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83">
+        <v>8000</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83" t="s">
+        <v>57</v>
+      </c>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83">
+        <v>0.17777777777778</v>
+      </c>
+      <c r="N83">
+        <v>29</v>
+      </c>
+      <c r="O83"/>
+      <c r="P83">
+        <v>820684.52</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>34</v>
+      </c>
+      <c r="R83">
+        <v>45432</v>
+      </c>
+      <c r="S83">
+        <v>38992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" t="s">
+        <v>286</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84">
+        <v>79967802618</v>
+      </c>
+      <c r="E84" t="s">
+        <v>288</v>
+      </c>
+      <c r="F84">
+        <v>13000</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" t="s">
+        <v>33</v>
+      </c>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84">
+        <v>0.17647058823529</v>
+      </c>
+      <c r="N84">
+        <v>22</v>
+      </c>
+      <c r="O84"/>
+      <c r="P84">
+        <v>820684.52</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>34</v>
+      </c>
+      <c r="R84">
+        <v>45433</v>
+      </c>
+      <c r="S84">
+        <v>38995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" t="s">
+        <v>289</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85" t="s">
+        <v>290</v>
+      </c>
+      <c r="D85">
+        <v>79237725925</v>
+      </c>
+      <c r="E85" t="s">
+        <v>291</v>
+      </c>
+      <c r="F85">
+        <v>2000</v>
+      </c>
+      <c r="G85" t="s">
+        <v>43</v>
+      </c>
+      <c r="H85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85" t="s">
+        <v>33</v>
+      </c>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>30</v>
+      </c>
+      <c r="O85"/>
+      <c r="P85">
+        <v>820684.52</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>47</v>
+      </c>
+      <c r="R85">
+        <v>45434</v>
+      </c>
+      <c r="S85">
+        <v>21149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" t="s">
+        <v>292</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86" t="s">
+        <v>293</v>
+      </c>
+      <c r="D86">
+        <v>79807465152</v>
+      </c>
+      <c r="E86" t="s">
+        <v>294</v>
+      </c>
+      <c r="F86">
+        <v>2000</v>
+      </c>
+      <c r="G86" t="s">
+        <v>43</v>
+      </c>
+      <c r="H86" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86">
+        <v>0.15384615384615</v>
+      </c>
+      <c r="N86">
+        <v>14</v>
+      </c>
+      <c r="O86"/>
+      <c r="P86">
+        <v>820684.52</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>47</v>
+      </c>
+      <c r="R86">
+        <v>45435</v>
+      </c>
+      <c r="S86">
+        <v>28745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" t="s">
+        <v>295</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87" t="s">
+        <v>296</v>
+      </c>
+      <c r="D87">
+        <v>79623096834</v>
+      </c>
+      <c r="E87" t="s">
+        <v>297</v>
+      </c>
+      <c r="F87">
+        <v>4000</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" t="s">
+        <v>32</v>
+      </c>
+      <c r="J87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87">
+        <v>0.085714285714286</v>
+      </c>
+      <c r="N87">
+        <v>30</v>
+      </c>
+      <c r="O87"/>
+      <c r="P87">
+        <v>820684.52</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>47</v>
+      </c>
+      <c r="R87">
+        <v>45436</v>
+      </c>
+      <c r="S87">
+        <v>38997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" t="s">
+        <v>298</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88">
+        <v>79156781520</v>
+      </c>
+      <c r="E88" t="s">
+        <v>300</v>
+      </c>
+      <c r="F88">
+        <v>4000</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88" t="s">
+        <v>57</v>
+      </c>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88">
+        <v>0.21428571428571</v>
+      </c>
+      <c r="N88">
+        <v>30</v>
+      </c>
+      <c r="O88"/>
+      <c r="P88">
+        <v>820684.52</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>34</v>
+      </c>
+      <c r="R88">
+        <v>45437</v>
+      </c>
+      <c r="S88">
+        <v>39002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89" t="s">
+        <v>302</v>
+      </c>
+      <c r="D89">
+        <v>79777703255</v>
+      </c>
+      <c r="E89" t="s">
+        <v>303</v>
+      </c>
+      <c r="F89">
+        <v>6000</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89" t="s">
+        <v>33</v>
+      </c>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89">
+        <v>0.125</v>
+      </c>
+      <c r="N89">
+        <v>26</v>
+      </c>
+      <c r="O89"/>
+      <c r="P89">
+        <v>820684.52</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>47</v>
+      </c>
+      <c r="R89">
+        <v>45438</v>
+      </c>
+      <c r="S89">
+        <v>39003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" t="s">
+        <v>304</v>
+      </c>
+      <c r="B90"/>
+      <c r="C90" t="s">
+        <v>305</v>
+      </c>
+      <c r="D90">
+        <v>79009707681</v>
+      </c>
+      <c r="E90" t="s">
+        <v>306</v>
+      </c>
+      <c r="F90">
+        <v>11000</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90" t="s">
+        <v>67</v>
+      </c>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90">
+        <v>0.0003448275862069</v>
+      </c>
+      <c r="N90">
+        <v>30</v>
+      </c>
+      <c r="O90"/>
+      <c r="P90">
+        <v>820684.52</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>47</v>
+      </c>
+      <c r="R90">
+        <v>45440</v>
+      </c>
+      <c r="S90">
+        <v>39007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" t="s">
+        <v>307</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91" t="s">
+        <v>308</v>
+      </c>
+      <c r="D91">
+        <v>79538810835</v>
+      </c>
+      <c r="E91" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91">
+        <v>10000</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" t="s">
+        <v>33</v>
+      </c>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91">
+        <v>0.0011428571428571</v>
+      </c>
+      <c r="N91">
+        <v>30</v>
+      </c>
+      <c r="O91"/>
+      <c r="P91">
+        <v>820684.52</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>47</v>
+      </c>
+      <c r="R91">
+        <v>45441</v>
+      </c>
+      <c r="S91">
+        <v>39009</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" t="s">
+        <v>310</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92">
+        <v>79033155739</v>
+      </c>
+      <c r="E92" t="s">
+        <v>312</v>
+      </c>
+      <c r="F92">
+        <v>7000</v>
+      </c>
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J92" t="s">
+        <v>33</v>
+      </c>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92">
+        <v>0.021052631578947</v>
+      </c>
+      <c r="N92">
+        <v>14</v>
+      </c>
+      <c r="O92"/>
+      <c r="P92">
+        <v>820684.52</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>47</v>
+      </c>
+      <c r="R92">
+        <v>45442</v>
+      </c>
+      <c r="S92">
+        <v>39010</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93"/>
+      <c r="C93" t="s">
+        <v>314</v>
+      </c>
+      <c r="D93">
+        <v>79040236293</v>
+      </c>
+      <c r="E93" t="s">
+        <v>315</v>
+      </c>
+      <c r="F93">
+        <v>7000</v>
+      </c>
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" t="s">
+        <v>67</v>
+      </c>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93">
+        <v>0.094117647058824</v>
+      </c>
+      <c r="N93">
+        <v>14</v>
+      </c>
+      <c r="O93"/>
+      <c r="P93">
+        <v>820684.52</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>47</v>
+      </c>
+      <c r="R93">
+        <v>45443</v>
+      </c>
+      <c r="S93">
+        <v>36994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" t="s">
+        <v>316</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94" t="s">
+        <v>317</v>
+      </c>
+      <c r="D94">
+        <v>79192310308</v>
+      </c>
+      <c r="E94" t="s">
+        <v>318</v>
+      </c>
+      <c r="F94">
+        <v>9000</v>
+      </c>
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" t="s">
+        <v>32</v>
+      </c>
+      <c r="J94" t="s">
+        <v>57</v>
+      </c>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94">
+        <v>0.36</v>
+      </c>
+      <c r="N94">
+        <v>21</v>
+      </c>
+      <c r="O94"/>
+      <c r="P94">
+        <v>820684.52</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>34</v>
+      </c>
+      <c r="R94">
+        <v>45444</v>
+      </c>
+      <c r="S94">
+        <v>39011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" t="s">
+        <v>319</v>
+      </c>
+      <c r="B95"/>
+      <c r="C95" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95">
+        <v>79532998724</v>
+      </c>
+      <c r="E95" t="s">
+        <v>321</v>
+      </c>
+      <c r="F95">
+        <v>15000</v>
+      </c>
+      <c r="G95" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" t="s">
+        <v>32</v>
+      </c>
+      <c r="J95" t="s">
+        <v>57</v>
+      </c>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95">
+        <v>0.4</v>
+      </c>
+      <c r="N95">
+        <v>30</v>
+      </c>
+      <c r="O95"/>
+      <c r="P95">
+        <v>820684.52</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>34</v>
+      </c>
+      <c r="R95">
+        <v>45445</v>
+      </c>
+      <c r="S95">
+        <v>39012</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" t="s">
+        <v>322</v>
+      </c>
+      <c r="B96"/>
+      <c r="C96" t="s">
+        <v>323</v>
+      </c>
+      <c r="D96">
+        <v>79529650374</v>
+      </c>
+      <c r="E96" t="s">
+        <v>324</v>
+      </c>
+      <c r="F96">
+        <v>14000</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" t="s">
+        <v>32</v>
+      </c>
+      <c r="J96" t="s">
+        <v>57</v>
+      </c>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96">
+        <v>0.34883720930233</v>
+      </c>
+      <c r="N96">
+        <v>18</v>
+      </c>
+      <c r="O96"/>
+      <c r="P96">
+        <v>820684.52</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>34</v>
+      </c>
+      <c r="R96">
+        <v>45446</v>
+      </c>
+      <c r="S96">
+        <v>39013</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97"/>
+      <c r="C97" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97">
+        <v>79094286384</v>
+      </c>
+      <c r="E97" t="s">
+        <v>327</v>
+      </c>
+      <c r="F97">
+        <v>5000</v>
+      </c>
+      <c r="G97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" t="s">
+        <v>32</v>
+      </c>
+      <c r="J97" t="s">
+        <v>33</v>
+      </c>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97">
+        <v>0.14285714285714</v>
+      </c>
+      <c r="N97">
+        <v>30</v>
+      </c>
+      <c r="O97"/>
+      <c r="P97">
+        <v>820684.52</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>34</v>
+      </c>
+      <c r="R97">
+        <v>45447</v>
+      </c>
+      <c r="S97">
+        <v>38712</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98"/>
+      <c r="C98" t="s">
+        <v>329</v>
+      </c>
+      <c r="D98">
+        <v>79304109930</v>
+      </c>
+      <c r="E98" t="s">
+        <v>330</v>
+      </c>
+      <c r="F98">
+        <v>11000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>43</v>
+      </c>
+      <c r="H98" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98" t="s">
+        <v>33</v>
+      </c>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>30</v>
+      </c>
+      <c r="O98"/>
+      <c r="P98">
+        <v>820684.52</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>27</v>
+      </c>
+      <c r="R98">
+        <v>45448</v>
+      </c>
+      <c r="S98">
+        <v>23255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" t="s">
+        <v>331</v>
+      </c>
+      <c r="B99"/>
+      <c r="C99" t="s">
+        <v>332</v>
+      </c>
+      <c r="D99">
+        <v>79159730286</v>
+      </c>
+      <c r="E99" t="s">
+        <v>333</v>
+      </c>
+      <c r="F99">
+        <v>4000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" t="s">
+        <v>32</v>
+      </c>
+      <c r="J99" t="s">
+        <v>33</v>
+      </c>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99">
+        <v>0.21971428571429</v>
+      </c>
+      <c r="N99">
+        <v>30</v>
+      </c>
+      <c r="O99"/>
+      <c r="P99">
+        <v>820684.52</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>34</v>
+      </c>
+      <c r="R99">
+        <v>45449</v>
+      </c>
+      <c r="S99">
+        <v>39005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" t="s">
+        <v>334</v>
+      </c>
+      <c r="B100"/>
+      <c r="C100" t="s">
+        <v>335</v>
+      </c>
+      <c r="D100">
+        <v>79611243670</v>
+      </c>
+      <c r="E100" t="s">
+        <v>336</v>
+      </c>
+      <c r="F100">
+        <v>7000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" t="s">
+        <v>32</v>
+      </c>
+      <c r="J100" t="s">
+        <v>57</v>
+      </c>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100">
+        <v>0.28</v>
+      </c>
+      <c r="N100">
+        <v>14</v>
+      </c>
+      <c r="O100"/>
+      <c r="P100">
+        <v>820684.52</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>34</v>
+      </c>
+      <c r="R100">
+        <v>45450</v>
+      </c>
+      <c r="S100">
+        <v>39014</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" t="s">
+        <v>337</v>
+      </c>
+      <c r="B101"/>
+      <c r="C101" t="s">
+        <v>338</v>
+      </c>
+      <c r="D101">
+        <v>79112237629</v>
+      </c>
+      <c r="E101" t="s">
+        <v>339</v>
+      </c>
+      <c r="F101">
+        <v>15000</v>
+      </c>
+      <c r="G101" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" t="s">
+        <v>32</v>
+      </c>
+      <c r="J101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101">
+        <v>0.475</v>
+      </c>
+      <c r="N101">
+        <v>30</v>
+      </c>
+      <c r="O101"/>
+      <c r="P101">
+        <v>820684.52</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>47</v>
+      </c>
+      <c r="R101">
+        <v>45451</v>
+      </c>
+      <c r="S101">
+        <v>39017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" t="s">
+        <v>340</v>
+      </c>
+      <c r="B102"/>
+      <c r="C102" t="s">
+        <v>341</v>
+      </c>
+      <c r="D102">
+        <v>79202449966</v>
+      </c>
+      <c r="E102" t="s">
+        <v>342</v>
+      </c>
+      <c r="F102">
+        <v>15000</v>
+      </c>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102" t="s">
+        <v>32</v>
+      </c>
+      <c r="J102" t="s">
+        <v>57</v>
+      </c>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102">
+        <v>0.18367346938776</v>
+      </c>
+      <c r="N102">
+        <v>30</v>
+      </c>
+      <c r="O102"/>
+      <c r="P102">
+        <v>820684.52</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>34</v>
+      </c>
+      <c r="R102">
+        <v>45452</v>
+      </c>
+      <c r="S102">
+        <v>35220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" t="s">
+        <v>343</v>
+      </c>
+      <c r="B103" t="s">
+        <v>344</v>
+      </c>
+      <c r="C103" t="s">
+        <v>345</v>
+      </c>
+      <c r="D103">
+        <v>79822230427</v>
+      </c>
+      <c r="E103" t="s">
+        <v>346</v>
+      </c>
+      <c r="F103">
+        <v>9990.0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" t="s">
+        <v>25</v>
+      </c>
+      <c r="J103"/>
+      <c r="K103" t="s">
+        <v>347</v>
+      </c>
+      <c r="L103" t="s">
+        <v>348</v>
+      </c>
+      <c r="M103">
+        <v>0.395</v>
+      </c>
+      <c r="N103">
+        <v>30</v>
+      </c>
+      <c r="O103"/>
+      <c r="P103">
+        <v>820684.52</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>27</v>
+      </c>
+      <c r="R103">
+        <v>45453</v>
+      </c>
+      <c r="S103">
+        <v>34756</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" t="s">
+        <v>349</v>
+      </c>
+      <c r="B104"/>
+      <c r="C104" t="s">
+        <v>350</v>
+      </c>
+      <c r="D104">
+        <v>79195363611</v>
+      </c>
+      <c r="E104" t="s">
+        <v>351</v>
+      </c>
+      <c r="F104">
+        <v>15000</v>
+      </c>
+      <c r="G104" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104" t="s">
+        <v>67</v>
+      </c>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104">
+        <v>0.034722222222222</v>
+      </c>
+      <c r="N104">
+        <v>14</v>
+      </c>
+      <c r="O104"/>
+      <c r="P104">
+        <v>820684.52</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>47</v>
+      </c>
+      <c r="R104">
+        <v>45454</v>
+      </c>
+      <c r="S104">
+        <v>39018</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105"/>
+      <c r="C105" t="s">
+        <v>353</v>
+      </c>
+      <c r="D105">
+        <v>79177634538</v>
+      </c>
+      <c r="E105" t="s">
+        <v>354</v>
+      </c>
+      <c r="F105">
+        <v>7000</v>
+      </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105" t="s">
+        <v>32</v>
+      </c>
+      <c r="J105" t="s">
+        <v>67</v>
+      </c>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105">
+        <v>0.125</v>
+      </c>
+      <c r="N105">
+        <v>14</v>
+      </c>
+      <c r="O105"/>
+      <c r="P105">
+        <v>820684.52</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>34</v>
+      </c>
+      <c r="R105">
+        <v>45455</v>
+      </c>
+      <c r="S105">
+        <v>28614</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" t="s">
+        <v>355</v>
+      </c>
+      <c r="B106"/>
+      <c r="C106" t="s">
+        <v>356</v>
+      </c>
+      <c r="D106">
+        <v>79082912469</v>
+      </c>
+      <c r="E106" t="s">
+        <v>357</v>
+      </c>
+      <c r="F106">
+        <v>2000</v>
+      </c>
+      <c r="G106" t="s">
+        <v>43</v>
+      </c>
+      <c r="H106" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" t="s">
+        <v>32</v>
+      </c>
+      <c r="J106" t="s">
+        <v>57</v>
+      </c>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106">
+        <v>0.15454545454545</v>
+      </c>
+      <c r="N106">
+        <v>7</v>
+      </c>
+      <c r="O106"/>
+      <c r="P106">
+        <v>820684.52</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>47</v>
+      </c>
+      <c r="R106">
+        <v>45456</v>
+      </c>
+      <c r="S106">
+        <v>34992</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" t="s">
+        <v>358</v>
+      </c>
+      <c r="B107"/>
+      <c r="C107" t="s">
+        <v>359</v>
+      </c>
+      <c r="D107">
+        <v>79269198381</v>
+      </c>
+      <c r="E107" t="s">
+        <v>360</v>
+      </c>
+      <c r="F107">
+        <v>3000</v>
+      </c>
+      <c r="G107" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" t="s">
+        <v>32</v>
+      </c>
+      <c r="J107" t="s">
+        <v>67</v>
+      </c>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107">
+        <v>0.13513513513514</v>
+      </c>
+      <c r="N107">
+        <v>8</v>
+      </c>
+      <c r="O107"/>
+      <c r="P107">
+        <v>820684.52</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>47</v>
+      </c>
+      <c r="R107">
+        <v>45457</v>
+      </c>
+      <c r="S107">
+        <v>30950</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" t="s">
+        <v>361</v>
+      </c>
+      <c r="B108"/>
+      <c r="C108" t="s">
+        <v>362</v>
+      </c>
+      <c r="D108">
+        <v>79608253402</v>
+      </c>
+      <c r="E108" t="s">
+        <v>363</v>
+      </c>
+      <c r="F108">
+        <v>10000</v>
+      </c>
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" t="s">
+        <v>32</v>
+      </c>
+      <c r="J108" t="s">
+        <v>33</v>
+      </c>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108">
+        <v>0.33333333333333</v>
+      </c>
+      <c r="N108">
+        <v>15</v>
+      </c>
+      <c r="O108"/>
+      <c r="P108">
+        <v>820684.52</v>
+      </c>
+      <c r="Q108"/>
+      <c r="R108">
+        <v>45458</v>
+      </c>
+      <c r="S108">
+        <v>38820</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" t="s">
+        <v>364</v>
+      </c>
+      <c r="B109"/>
+      <c r="C109" t="s">
+        <v>365</v>
+      </c>
+      <c r="D109">
+        <v>79174130055</v>
+      </c>
+      <c r="E109" t="s">
+        <v>366</v>
+      </c>
+      <c r="F109">
+        <v>15000</v>
+      </c>
+      <c r="G109" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109" t="s">
+        <v>32</v>
+      </c>
+      <c r="J109" t="s">
+        <v>33</v>
+      </c>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109">
+        <v>0.059416767922236</v>
+      </c>
+      <c r="N109">
+        <v>30</v>
+      </c>
+      <c r="O109"/>
+      <c r="P109">
+        <v>820684.52</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>34</v>
+      </c>
+      <c r="R109">
+        <v>45459</v>
+      </c>
+      <c r="S109">
+        <v>39022</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" t="s">
+        <v>367</v>
+      </c>
+      <c r="B110"/>
+      <c r="C110" t="s">
+        <v>368</v>
+      </c>
+      <c r="D110">
+        <v>79503852794</v>
+      </c>
+      <c r="E110" t="s">
+        <v>369</v>
+      </c>
+      <c r="F110">
+        <v>7000</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" t="s">
+        <v>32</v>
+      </c>
+      <c r="J110" t="s">
+        <v>33</v>
+      </c>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110">
+        <v>0.11111111111111</v>
+      </c>
+      <c r="N110">
+        <v>20</v>
+      </c>
+      <c r="O110"/>
+      <c r="P110">
+        <v>820684.52</v>
+      </c>
+      <c r="Q110"/>
+      <c r="R110">
+        <v>45460</v>
+      </c>
+      <c r="S110">
+        <v>39021</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" t="s">
+        <v>370</v>
+      </c>
+      <c r="B111"/>
+      <c r="C111" t="s">
+        <v>371</v>
+      </c>
+      <c r="D111">
+        <v>79609939931</v>
+      </c>
+      <c r="E111" t="s">
+        <v>372</v>
+      </c>
+      <c r="F111">
+        <v>3000</v>
+      </c>
+      <c r="G111" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111" t="s">
+        <v>32</v>
+      </c>
+      <c r="J111" t="s">
+        <v>67</v>
+      </c>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111">
+        <v>0.042857142857143</v>
+      </c>
+      <c r="N111">
+        <v>14</v>
+      </c>
+      <c r="O111"/>
+      <c r="P111">
+        <v>820684.52</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>34</v>
+      </c>
+      <c r="R111">
+        <v>45461</v>
+      </c>
+      <c r="S111">
+        <v>39020</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" t="s">
+        <v>373</v>
+      </c>
+      <c r="B112"/>
+      <c r="C112" t="s">
+        <v>374</v>
+      </c>
+      <c r="D112">
+        <v>79086539433</v>
+      </c>
+      <c r="E112" t="s">
+        <v>375</v>
+      </c>
+      <c r="F112">
+        <v>7000</v>
+      </c>
+      <c r="G112" t="s">
+        <v>43</v>
+      </c>
+      <c r="H112" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" t="s">
+        <v>32</v>
+      </c>
+      <c r="J112" t="s">
+        <v>57</v>
+      </c>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112">
+        <v>0.0375</v>
+      </c>
+      <c r="N112">
+        <v>30</v>
+      </c>
+      <c r="O112"/>
+      <c r="P112">
+        <v>820684.52</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>27</v>
+      </c>
+      <c r="R112">
+        <v>45462</v>
+      </c>
+      <c r="S112">
+        <v>32157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" t="s">
+        <v>376</v>
+      </c>
+      <c r="B113"/>
+      <c r="C113" t="s">
+        <v>377</v>
+      </c>
+      <c r="D113">
+        <v>79197615435</v>
+      </c>
+      <c r="E113" t="s">
+        <v>378</v>
+      </c>
+      <c r="F113">
+        <v>1000</v>
+      </c>
+      <c r="G113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113" t="s">
+        <v>24</v>
+      </c>
+      <c r="I113" t="s">
+        <v>32</v>
+      </c>
+      <c r="J113" t="s">
+        <v>33</v>
+      </c>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113">
+        <v>0.13</v>
+      </c>
+      <c r="N113">
+        <v>30</v>
+      </c>
+      <c r="O113"/>
+      <c r="P113">
+        <v>820684.52</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>47</v>
+      </c>
+      <c r="R113">
+        <v>45463</v>
+      </c>
+      <c r="S113">
+        <v>39026</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" t="s">
+        <v>379</v>
+      </c>
+      <c r="B114"/>
+      <c r="C114" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114">
+        <v>79006084323</v>
+      </c>
+      <c r="E114" t="s">
+        <v>381</v>
+      </c>
+      <c r="F114">
+        <v>4000</v>
+      </c>
+      <c r="G114" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" t="s">
+        <v>24</v>
+      </c>
+      <c r="I114" t="s">
+        <v>32</v>
+      </c>
+      <c r="J114" t="s">
+        <v>33</v>
+      </c>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114">
+        <v>0.19047619047619</v>
+      </c>
+      <c r="N114">
+        <v>30</v>
+      </c>
+      <c r="O114"/>
+      <c r="P114">
+        <v>820684.52</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>47</v>
+      </c>
+      <c r="R114">
+        <v>45465</v>
+      </c>
+      <c r="S114">
+        <v>38955</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" t="s">
+        <v>382</v>
+      </c>
+      <c r="B115"/>
+      <c r="C115" t="s">
+        <v>383</v>
+      </c>
+      <c r="D115">
+        <v>79212282283</v>
+      </c>
+      <c r="E115" t="s">
+        <v>384</v>
+      </c>
+      <c r="F115">
+        <v>7000</v>
+      </c>
+      <c r="G115" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" t="s">
+        <v>24</v>
+      </c>
+      <c r="I115" t="s">
+        <v>32</v>
+      </c>
+      <c r="J115" t="s">
+        <v>67</v>
+      </c>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115">
+        <v>0.082692307692308</v>
+      </c>
+      <c r="N115">
+        <v>30</v>
+      </c>
+      <c r="O115"/>
+      <c r="P115">
+        <v>820684.52</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>47</v>
+      </c>
+      <c r="R115">
+        <v>45466</v>
+      </c>
+      <c r="S115">
+        <v>39030</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" t="s">
+        <v>385</v>
+      </c>
+      <c r="B116"/>
+      <c r="C116" t="s">
+        <v>386</v>
+      </c>
+      <c r="D116">
+        <v>79997989977</v>
+      </c>
+      <c r="E116" t="s">
+        <v>387</v>
+      </c>
+      <c r="F116">
+        <v>7000</v>
+      </c>
+      <c r="G116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" t="s">
+        <v>24</v>
+      </c>
+      <c r="I116" t="s">
+        <v>32</v>
+      </c>
+      <c r="J116" t="s">
+        <v>67</v>
+      </c>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116">
+        <v>0.05</v>
+      </c>
+      <c r="N116">
+        <v>14</v>
+      </c>
+      <c r="O116"/>
+      <c r="P116">
+        <v>820684.52</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>34</v>
+      </c>
+      <c r="R116">
+        <v>45467</v>
+      </c>
+      <c r="S116">
+        <v>39031</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" t="s">
+        <v>388</v>
+      </c>
+      <c r="B117"/>
+      <c r="C117" t="s">
+        <v>389</v>
+      </c>
+      <c r="D117">
+        <v>79312230877</v>
+      </c>
+      <c r="E117" t="s">
+        <v>390</v>
+      </c>
+      <c r="F117">
+        <v>10000</v>
+      </c>
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" t="s">
+        <v>24</v>
+      </c>
+      <c r="I117" t="s">
+        <v>32</v>
+      </c>
+      <c r="J117" t="s">
+        <v>33</v>
+      </c>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117">
+        <v>0.29090909090909</v>
+      </c>
+      <c r="N117">
+        <v>24</v>
+      </c>
+      <c r="O117"/>
+      <c r="P117">
+        <v>820684.52</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>34</v>
+      </c>
+      <c r="R117">
+        <v>45468</v>
+      </c>
+      <c r="S117">
+        <v>39033</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" t="s">
+        <v>391</v>
+      </c>
+      <c r="B118"/>
+      <c r="C118" t="s">
+        <v>392</v>
+      </c>
+      <c r="D118">
+        <v>79280418081</v>
+      </c>
+      <c r="E118" t="s">
+        <v>393</v>
+      </c>
+      <c r="F118">
+        <v>12000</v>
+      </c>
+      <c r="G118" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118" t="s">
+        <v>32</v>
+      </c>
+      <c r="J118" t="s">
+        <v>67</v>
+      </c>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118">
+        <v>0.083333333333333</v>
+      </c>
+      <c r="N118">
+        <v>21</v>
+      </c>
+      <c r="O118"/>
+      <c r="P118">
+        <v>820684.52</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>47</v>
+      </c>
+      <c r="R118">
+        <v>45470</v>
+      </c>
+      <c r="S118">
+        <v>39035</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" t="s">
+        <v>394</v>
+      </c>
+      <c r="B119"/>
+      <c r="C119" t="s">
+        <v>395</v>
+      </c>
+      <c r="D119">
+        <v>79517978200</v>
+      </c>
+      <c r="E119" t="s">
+        <v>396</v>
+      </c>
+      <c r="F119">
+        <v>4000</v>
+      </c>
+      <c r="G119" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119" t="s">
+        <v>32</v>
+      </c>
+      <c r="J119" t="s">
+        <v>67</v>
+      </c>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119">
+        <v>0.20833333333333</v>
+      </c>
+      <c r="N119">
+        <v>14</v>
+      </c>
+      <c r="O119"/>
+      <c r="P119">
+        <v>820684.52</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>47</v>
+      </c>
+      <c r="R119">
+        <v>45471</v>
+      </c>
+      <c r="S119">
+        <v>39038</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" t="s">
+        <v>397</v>
+      </c>
+      <c r="B120"/>
+      <c r="C120" t="s">
+        <v>398</v>
+      </c>
+      <c r="D120">
+        <v>79004922648</v>
+      </c>
+      <c r="E120" t="s">
+        <v>399</v>
+      </c>
+      <c r="F120">
+        <v>15000</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" t="s">
+        <v>32</v>
+      </c>
+      <c r="J120" t="s">
+        <v>33</v>
+      </c>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120">
+        <v>0.10909090909091</v>
+      </c>
+      <c r="N120">
+        <v>30</v>
+      </c>
+      <c r="O120"/>
+      <c r="P120">
+        <v>820684.52</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>47</v>
+      </c>
+      <c r="R120">
+        <v>45472</v>
+      </c>
+      <c r="S120">
+        <v>39039</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" t="s">
+        <v>400</v>
+      </c>
+      <c r="B121"/>
+      <c r="C121" t="s">
+        <v>401</v>
+      </c>
+      <c r="D121">
+        <v>79177618344</v>
+      </c>
+      <c r="E121" t="s">
+        <v>402</v>
+      </c>
+      <c r="F121">
+        <v>7000</v>
+      </c>
+      <c r="G121" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" t="s">
+        <v>32</v>
+      </c>
+      <c r="J121" t="s">
+        <v>57</v>
+      </c>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121">
+        <v>0.08</v>
+      </c>
+      <c r="N121">
+        <v>18</v>
+      </c>
+      <c r="O121"/>
+      <c r="P121">
+        <v>820684.52</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>34</v>
+      </c>
+      <c r="R121">
+        <v>45473</v>
+      </c>
+      <c r="S121">
+        <v>39042</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" t="s">
+        <v>403</v>
+      </c>
+      <c r="B122"/>
+      <c r="C122" t="s">
+        <v>404</v>
+      </c>
+      <c r="D122">
+        <v>79816855255</v>
+      </c>
+      <c r="E122" t="s">
+        <v>405</v>
+      </c>
+      <c r="F122">
+        <v>7000</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" t="s">
+        <v>24</v>
+      </c>
+      <c r="I122" t="s">
+        <v>32</v>
+      </c>
+      <c r="J122" t="s">
+        <v>33</v>
+      </c>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122">
+        <v>0.16666666666667</v>
+      </c>
+      <c r="N122">
+        <v>21</v>
+      </c>
+      <c r="O122"/>
+      <c r="P122">
+        <v>820684.52</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>34</v>
+      </c>
+      <c r="R122">
+        <v>45474</v>
+      </c>
+      <c r="S122">
+        <v>39043</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" t="s">
+        <v>406</v>
+      </c>
+      <c r="B123"/>
+      <c r="C123" t="s">
+        <v>407</v>
+      </c>
+      <c r="D123">
+        <v>79377202425</v>
+      </c>
+      <c r="E123" t="s">
+        <v>408</v>
+      </c>
+      <c r="F123">
+        <v>9000</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123" t="s">
+        <v>32</v>
+      </c>
+      <c r="J123" t="s">
+        <v>57</v>
+      </c>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123">
+        <v>0.10588235294118</v>
+      </c>
+      <c r="N123">
+        <v>30</v>
+      </c>
+      <c r="O123"/>
+      <c r="P123">
+        <v>820684.52</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>34</v>
+      </c>
+      <c r="R123">
+        <v>45475</v>
+      </c>
+      <c r="S123">
+        <v>39047</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" t="s">
+        <v>409</v>
+      </c>
+      <c r="B124"/>
+      <c r="C124" t="s">
+        <v>410</v>
+      </c>
+      <c r="D124">
+        <v>79326007665</v>
+      </c>
+      <c r="E124" t="s">
+        <v>411</v>
+      </c>
+      <c r="F124">
+        <v>6000</v>
+      </c>
+      <c r="G124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124" t="s">
+        <v>32</v>
+      </c>
+      <c r="J124" t="s">
+        <v>67</v>
+      </c>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124">
+        <v>0.22222222222222</v>
+      </c>
+      <c r="N124">
+        <v>14</v>
+      </c>
+      <c r="O124"/>
+      <c r="P124">
+        <v>820684.52</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>47</v>
+      </c>
+      <c r="R124">
+        <v>45476</v>
+      </c>
+      <c r="S124">
+        <v>39048</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" t="s">
+        <v>412</v>
+      </c>
+      <c r="B125"/>
+      <c r="C125" t="s">
+        <v>413</v>
+      </c>
+      <c r="D125">
+        <v>79277990222</v>
+      </c>
+      <c r="E125" t="s">
+        <v>414</v>
+      </c>
+      <c r="F125">
+        <v>11000</v>
+      </c>
+      <c r="G125" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125" t="s">
+        <v>32</v>
+      </c>
+      <c r="J125" t="s">
+        <v>33</v>
+      </c>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125">
+        <v>0.22222222222222</v>
+      </c>
+      <c r="N125">
+        <v>14</v>
+      </c>
+      <c r="O125"/>
+      <c r="P125">
+        <v>820684.52</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>34</v>
+      </c>
+      <c r="R125">
+        <v>45478</v>
+      </c>
+      <c r="S125">
+        <v>39051</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" t="s">
+        <v>415</v>
+      </c>
+      <c r="B126"/>
+      <c r="C126" t="s">
+        <v>416</v>
+      </c>
+      <c r="D126">
+        <v>79991100647</v>
+      </c>
+      <c r="E126" t="s">
+        <v>417</v>
+      </c>
+      <c r="F126">
+        <v>7000</v>
+      </c>
+      <c r="G126" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126" t="s">
+        <v>32</v>
+      </c>
+      <c r="J126" t="s">
+        <v>67</v>
+      </c>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126">
+        <v>0.13333333333333</v>
+      </c>
+      <c r="N126">
+        <v>17</v>
+      </c>
+      <c r="O126"/>
+      <c r="P126">
+        <v>820684.52</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>47</v>
+      </c>
+      <c r="R126">
+        <v>45480</v>
+      </c>
+      <c r="S126">
+        <v>39053</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" t="s">
+        <v>418</v>
+      </c>
+      <c r="B127"/>
+      <c r="C127" t="s">
+        <v>419</v>
+      </c>
+      <c r="D127">
+        <v>79184084772</v>
+      </c>
+      <c r="E127" t="s">
+        <v>420</v>
+      </c>
+      <c r="F127">
+        <v>5000</v>
+      </c>
+      <c r="G127" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" t="s">
+        <v>24</v>
+      </c>
+      <c r="I127" t="s">
+        <v>32</v>
+      </c>
+      <c r="J127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127">
+        <v>0.26785714285714</v>
+      </c>
+      <c r="N127">
+        <v>16</v>
+      </c>
+      <c r="O127"/>
+      <c r="P127">
+        <v>820684.52</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>47</v>
+      </c>
+      <c r="R127">
+        <v>45481</v>
+      </c>
+      <c r="S127">
+        <v>39054</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" t="s">
+        <v>421</v>
+      </c>
+      <c r="B128"/>
+      <c r="C128" t="s">
+        <v>422</v>
+      </c>
+      <c r="D128">
+        <v>79048169196</v>
+      </c>
+      <c r="E128" t="s">
+        <v>423</v>
+      </c>
+      <c r="F128">
+        <v>7000</v>
+      </c>
+      <c r="G128" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" t="s">
+        <v>24</v>
+      </c>
+      <c r="I128" t="s">
+        <v>32</v>
+      </c>
+      <c r="J128" t="s">
+        <v>57</v>
+      </c>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128">
+        <v>0.071428571428571</v>
+      </c>
+      <c r="N128">
+        <v>14</v>
+      </c>
+      <c r="O128"/>
+      <c r="P128">
+        <v>820684.52</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>34</v>
+      </c>
+      <c r="R128">
+        <v>45482</v>
+      </c>
+      <c r="S128">
+        <v>39055</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" t="s">
+        <v>424</v>
+      </c>
+      <c r="B129"/>
+      <c r="C129" t="s">
+        <v>425</v>
+      </c>
+      <c r="D129">
+        <v>79833970445</v>
+      </c>
+      <c r="E129" t="s">
+        <v>426</v>
+      </c>
+      <c r="F129">
+        <v>15000</v>
+      </c>
+      <c r="G129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" t="s">
+        <v>24</v>
+      </c>
+      <c r="I129" t="s">
+        <v>32</v>
+      </c>
+      <c r="J129" t="s">
+        <v>33</v>
+      </c>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129">
+        <v>0.19178082191781</v>
+      </c>
+      <c r="N129">
+        <v>14</v>
+      </c>
+      <c r="O129"/>
+      <c r="P129">
+        <v>820684.52</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>34</v>
+      </c>
+      <c r="R129">
+        <v>45483</v>
+      </c>
+      <c r="S129">
+        <v>39059</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" t="s">
+        <v>427</v>
+      </c>
+      <c r="B130"/>
+      <c r="C130" t="s">
+        <v>428</v>
+      </c>
+      <c r="D130">
+        <v>79651490380</v>
+      </c>
+      <c r="E130" t="s">
+        <v>429</v>
+      </c>
+      <c r="F130">
+        <v>5000</v>
+      </c>
+      <c r="G130" t="s">
+        <v>43</v>
+      </c>
+      <c r="H130" t="s">
+        <v>24</v>
+      </c>
+      <c r="I130" t="s">
+        <v>32</v>
+      </c>
+      <c r="J130" t="s">
+        <v>67</v>
+      </c>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130">
+        <v>0.05</v>
+      </c>
+      <c r="N130">
+        <v>19</v>
+      </c>
+      <c r="O130"/>
+      <c r="P130">
+        <v>820684.52</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>47</v>
+      </c>
+      <c r="R130">
+        <v>45484</v>
+      </c>
+      <c r="S130">
+        <v>27644</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" t="s">
+        <v>430</v>
+      </c>
+      <c r="B131"/>
+      <c r="C131" t="s">
+        <v>431</v>
+      </c>
+      <c r="D131">
+        <v>79292007826</v>
+      </c>
+      <c r="E131" t="s">
+        <v>432</v>
+      </c>
+      <c r="F131">
+        <v>3000</v>
+      </c>
+      <c r="G131" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131" t="s">
+        <v>24</v>
+      </c>
+      <c r="I131" t="s">
+        <v>32</v>
+      </c>
+      <c r="J131" t="s">
+        <v>33</v>
+      </c>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131">
+        <v>0.125</v>
+      </c>
+      <c r="N131">
+        <v>25</v>
+      </c>
+      <c r="O131"/>
+      <c r="P131">
+        <v>820684.52</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>47</v>
+      </c>
+      <c r="R131">
+        <v>45485</v>
+      </c>
+      <c r="S131">
+        <v>39062</v>
       </c>
     </row>
   </sheetData>
